--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V185"/>
+  <dimension ref="A1:V189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,22 +1409,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.81</v>
+        <v>1.58</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,15 +1432,15 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.14</v>
+        <v>3.59</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2.97</v>
+        <v>4.74</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,15 +1448,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.07</v>
+        <v>6.49</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.3</v>
+        <v>9.94</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.58</v>
+        <v>3.81</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.59</v>
+        <v>3.14</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.74</v>
+        <v>2.97</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1540,15 +1540,15 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.49</v>
+        <v>2.07</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>9.94</v>
+        <v>2.3</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Qingdao West Coast</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" t="n">
-        <v>5.64</v>
+        <v>2.28</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5.74</v>
+        <v>2.81</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:52</t>
+          <t>07/05/2023 08:56</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>3.09</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,32 +1808,32 @@
         </is>
       </c>
       <c r="P15" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>07/05/2023 08:56</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>3.31</v>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>07/05/2023 08:52</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S15" t="inlineStr">
         <is>
           <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>2.91</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:37</t>
+          <t>07/05/2023 08:38</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.28</v>
+        <v>3.53</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.81</v>
+        <v>2.96</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:39</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.31</v>
+        <v>2.31</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.91</v>
+        <v>2.72</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:38</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.53</v>
+        <v>5.64</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.96</v>
+        <v>5.74</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.84</v>
+        <v>3.31</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:39</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.31</v>
+        <v>1.63</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.72</v>
+        <v>1.72</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:37</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>3.49</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>09/05/2023 22:28</t>
+          <t>09/05/2023 22:29</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.35</v>
+        <v>4.19</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10/05/2023 08:49</t>
+          <t>10/05/2023 08:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.19</v>
+        <v>2.99</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>09/05/2023 22:28</t>
+          <t>09/05/2023 22:29</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.09</v>
+        <v>2.84</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>10/05/2023 08:49</t>
+          <t>10/05/2023 08:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.98</v>
+        <v>2.26</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>09/05/2023 22:28</t>
+          <t>09/05/2023 22:29</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.24</v>
+        <v>2.14</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>10/05/2023 08:49</t>
+          <t>10/05/2023 08:56</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-jinan-xingzhou/Kf8WSDR0/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-yanbian-longding/EH7zSXt7/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.49</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>09/05/2023 22:29</t>
+          <t>09/05/2023 22:28</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4.19</v>
+        <v>2.35</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>10/05/2023 08:56</t>
+          <t>10/05/2023 08:49</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.99</v>
+        <v>3.19</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>09/05/2023 22:29</t>
+          <t>09/05/2023 22:28</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.84</v>
+        <v>3.09</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>10/05/2023 08:59</t>
+          <t>10/05/2023 08:49</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.26</v>
+        <v>3.98</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>09/05/2023 22:29</t>
+          <t>09/05/2023 22:28</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.14</v>
+        <v>3.24</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>10/05/2023 08:56</t>
+          <t>10/05/2023 08:49</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-yanbian-longding/EH7zSXt7/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-jinan-xingzhou/Kf8WSDR0/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.11</v>
+        <v>1.52</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>09/05/2023 22:29</t>
+          <t>09/05/2023 22:30</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.29</v>
+        <v>1.43</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10/05/2023 09:23</t>
+          <t>10/05/2023 09:29</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.19</v>
+        <v>3.88</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>09/05/2023 22:29</t>
+          <t>09/05/2023 22:30</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2.95</v>
+        <v>4.1</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>10/05/2023 08:41</t>
+          <t>10/05/2023 09:29</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.62</v>
+        <v>6.86</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>09/05/2023 22:29</t>
+          <t>09/05/2023 22:30</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.54</v>
+        <v>8.18</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>10/05/2023 09:23</t>
+          <t>10/05/2023 09:29</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-jiangxi-lushan/2wlVmF3Q/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-dandong-tengyue/UPkNkyZD/</t>
         </is>
       </c>
     </row>
@@ -2321,30 +2321,30 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>09/05/2023 22:30</t>
+          <t>09/05/2023 22:29</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2352,15 +2352,15 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.88</v>
+        <v>3.48</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>09/05/2023 22:30</t>
+          <t>09/05/2023 22:29</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,24 +2368,24 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>6.86</v>
+        <v>5.86</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>09/05/2023 22:30</t>
+          <t>09/05/2023 22:29</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>8.18</v>
+        <v>6.03</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>10/05/2023 09:29</t>
+          <t>10/05/2023 09:28</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-dandong-tengyue/UPkNkyZD/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-heilongjiang-ice-city/8GlRlelK/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.66</v>
+        <v>2.29</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>10/05/2023 09:29</t>
+          <t>10/05/2023 09:23</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.48</v>
+        <v>3.19</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>10/05/2023 09:29</t>
+          <t>10/05/2023 08:41</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>5.86</v>
+        <v>3.62</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>6.03</v>
+        <v>3.54</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>10/05/2023 09:28</t>
+          <t>10/05/2023 09:23</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-heilongjiang-ice-city/8GlRlelK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-jiangxi-lushan/2wlVmF3Q/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Jinan Xingzhou</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>12/05/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>13/05/2023 09:03</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>12/05/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>13/05/2023 09:08</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
         <v>5</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Wuxi Wugou</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>12/05/2023 17:13</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>13/05/2023 09:22</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>12/05/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>13/05/2023 09:22</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>12/05/2023 17:13</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>7.85</v>
+        <v>5.61</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>13/05/2023 09:22</t>
+          <t>13/05/2023 09:08</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-wuxi-wugou/SKX9tXe0/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jinan-xingzhou/boT5sDtf/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13/05/2023 09:03</t>
+          <t>13/05/2023 09:22</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.51</v>
+        <v>3.97</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.48</v>
+        <v>4.11</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13/05/2023 09:08</t>
+          <t>13/05/2023 09:22</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>9.91</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.61</v>
+        <v>7.85</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13/05/2023 09:08</t>
+          <t>13/05/2023 09:22</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jinan-xingzhou/boT5sDtf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-wuxi-wugou/SKX9tXe0/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.51</v>
+        <v>2</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>20/05/2023 10:14</t>
+          <t>21/05/2023 00:01</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>21/05/2023 09:26</t>
+          <t>21/05/2023 09:19</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.97</v>
+        <v>3.29</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>20/05/2023 10:14</t>
+          <t>21/05/2023 00:01</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>21/05/2023 09:27</t>
+          <t>21/05/2023 09:19</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.95</v>
+        <v>3.86</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>20/05/2023 10:14</t>
+          <t>21/05/2023 00:01</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.27</v>
+        <v>3.37</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>21/05/2023 09:27</t>
+          <t>21/05/2023 09:22</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-sichuan-jiuniu/MHRiilAI/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-dongguan-guanlian/0nT3b5Ho/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>2.51</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>21/05/2023 00:01</t>
+          <t>20/05/2023 10:14</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>21/05/2023 09:19</t>
+          <t>21/05/2023 09:26</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.29</v>
+        <v>2.97</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>21/05/2023 00:01</t>
+          <t>20/05/2023 10:14</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>21/05/2023 09:19</t>
+          <t>21/05/2023 09:27</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.86</v>
+        <v>2.95</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>21/05/2023 00:01</t>
+          <t>20/05/2023 10:14</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.37</v>
+        <v>3.27</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>21/05/2023 09:22</t>
+          <t>21/05/2023 09:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-dongguan-guanlian/0nT3b5Ho/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-sichuan-jiuniu/MHRiilAI/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>02/06/2023 01:42</t>
+          <t>02/06/2023 17:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.47</v>
+        <v>1.99</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>03/06/2023 13:27</t>
+          <t>03/06/2023 13:19</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.17</v>
+        <v>3.03</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>02/06/2023 01:42</t>
+          <t>02/06/2023 17:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.9</v>
+        <v>3.24</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>03/06/2023 13:27</t>
+          <t>03/06/2023 13:17</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.7</v>
+        <v>3.49</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>02/06/2023 01:42</t>
+          <t>02/06/2023 17:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>7.42</v>
+        <v>4.04</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>03/06/2023 13:27</t>
+          <t>03/06/2023 13:19</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-wuxi-wugou/MLuf9MV3/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-shijiazhuang-gongfu/QDxB5vVS/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.23</v>
+        <v>1.75</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>02/06/2023 17:12</t>
+          <t>02/06/2023 01:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.99</v>
+        <v>1.47</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>03/06/2023 13:19</t>
+          <t>03/06/2023 13:27</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.03</v>
+        <v>3.17</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>02/06/2023 17:12</t>
+          <t>02/06/2023 01:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.24</v>
+        <v>3.9</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>03/06/2023 13:17</t>
+          <t>03/06/2023 13:27</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.49</v>
+        <v>4.7</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>02/06/2023 17:12</t>
+          <t>02/06/2023 01:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.04</v>
+        <v>7.42</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>03/06/2023 13:19</t>
+          <t>03/06/2023 13:27</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-shijiazhuang-gongfu/QDxB5vVS/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-wuxi-wugou/MLuf9MV3/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.18</v>
+        <v>2.69</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.35</v>
+        <v>3.63</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.34</v>
+        <v>2.69</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.28</v>
+        <v>2.26</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.69</v>
+        <v>2.18</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.63</v>
+        <v>2.35</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:56</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.69</v>
+        <v>3.34</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.26</v>
+        <v>3.28</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:59</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Shanghai Jiading Huilong</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Jinan Xingzhou</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
       <c r="J77" t="n">
-        <v>2.59</v>
+        <v>1.67</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.67</v>
+        <v>1.43</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:05</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.79</v>
+        <v>3.53</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>4.18</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.88</v>
+        <v>4.56</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.21</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.67</v>
+        <v>3.14</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.43</v>
+        <v>3.73</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.53</v>
+        <v>2.7</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.18</v>
+        <v>2.79</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.56</v>
+        <v>2.48</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>8.529999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>3.14</v>
+        <v>2.15</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.73</v>
+        <v>1.65</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2.79</v>
+        <v>3.68</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.48</v>
+        <v>3.48</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.3</v>
+        <v>5.57</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>2.96</v>
+        <v>3.09</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.48</v>
+        <v>4.81</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>5.57</v>
+        <v>8.51</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.78</v>
+        <v>2.59</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.5</v>
+        <v>3.67</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:05</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.09</v>
+        <v>2.79</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.67</v>
+        <v>3</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>4.81</v>
+        <v>2.88</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>8.51</v>
+        <v>2.21</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4.26</v>
+        <v>2.89</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.27</v>
+        <v>2.86</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:23</t>
+          <t>01/07/2023 13:13</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.04</v>
+        <v>2.85</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.93</v>
+        <v>2.76</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.89</v>
+        <v>4.26</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.86</v>
+        <v>3.27</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:13</t>
+          <t>01/07/2023 13:23</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.85</v>
+        <v>2.04</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.76</v>
+        <v>1.93</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>07/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>08/07/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>07/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>08/07/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
         <v>2</v>
       </c>
-      <c r="J92" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>07/07/2023 17:12</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M92" t="inlineStr">
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>07/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U92" t="inlineStr">
         <is>
           <t>08/07/2023 13:25</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>07/07/2023 17:12</t>
-        </is>
-      </c>
-      <c r="P92" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>08/07/2023 13:25</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>07/07/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T92" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>08/07/2023 13:25</t>
-        </is>
-      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shijiazhuang-gongfu/YgMQWyoP/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
         </is>
       </c>
     </row>
@@ -9037,62 +9037,62 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>2</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Yanbian Longding</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
-        <v>3.76</v>
+        <v>2.01</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.4</v>
+        <v>2.09</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.94</v>
+        <v>3.21</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.99</v>
+        <v>3.89</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shijiazhuang-gongfu/YgMQWyoP/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.62</v>
+        <v>2.79</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.68</v>
+        <v>3.53</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:11</t>
+          <t>09/07/2023 13:29</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.41</v>
+        <v>2.89</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:29</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.24</v>
+        <v>2.58</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.97</v>
+        <v>2.22</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:21</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dongguan-guanlian/KjfENX7B/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>2.79</v>
+        <v>1.34</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3.53</v>
+        <v>1.39</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:29</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.89</v>
+        <v>4.37</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.09</v>
+        <v>4.48</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:29</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.58</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.22</v>
+        <v>8.76</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:21</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dongguan-guanlian/KjfENX7B/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:11</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>4.37</v>
+        <v>3.41</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>4.48</v>
+        <v>3.4</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>8.130000000000001</v>
+        <v>5.24</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>8.76</v>
+        <v>5.97</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.88</v>
+        <v>1.55</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.73</v>
+        <v>3.49</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.38</v>
+        <v>4.12</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.77</v>
+        <v>5.05</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.34</v>
+        <v>5.85</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangzhou-fc/WUNWuFNu/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dandong-tengyue/SGcMLBxO/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G102" t="n">
+        <v>4</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
         <v>2</v>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Dandong Tengyue</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
       <c r="J102" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.49</v>
+        <v>3.73</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4.12</v>
+        <v>3.38</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>5.05</v>
+        <v>5.77</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>5.85</v>
+        <v>4.34</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dandong-tengyue/SGcMLBxO/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangzhou-fc/WUNWuFNu/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>3.72</v>
+        <v>1.96</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,48 +9888,48 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
+          <t>16/07/2023 13:14</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>15/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
           <t>16/07/2023 13:28</t>
         </is>
       </c>
-      <c r="N103" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O103" t="inlineStr">
+      <c r="R103" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S103" t="inlineStr">
         <is>
           <t>15/07/2023 01:42</t>
         </is>
       </c>
-      <c r="P103" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q103" t="inlineStr">
+      <c r="T103" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U103" t="inlineStr">
         <is>
           <t>16/07/2023 13:28</t>
         </is>
       </c>
-      <c r="R103" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>15/07/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T103" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>16/07/2023 13:28</t>
-        </is>
-      </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.4</v>
+        <v>2.93</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:14</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4.24</v>
+        <v>3.23</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:20</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.94</v>
+        <v>2.21</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>9.25</v>
+        <v>2.46</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>3.1</v>
+        <v>3.72</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.93</v>
+        <v>1.78</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.23</v>
+        <v>3.41</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:20</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.21</v>
+        <v>1.97</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.46</v>
+        <v>4.63</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>5.47</v>
+        <v>3.1</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>4.44</v>
+        <v>3.82</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:22</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.48</v>
+        <v>2.87</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.13</v>
+        <v>2.98</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 12:45</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>1.58</v>
+        <v>2.32</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:22</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangxi-pingguo-haliao/SxZdYlMT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shijiazhuang-gongfu/pEqhZU6N/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J108" t="n">
-        <v>2.26</v>
+        <v>1.77</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.01</v>
+        <v>3.19</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.41</v>
+        <v>3.33</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.07</v>
+        <v>4.68</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>5.52</v>
+        <v>5.06</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shanghai-jiading-huilong/WAulzBiH/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>3.1</v>
+        <v>5.47</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>3.82</v>
+        <v>4.44</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>22/07/2023 13:22</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>2.98</v>
+        <v>3.13</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>22/07/2023 12:45</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>22/07/2023 13:22</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shijiazhuang-gongfu/pEqhZU6N/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangxi-pingguo-haliao/SxZdYlMT/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1.77</v>
+        <v>2.26</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.33</v>
+        <v>3.41</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>4.68</v>
+        <v>3.07</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>5.06</v>
+        <v>5.52</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shanghai-jiading-huilong/WAulzBiH/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>2.07</v>
+        <v>4.36</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.01</v>
+        <v>6.83</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.97</v>
+        <v>3.22</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.08</v>
+        <v>3.84</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.68</v>
+        <v>1.78</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.27</v>
+        <v>1.54</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Dongguan Guanlian</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
       <c r="J120" t="n">
-        <v>4.36</v>
+        <v>2.81</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>6.83</v>
+        <v>2.93</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.22</v>
+        <v>2.99</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>1.54</v>
+        <v>2.71</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>2.81</v>
+        <v>2.07</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.93</v>
+        <v>2.01</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.5</v>
+        <v>3.68</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.71</v>
+        <v>4.27</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -12357,14 +12357,14 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>1.67</v>
+        <v>2.53</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.4</v>
+        <v>2.62</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>12/08/2023 13:24</t>
+          <t>12/08/2023 13:22</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.26</v>
+        <v>2.98</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>12/08/2023 13:24</t>
+          <t>12/08/2023 13:21</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>5.11</v>
+        <v>2.78</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>10.04</v>
+        <v>2.79</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>12/08/2023 13:24</t>
+          <t>12/08/2023 13:22</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dandong-tengyue/hdty4tCE/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-jinan-xingzhou/tMxX4Md8/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2.53</v>
+        <v>1.67</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.62</v>
+        <v>1.4</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>12/08/2023 13:22</t>
+          <t>12/08/2023 13:24</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>2.98</v>
+        <v>3.26</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>12/08/2023 13:21</t>
+          <t>12/08/2023 13:24</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.78</v>
+        <v>5.11</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.79</v>
+        <v>10.04</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>12/08/2023 13:22</t>
+          <t>12/08/2023 13:24</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-jinan-xingzhou/tMxX4Md8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dandong-tengyue/hdty4tCE/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J142" t="n">
-        <v>3.13</v>
+        <v>4.05</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.01</v>
+        <v>3.25</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -13500,16 +13500,16 @@
         </is>
       </c>
       <c r="R142" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>19/08/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
         <v>2.22</v>
       </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>19/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T142" t="n">
-        <v>2.17</v>
-      </c>
       <c r="U142" t="inlineStr">
         <is>
           <t>20/08/2023 13:22</t>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>5.23</v>
+        <v>1.39</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>5.93</v>
+        <v>1.38</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.32</v>
+        <v>4.15</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.43</v>
+        <v>4.77</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>1.64</v>
+        <v>7.02</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>1.68</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>1.39</v>
+        <v>3.13</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.38</v>
+        <v>3.43</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>4.15</v>
+        <v>3.01</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>4.77</v>
+        <v>3.28</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>7.02</v>
+        <v>2.22</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>8.369999999999999</v>
+        <v>2.17</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>4.05</v>
+        <v>5.23</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>3.38</v>
+        <v>5.93</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.22</v>
+        <v>3.43</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1.86</v>
+        <v>2.86</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>26/08/2023 12:56</t>
+          <t>26/08/2023 12:53</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.22</v>
+        <v>2.84</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.84</v>
+        <v>3.19</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>26/08/2023 12:56</t>
+          <t>26/08/2023 12:53</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.95</v>
+        <v>2.5</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>6.3</v>
+        <v>3.32</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>26/08/2023 12:56</t>
+          <t>26/08/2023 12:53</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-jiangxi-lushan/00Gg8e30/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dandong-tengyue/WQBk9ylf/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>2.86</v>
+        <v>1.86</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>26/08/2023 12:53</t>
+          <t>26/08/2023 12:56</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>2.84</v>
+        <v>3.22</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.19</v>
+        <v>3.84</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>26/08/2023 12:53</t>
+          <t>26/08/2023 12:56</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>2.5</v>
+        <v>3.95</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.32</v>
+        <v>6.3</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>26/08/2023 12:53</t>
+          <t>26/08/2023 12:56</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dandong-tengyue/WQBk9ylf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-jiangxi-lushan/00Gg8e30/</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -14289,14 +14289,14 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>3.23</v>
+        <v>8.65</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>5.75</v>
+        <v>10.13</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>27/08/2023 13:26</t>
+          <t>27/08/2023 13:28</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.08</v>
+        <v>5.31</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.78</v>
+        <v>4.88</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>27/08/2023 13:26</t>
+          <t>27/08/2023 13:28</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>2.14</v>
+        <v>1.26</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>27/08/2023 13:22</t>
+          <t>27/08/2023 13:27</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shijiazhuang-gongfu/QqehTduQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-nanjing-city/6wwLOGms/</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -14473,14 +14473,14 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>8.65</v>
+        <v>3.23</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>10.13</v>
+        <v>5.75</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>27/08/2023 13:28</t>
+          <t>27/08/2023 13:26</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>5.31</v>
+        <v>3.08</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>4.88</v>
+        <v>3.78</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>27/08/2023 13:28</t>
+          <t>27/08/2023 13:26</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>1.26</v>
+        <v>2.14</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>27/08/2023 13:27</t>
+          <t>27/08/2023 13:22</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-nanjing-city/6wwLOGms/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shijiazhuang-gongfu/QqehTduQ/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.06</v>
+        <v>3.16</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>3.96</v>
+        <v>3.62</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-qingdao-west-coast/hfuXLEXa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shanghai-jiading-huilong/viyTMfIg/</t>
         </is>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -14749,14 +14749,14 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J156" t="n">
-        <v>4.07</v>
+        <v>2.08</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>4.33</v>
+        <v>2.09</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:11</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.37</v>
+        <v>3.06</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:06</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>1.88</v>
+        <v>3.96</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:06</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-jinan-xingzhou/zJUyLYn6/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-qingdao-west-coast/hfuXLEXa/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="n">
-        <v>1.82</v>
+        <v>4.07</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,48 +14856,48 @@
         </is>
       </c>
       <c r="L157" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:11</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>01/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:06</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
         <v>1.83</v>
       </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:28</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O157" t="inlineStr">
+      <c r="S157" t="inlineStr">
         <is>
           <t>01/09/2023 01:42</t>
         </is>
       </c>
-      <c r="P157" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Q157" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:28</t>
-        </is>
-      </c>
-      <c r="R157" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="S157" t="inlineStr">
-        <is>
-          <t>01/09/2023 01:42</t>
-        </is>
-      </c>
       <c r="T157" t="n">
-        <v>4.88</v>
+        <v>1.88</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:06</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-dandong-tengyue/E9TuKh2C/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-jinan-xingzhou/zJUyLYn6/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>2.32</v>
+        <v>1.82</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.16</v>
+        <v>3.28</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>3.09</v>
+        <v>4.15</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>3.62</v>
+        <v>4.88</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shanghai-jiading-huilong/viyTMfIg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-dandong-tengyue/E9TuKh2C/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
         <v>2</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Dongguan Guanlian</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
       <c r="J164" t="n">
-        <v>1.57</v>
+        <v>5.13</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.39</v>
+        <v>7.25</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.58</v>
+        <v>3.48</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>4.71</v>
+        <v>4.05</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>5.39</v>
+        <v>1.61</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>8.130000000000001</v>
+        <v>1.49</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-sichuan-jiuniu/C4e6zEng/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>4.3</v>
+        <v>1.57</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>4.18</v>
+        <v>1.39</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3.6</v>
+        <v>4.71</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:26</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>1.79</v>
+        <v>5.39</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>1.85</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>09/09/2023 11:41</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-nanjing-city/YDd2yfXn/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>5.13</v>
+        <v>4.3</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>7.25</v>
+        <v>4.18</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:26</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>1.49</v>
+        <v>1.85</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 11:41</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-sichuan-jiuniu/C4e6zEng/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-nanjing-city/YDd2yfXn/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I171" t="n">
         <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>2.35</v>
+        <v>3.66</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         </is>
       </c>
       <c r="N171" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,32 +16160,32 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.09</v>
+        <v>3.34</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
+          <t>13/09/2023 13:22</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>12/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
           <t>13/09/2023 13:21</t>
         </is>
       </c>
-      <c r="R171" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="S171" t="inlineStr">
-        <is>
-          <t>12/09/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T171" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="U171" t="inlineStr">
-        <is>
-          <t>13/09/2023 13:21</t>
-        </is>
-      </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-yanbian-longding/GE3cYrNM/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-suzhou-dongwu/dQKfX2xT/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>5.47</v>
+        <v>2.14</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>7.71</v>
+        <v>1.93</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>13/09/2023 13:28</t>
+          <t>13/09/2023 13:21</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.68</v>
+        <v>2.87</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>13/09/2023 13:28</t>
+          <t>13/09/2023 13:23</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>1.55</v>
+        <v>3.51</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>1.48</v>
+        <v>4.61</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>13/09/2023 13:28</t>
+          <t>13/09/2023 13:21</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-nanjing-city/r15kz5hA/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-guangxi-pingguo-haliao/nZBtxRNc/</t>
         </is>
       </c>
     </row>
@@ -16305,30 +16305,30 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J173" t="n">
-        <v>1.84</v>
+        <v>5.16</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>12/09/2023 09:12</t>
+          <t>12/09/2023 01:42</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.57</v>
+        <v>10.32</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
@@ -16336,15 +16336,15 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.36</v>
+        <v>3.5</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>12/09/2023 09:12</t>
+          <t>12/09/2023 01:42</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>4.29</v>
+        <v>4.49</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -16352,15 +16352,15 @@
         </is>
       </c>
       <c r="R173" t="n">
-        <v>3.99</v>
+        <v>1.61</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>12/09/2023 09:12</t>
+          <t>12/09/2023 01:42</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>5.35</v>
+        <v>1.36</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shenyang-urban-fc/KSJfENVj/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-sichuan-jiuniu/Uc1oyow4/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,14 +16405,14 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>5.16</v>
+        <v>5.47</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -16420,15 +16420,15 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>10.32</v>
+        <v>7.71</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:28</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.5</v>
+        <v>3.68</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
@@ -16436,15 +16436,15 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>4.49</v>
+        <v>4</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:28</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -16452,16 +16452,16 @@
         </is>
       </c>
       <c r="T174" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:28</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-sichuan-jiuniu/Uc1oyow4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-nanjing-city/r15kz5hA/</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -16497,63 +16497,63 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>12/09/2023 01:42</t>
+          <t>12/09/2023 09:12</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>13/09/2023 13:21</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>2.87</v>
+        <v>3.36</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>12/09/2023 01:42</t>
+          <t>12/09/2023 09:12</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.1</v>
+        <v>4.29</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>13/09/2023 13:23</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.51</v>
+        <v>3.99</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>12/09/2023 01:42</t>
+          <t>12/09/2023 09:12</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>4.61</v>
+        <v>5.35</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>13/09/2023 13:21</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-guangxi-pingguo-haliao/nZBtxRNc/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shenyang-urban-fc/KSJfENVj/</t>
         </is>
       </c>
     </row>
@@ -16581,22 +16581,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I176" t="n">
         <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>3.66</v>
+        <v>2.35</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
@@ -16620,15 +16620,15 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.34</v>
+        <v>3.09</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>13/09/2023 13:22</t>
+          <t>13/09/2023 13:21</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>1.99</v>
+        <v>3.06</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         </is>
       </c>
       <c r="T176" t="n">
-        <v>2.33</v>
+        <v>3.58</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-suzhou-dongwu/dQKfX2xT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-yanbian-longding/GE3cYrNM/</t>
         </is>
       </c>
     </row>
@@ -17474,6 +17474,374 @@
       <c r="V185" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-wuxi-wugou/dlwNWj3F/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45208.375</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Shenyang Urban FC</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Shanghai Jiading Huilong</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>09/10/2023 08:56</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>09/10/2023 08:56</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>09/10/2023 08:56</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-shanghai-jiading-huilong/8SIcQltq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45208.5625</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Wuxi Wugou</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>2</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>09/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>09/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>09/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-wuxi-wugou/jmWVUUXR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45208.5625</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Qingdao West Coast</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Jinan Xingzhou</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>09/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>09/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>09/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-jinan-xingzhou/nJH1P8ek/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45208.5625</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Suzhou Dongwu</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>2</v>
+      </c>
+      <c r="J189" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>08/10/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>09/10/2023 13:25</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>08/10/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>09/10/2023 13:24</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>08/10/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>09/10/2023 13:25</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-dongguan-guanlian/4fC6OSAe/</t>
         </is>
       </c>
     </row>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V189"/>
+  <dimension ref="A1:V190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,22 +1409,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.58</v>
+        <v>3.81</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,15 +1432,15 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.59</v>
+        <v>3.14</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.74</v>
+        <v>2.97</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,15 +1448,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>6.49</v>
+        <v>2.07</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>9.94</v>
+        <v>2.3</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.81</v>
+        <v>1.58</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.14</v>
+        <v>3.59</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2.97</v>
+        <v>4.74</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1540,15 +1540,15 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.07</v>
+        <v>6.49</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.3</v>
+        <v>9.94</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.28</v>
+        <v>5.64</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.81</v>
+        <v>5.74</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.09</v>
+        <v>3.65</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.79</v>
+        <v>3.31</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.31</v>
+        <v>1.63</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.91</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:38</t>
+          <t>07/05/2023 08:37</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Suzhou Dongwu</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.53</v>
+        <v>2.28</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:56</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:39</t>
+          <t>07/05/2023 08:56</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.31</v>
+        <v>3.31</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:38</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>5.64</v>
+        <v>3.53</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5.74</v>
+        <v>2.96</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:52</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.31</v>
+        <v>2.84</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:52</t>
+          <t>07/05/2023 08:39</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.63</v>
+        <v>2.31</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.72</v>
+        <v>2.72</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:37</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>4.17</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.12</v>
+        <v>3.7</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>20/05/2023 09:00</t>
+          <t>20/05/2023 08:59</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.06</v>
+        <v>3.02</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>20/05/2023 09:00</t>
+          <t>20/05/2023 08:59</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.02</v>
+        <v>2.27</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>20/05/2023 09:00</t>
+          <t>20/05/2023 08:59</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-nanjing-city/IPUzeWAg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-shijiazhuang-gongfu/O2VWeCem/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>4.17</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.7</v>
+        <v>4.12</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>20/05/2023 08:59</t>
+          <t>20/05/2023 09:00</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>20/05/2023 08:59</t>
+          <t>20/05/2023 09:00</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.27</v>
+        <v>2.02</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>20/05/2023 08:59</t>
+          <t>20/05/2023 09:00</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-shijiazhuang-gongfu/O2VWeCem/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-nanjing-city/IPUzeWAg/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.47</v>
+        <v>2.04</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:21</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.98</v>
+        <v>2.96</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>5.07</v>
+        <v>3.5</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:21</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>7.56</v>
+        <v>3.66</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>12.42</v>
+        <v>5.64</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:29</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangzhou-fc/CMW7cPWi/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-suzhou-dongwu/zPNSh1oN/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Suzhou Dongwu</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
       <c r="J47" t="n">
-        <v>2.04</v>
+        <v>1.47</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.68</v>
+        <v>1.27</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:21</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.96</v>
+        <v>3.98</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.5</v>
+        <v>5.07</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:21</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.66</v>
+        <v>7.56</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>5.64</v>
+        <v>12.42</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:29</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-suzhou-dongwu/zPNSh1oN/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangzhou-fc/CMW7cPWi/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.23</v>
+        <v>1.75</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>02/06/2023 17:12</t>
+          <t>02/06/2023 01:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.99</v>
+        <v>1.47</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>03/06/2023 13:19</t>
+          <t>03/06/2023 13:27</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.03</v>
+        <v>3.17</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>02/06/2023 17:12</t>
+          <t>02/06/2023 01:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.24</v>
+        <v>3.9</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>03/06/2023 13:17</t>
+          <t>03/06/2023 13:27</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.49</v>
+        <v>4.7</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>02/06/2023 17:12</t>
+          <t>02/06/2023 01:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.04</v>
+        <v>7.42</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>03/06/2023 13:19</t>
+          <t>03/06/2023 13:27</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-shijiazhuang-gongfu/QDxB5vVS/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-wuxi-wugou/MLuf9MV3/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>02/06/2023 01:42</t>
+          <t>02/06/2023 17:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.47</v>
+        <v>1.99</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>03/06/2023 13:27</t>
+          <t>03/06/2023 13:19</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.17</v>
+        <v>3.03</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>02/06/2023 01:42</t>
+          <t>02/06/2023 17:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.9</v>
+        <v>3.24</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>03/06/2023 13:27</t>
+          <t>03/06/2023 13:17</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.7</v>
+        <v>3.49</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>02/06/2023 01:42</t>
+          <t>02/06/2023 17:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>7.42</v>
+        <v>4.04</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>03/06/2023 13:27</t>
+          <t>03/06/2023 13:19</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-wuxi-wugou/MLuf9MV3/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-shijiazhuang-gongfu/QDxB5vVS/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>04/06/2023 07:41</t>
+          <t>04/06/2023 09:24</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.58</v>
+        <v>3.8</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>5.3</v>
+        <v>4.94</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>04/06/2023 09:26</t>
+          <t>04/06/2023 09:29</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.82</v>
+        <v>5.33</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>12.87</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>04/06/2023 09:26</t>
+          <t>04/06/2023 09:29</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shanghai-jiading-huilong/Uoq2700G/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jiangxi-lushan/8xr66KFM/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>04/06/2023 09:24</t>
+          <t>04/06/2023 07:41</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.8</v>
+        <v>3.58</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.94</v>
+        <v>5.3</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04/06/2023 09:29</t>
+          <t>04/06/2023 09:26</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.33</v>
+        <v>4.82</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>9.109999999999999</v>
+        <v>12.87</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>04/06/2023 09:29</t>
+          <t>04/06/2023 09:26</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jiangxi-lushan/8xr66KFM/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shanghai-jiading-huilong/Uoq2700G/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Jinan Xingzhou</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
       <c r="J61" t="n">
-        <v>2.75</v>
+        <v>2.11</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5.49</v>
+        <v>1.92</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>10/06/2023 13:23</t>
+          <t>10/06/2023 13:27</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.94</v>
+        <v>3.07</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.68</v>
+        <v>3.38</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>10/06/2023 13:04</t>
+          <t>10/06/2023 13:27</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.52</v>
+        <v>3.32</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.68</v>
+        <v>4.18</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>10/06/2023 13:04</t>
+          <t>10/06/2023 13:27</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jinan-xingzhou/0QJWMu03/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-heilongjiang-ice-city/KUtpax8d/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.11</v>
+        <v>2.75</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.92</v>
+        <v>5.49</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>10/06/2023 13:27</t>
+          <t>10/06/2023 13:23</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.07</v>
+        <v>2.94</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.38</v>
+        <v>3.68</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>10/06/2023 13:27</t>
+          <t>10/06/2023 13:04</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.32</v>
+        <v>2.52</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.18</v>
+        <v>1.68</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>10/06/2023 13:27</t>
+          <t>10/06/2023 13:04</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-heilongjiang-ice-city/KUtpax8d/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jinan-xingzhou/0QJWMu03/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.46</v>
+        <v>2.85</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>10/06/2023 17:41</t>
+          <t>09/06/2023 21:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.34</v>
+        <v>2.84</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>11/06/2023 09:14</t>
+          <t>11/06/2023 09:22</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.24</v>
+        <v>2.79</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>10/06/2023 17:41</t>
+          <t>09/06/2023 21:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.69</v>
+        <v>2.9</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>11/06/2023 09:14</t>
+          <t>11/06/2023 09:22</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>7.01</v>
+        <v>2.62</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>10/06/2023 17:41</t>
+          <t>09/06/2023 21:42</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>10.24</v>
+        <v>2.77</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>11/06/2023 09:14</t>
+          <t>11/06/2023 09:22</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shenyang-urban-fc/8jNvLJUF/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-suzhou-dongwu/jFCqKwpM/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.85</v>
+        <v>1.46</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>09/06/2023 21:42</t>
+          <t>10/06/2023 17:41</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.84</v>
+        <v>1.34</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>11/06/2023 09:22</t>
+          <t>11/06/2023 09:14</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.79</v>
+        <v>4.24</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>09/06/2023 21:42</t>
+          <t>10/06/2023 17:41</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2.9</v>
+        <v>4.69</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>11/06/2023 09:22</t>
+          <t>11/06/2023 09:14</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.62</v>
+        <v>7.01</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>09/06/2023 21:42</t>
+          <t>10/06/2023 17:41</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.77</v>
+        <v>10.24</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>11/06/2023 09:22</t>
+          <t>11/06/2023 09:14</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-suzhou-dongwu/jFCqKwpM/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shenyang-urban-fc/8jNvLJUF/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.69</v>
+        <v>2.18</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.63</v>
+        <v>2.35</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:56</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.69</v>
+        <v>3.34</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.26</v>
+        <v>3.28</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:59</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.18</v>
+        <v>2.69</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.35</v>
+        <v>3.63</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:56</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.34</v>
+        <v>2.69</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.28</v>
+        <v>2.26</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:59</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.67</v>
+        <v>2.59</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.43</v>
+        <v>3.67</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:05</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.53</v>
+        <v>2.79</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.18</v>
+        <v>3</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.56</v>
+        <v>2.88</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>8.529999999999999</v>
+        <v>2.21</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3.14</v>
+        <v>1.67</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.73</v>
+        <v>1.43</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2.7</v>
+        <v>3.53</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2.79</v>
+        <v>4.18</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.48</v>
+        <v>4.56</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.3</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.15</v>
+        <v>3.14</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.65</v>
+        <v>3.73</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.68</v>
+        <v>2.79</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.48</v>
+        <v>2.48</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>5.57</v>
+        <v>2.3</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>2</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Yanbian Longding</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
       <c r="J80" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.81</v>
+        <v>3.48</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>8.51</v>
+        <v>5.57</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.59</v>
+        <v>1.78</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,48 +7864,48 @@
         </is>
       </c>
       <c r="L81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:25</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>27/06/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
         <v>3.67</v>
       </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:05</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="O81" t="inlineStr">
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:25</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="S81" t="inlineStr">
         <is>
           <t>27/06/2023 01:42</t>
         </is>
       </c>
-      <c r="P81" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:04</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>27/06/2023 01:42</t>
-        </is>
-      </c>
       <c r="T81" t="n">
-        <v>2.21</v>
+        <v>8.51</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.89</v>
+        <v>4.26</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.86</v>
+        <v>3.27</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:13</t>
+          <t>01/07/2023 13:23</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.85</v>
+        <v>2.04</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.76</v>
+        <v>1.93</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4.26</v>
+        <v>2.89</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.27</v>
+        <v>2.86</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:23</t>
+          <t>01/07/2023 13:13</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.04</v>
+        <v>2.85</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.93</v>
+        <v>2.76</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.4</v>
+        <v>3.13</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.26</v>
+        <v>3.16</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.99</v>
+        <v>2.37</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>2</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Suzhou Dongwu</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>3</v>
-      </c>
       <c r="J93" t="n">
-        <v>3.55</v>
+        <v>2.01</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.13</v>
+        <v>2.09</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.37</v>
+        <v>3.89</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shijiazhuang-gongfu/YgMQWyoP/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>07/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>08/07/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>07/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>08/07/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
         <v>2</v>
       </c>
-      <c r="J94" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>07/07/2023 17:12</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M94" t="inlineStr">
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>07/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U94" t="inlineStr">
         <is>
           <t>08/07/2023 13:25</t>
         </is>
       </c>
-      <c r="N94" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>07/07/2023 17:12</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>08/07/2023 13:25</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>07/07/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T94" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>08/07/2023 13:25</t>
-        </is>
-      </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shijiazhuang-gongfu/YgMQWyoP/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:11</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.37</v>
+        <v>3.41</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.48</v>
+        <v>3.4</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>8.130000000000001</v>
+        <v>5.24</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>8.76</v>
+        <v>5.97</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:11</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.41</v>
+        <v>4.37</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.4</v>
+        <v>4.48</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.24</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>5.97</v>
+        <v>8.76</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.62</v>
+        <v>2.56</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.55</v>
+        <v>2.03</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.49</v>
+        <v>2.74</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.12</v>
+        <v>3.04</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.05</v>
+        <v>2.89</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.85</v>
+        <v>4.01</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dandong-tengyue/SGcMLBxO/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-nanjing-city/67dQKViU/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2.56</v>
+        <v>1.62</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.03</v>
+        <v>1.55</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>2.74</v>
+        <v>3.49</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.04</v>
+        <v>4.12</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.89</v>
+        <v>5.05</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>4.01</v>
+        <v>5.85</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-nanjing-city/67dQKViU/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dandong-tengyue/SGcMLBxO/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.96</v>
+        <v>3.72</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:14</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.24</v>
+        <v>3.41</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.94</v>
+        <v>1.97</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>9.25</v>
+        <v>4.63</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.1</v>
+        <v>1.96</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.93</v>
+        <v>1.4</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:14</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.23</v>
+        <v>4.24</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:20</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.21</v>
+        <v>3.94</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.46</v>
+        <v>9.25</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>3.72</v>
+        <v>3.1</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.78</v>
+        <v>2.93</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.41</v>
+        <v>3.23</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:20</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>1.97</v>
+        <v>2.21</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.63</v>
+        <v>2.46</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -12357,14 +12357,14 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>2.53</v>
+        <v>1.67</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.62</v>
+        <v>1.4</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>12/08/2023 13:22</t>
+          <t>12/08/2023 13:24</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>2.98</v>
+        <v>3.26</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>12/08/2023 13:21</t>
+          <t>12/08/2023 13:24</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>2.78</v>
+        <v>5.11</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.79</v>
+        <v>10.04</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>12/08/2023 13:22</t>
+          <t>12/08/2023 13:24</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-jinan-xingzhou/tMxX4Md8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dandong-tengyue/hdty4tCE/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>1.67</v>
+        <v>2.53</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.4</v>
+        <v>2.62</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>12/08/2023 13:24</t>
+          <t>12/08/2023 13:22</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.26</v>
+        <v>2.98</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>12/08/2023 13:24</t>
+          <t>12/08/2023 13:21</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>5.11</v>
+        <v>2.78</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>10.04</v>
+        <v>2.79</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>12/08/2023 13:24</t>
+          <t>12/08/2023 13:22</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dandong-tengyue/hdty4tCE/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-jinan-xingzhou/tMxX4Md8/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>3.87</v>
+        <v>2.77</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>5.11</v>
+        <v>4.69</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>19/08/2023 13:24</t>
+          <t>19/08/2023 13:29</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.47</v>
+        <v>3.55</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>19/08/2023 13:24</t>
+          <t>19/08/2023 13:29</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>1.98</v>
+        <v>2.41</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>19/08/2023 13:24</t>
+          <t>19/08/2023 13:29</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-guangxi-pingguo-haliao/EZCWhG3D/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-qingdao-west-coast/zqESgdl7/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>2.77</v>
+        <v>3.87</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>4.69</v>
+        <v>5.11</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>19/08/2023 13:29</t>
+          <t>19/08/2023 13:24</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.55</v>
+        <v>3.47</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>19/08/2023 13:29</t>
+          <t>19/08/2023 13:24</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>2.41</v>
+        <v>1.98</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>19/08/2023 13:29</t>
+          <t>19/08/2023 13:24</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-qingdao-west-coast/zqESgdl7/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-guangxi-pingguo-haliao/EZCWhG3D/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>4.05</v>
+        <v>5.23</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>3.38</v>
+        <v>5.93</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.22</v>
+        <v>3.43</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J144" t="n">
-        <v>3.13</v>
+        <v>4.05</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.01</v>
+        <v>3.25</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -13684,16 +13684,16 @@
         </is>
       </c>
       <c r="R144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>19/08/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
         <v>2.22</v>
       </c>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>19/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T144" t="n">
-        <v>2.17</v>
-      </c>
       <c r="U144" t="inlineStr">
         <is>
           <t>20/08/2023 13:22</t>
@@ -13701,7 +13701,7 @@
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,14 +13737,14 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>5.23</v>
+        <v>3.13</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>5.93</v>
+        <v>3.43</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.32</v>
+        <v>3.01</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.43</v>
+        <v>3.28</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>1.64</v>
+        <v>2.22</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>1.68</v>
+        <v>2.17</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>2.86</v>
+        <v>1.86</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>26/08/2023 12:53</t>
+          <t>26/08/2023 12:56</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>2.84</v>
+        <v>3.22</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.19</v>
+        <v>3.84</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>26/08/2023 12:53</t>
+          <t>26/08/2023 12:56</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>2.5</v>
+        <v>3.95</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>3.32</v>
+        <v>6.3</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>26/08/2023 12:53</t>
+          <t>26/08/2023 12:56</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dandong-tengyue/WQBk9ylf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-jiangxi-lushan/00Gg8e30/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1.86</v>
+        <v>2.86</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>26/08/2023 12:56</t>
+          <t>26/08/2023 12:53</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.22</v>
+        <v>2.84</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.84</v>
+        <v>3.19</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>26/08/2023 12:56</t>
+          <t>26/08/2023 12:53</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.95</v>
+        <v>2.5</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>6.3</v>
+        <v>3.32</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>26/08/2023 12:56</t>
+          <t>26/08/2023 12:53</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-jiangxi-lushan/00Gg8e30/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dandong-tengyue/WQBk9ylf/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G148" t="n">
+        <v>3</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Suzhou Dongwu</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Sichuan Jiuniu</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>2</v>
-      </c>
       <c r="J148" t="n">
-        <v>3.24</v>
+        <v>1.88</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>3.03</v>
+        <v>1.53</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>26/08/2023 13:24</t>
+          <t>26/08/2023 12:52</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>2.82</v>
+        <v>3.32</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2.82</v>
+        <v>4.22</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>26/08/2023 13:24</t>
+          <t>26/08/2023 13:00</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.28</v>
+        <v>3.72</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.68</v>
+        <v>6.01</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>26/08/2023 13:24</t>
+          <t>26/08/2023 13:00</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-sichuan-jiuniu/MF426ZXC/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-suzhou-dongwu/viFc7FI6/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>26/08/2023 12:52</t>
+          <t>26/08/2023 13:24</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>26/08/2023 13:00</t>
+          <t>26/08/2023 13:24</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.72</v>
+        <v>5.24</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>6.01</v>
+        <v>7.95</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>26/08/2023 13:00</t>
+          <t>26/08/2023 13:24</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-suzhou-dongwu/viFc7FI6/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-guangzhou-fc/ngdlUxQJ/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="n">
-        <v>1.62</v>
+        <v>3.24</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.45</v>
+        <v>3.03</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.41</v>
+        <v>2.82</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4.12</v>
+        <v>2.82</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="R150" t="n">
-        <v>5.24</v>
+        <v>2.28</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>7.95</v>
+        <v>2.68</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-guangzhou-fc/ngdlUxQJ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-sichuan-jiuniu/MF426ZXC/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J155" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.16</v>
+        <v>3.06</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.09</v>
+        <v>3.6</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shanghai-jiading-huilong/viyTMfIg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-qingdao-west-coast/hfuXLEXa/</t>
         </is>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -14749,14 +14749,14 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J156" t="n">
-        <v>2.08</v>
+        <v>4.07</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.09</v>
+        <v>4.33</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:11</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.06</v>
+        <v>3.37</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:06</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>3.96</v>
+        <v>1.88</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:06</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-qingdao-west-coast/hfuXLEXa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-jinan-xingzhou/zJUyLYn6/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>4.07</v>
+        <v>1.82</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>4.33</v>
+        <v>1.83</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:11</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.24</v>
+        <v>3.21</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.37</v>
+        <v>3.28</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:06</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>1.83</v>
+        <v>4.15</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>1.88</v>
+        <v>4.88</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:06</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-jinan-xingzhou/zJUyLYn6/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-dandong-tengyue/E9TuKh2C/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>1.82</v>
+        <v>2.32</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.21</v>
+        <v>2.88</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.28</v>
+        <v>3.16</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>4.15</v>
+        <v>3.09</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>4.88</v>
+        <v>3.62</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-dandong-tengyue/E9TuKh2C/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shanghai-jiading-huilong/viyTMfIg/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>7.87</v>
+        <v>1.57</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>7.07</v>
+        <v>1.39</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>4.58</v>
+        <v>3.58</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>4.19</v>
+        <v>4.71</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>1.34</v>
+        <v>5.39</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>1.48</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shijiazhuang-gongfu/8WlFYiH5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
         <v>2</v>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Dongguan Guanlian</t>
-        </is>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
       <c r="J165" t="n">
-        <v>1.57</v>
+        <v>7.87</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>1.39</v>
+        <v>7.07</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.58</v>
+        <v>4.58</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4.71</v>
+        <v>4.19</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>5.39</v>
+        <v>1.34</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>8.130000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shijiazhuang-gongfu/8WlFYiH5/</t>
         </is>
       </c>
     </row>
@@ -17842,6 +17842,98 @@
       <c r="V189" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-dongguan-guanlian/4fC6OSAe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45209.39583333334</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Nanjing City</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>10/10/2023 09:28</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>10/10/2023 09:28</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>10/10/2023 09:28</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-nanjing-city/dlahnW22/</t>
         </is>
       </c>
     </row>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V190"/>
+  <dimension ref="A1:V193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,22 +1409,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.81</v>
+        <v>1.58</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,15 +1432,15 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.14</v>
+        <v>3.59</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2.97</v>
+        <v>4.74</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,15 +1448,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.07</v>
+        <v>6.49</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.3</v>
+        <v>9.94</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.58</v>
+        <v>3.81</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.59</v>
+        <v>3.14</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.74</v>
+        <v>2.97</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1540,15 +1540,15 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.49</v>
+        <v>2.07</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>9.94</v>
+        <v>2.3</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Qingdao West Coast</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" t="n">
-        <v>5.64</v>
+        <v>2.28</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5.74</v>
+        <v>2.81</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:52</t>
+          <t>07/05/2023 08:56</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>3.09</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,32 +1808,32 @@
         </is>
       </c>
       <c r="P15" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>07/05/2023 08:56</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>3.31</v>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>07/05/2023 08:52</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S15" t="inlineStr">
         <is>
           <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>2.91</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:37</t>
+          <t>07/05/2023 08:38</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.28</v>
+        <v>3.53</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.81</v>
+        <v>2.96</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:39</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.31</v>
+        <v>2.31</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.91</v>
+        <v>2.72</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:38</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.53</v>
+        <v>5.64</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.96</v>
+        <v>5.74</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.84</v>
+        <v>3.31</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:39</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.31</v>
+        <v>1.63</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.72</v>
+        <v>1.72</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:37</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>4.17</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3.7</v>
+        <v>4.12</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>20/05/2023 08:59</t>
+          <t>20/05/2023 09:00</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.02</v>
+        <v>3.06</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>20/05/2023 08:59</t>
+          <t>20/05/2023 09:00</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.27</v>
+        <v>2.02</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>20/05/2023 08:59</t>
+          <t>20/05/2023 09:00</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-shijiazhuang-gongfu/O2VWeCem/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-nanjing-city/IPUzeWAg/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>4.17</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4.12</v>
+        <v>3.7</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>20/05/2023 09:00</t>
+          <t>20/05/2023 08:59</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.06</v>
+        <v>3.02</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>20/05/2023 09:00</t>
+          <t>20/05/2023 08:59</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.02</v>
+        <v>2.27</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>20/05/2023 09:00</t>
+          <t>20/05/2023 08:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-nanjing-city/IPUzeWAg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-shijiazhuang-gongfu/O2VWeCem/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Suzhou Dongwu</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>2.04</v>
+        <v>1.47</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.68</v>
+        <v>1.27</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:21</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.96</v>
+        <v>3.98</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.5</v>
+        <v>5.07</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:21</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.66</v>
+        <v>7.56</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.64</v>
+        <v>12.42</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:29</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-suzhou-dongwu/zPNSh1oN/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangzhou-fc/CMW7cPWi/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.47</v>
+        <v>2.04</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:21</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.98</v>
+        <v>2.96</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>5.07</v>
+        <v>3.5</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:21</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>7.56</v>
+        <v>3.66</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>12.42</v>
+        <v>5.64</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:29</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangzhou-fc/CMW7cPWi/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-suzhou-dongwu/zPNSh1oN/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>04/06/2023 09:24</t>
+          <t>04/06/2023 07:41</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.8</v>
+        <v>3.58</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.94</v>
+        <v>5.3</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>04/06/2023 09:29</t>
+          <t>04/06/2023 09:26</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.33</v>
+        <v>4.82</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>9.109999999999999</v>
+        <v>12.87</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>04/06/2023 09:29</t>
+          <t>04/06/2023 09:26</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jiangxi-lushan/8xr66KFM/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shanghai-jiading-huilong/Uoq2700G/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>04/06/2023 07:41</t>
+          <t>04/06/2023 09:24</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.58</v>
+        <v>3.8</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>5.3</v>
+        <v>4.94</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04/06/2023 09:26</t>
+          <t>04/06/2023 09:29</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.82</v>
+        <v>5.33</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>12.87</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>04/06/2023 09:26</t>
+          <t>04/06/2023 09:29</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shanghai-jiading-huilong/Uoq2700G/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jiangxi-lushan/8xr66KFM/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.11</v>
+        <v>2.75</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.92</v>
+        <v>5.49</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>10/06/2023 13:27</t>
+          <t>10/06/2023 13:23</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.07</v>
+        <v>2.94</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.38</v>
+        <v>3.68</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>10/06/2023 13:27</t>
+          <t>10/06/2023 13:04</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.32</v>
+        <v>2.52</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.18</v>
+        <v>1.68</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>10/06/2023 13:27</t>
+          <t>10/06/2023 13:04</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-heilongjiang-ice-city/KUtpax8d/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jinan-xingzhou/0QJWMu03/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Jinan Xingzhou</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.75</v>
+        <v>2.11</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>5.49</v>
+        <v>1.92</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>10/06/2023 13:23</t>
+          <t>10/06/2023 13:27</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>2.94</v>
+        <v>3.07</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.68</v>
+        <v>3.38</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>10/06/2023 13:04</t>
+          <t>10/06/2023 13:27</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.52</v>
+        <v>3.32</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>1.68</v>
+        <v>4.18</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>10/06/2023 13:04</t>
+          <t>10/06/2023 13:27</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jinan-xingzhou/0QJWMu03/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-heilongjiang-ice-city/KUtpax8d/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.85</v>
+        <v>1.46</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>09/06/2023 21:42</t>
+          <t>10/06/2023 17:41</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.84</v>
+        <v>1.34</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>11/06/2023 09:22</t>
+          <t>11/06/2023 09:14</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.79</v>
+        <v>4.24</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>09/06/2023 21:42</t>
+          <t>10/06/2023 17:41</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.9</v>
+        <v>4.69</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>11/06/2023 09:22</t>
+          <t>11/06/2023 09:14</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.62</v>
+        <v>7.01</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>09/06/2023 21:42</t>
+          <t>10/06/2023 17:41</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.77</v>
+        <v>10.24</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>11/06/2023 09:22</t>
+          <t>11/06/2023 09:14</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-suzhou-dongwu/jFCqKwpM/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shenyang-urban-fc/8jNvLJUF/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.46</v>
+        <v>2.85</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>10/06/2023 17:41</t>
+          <t>09/06/2023 21:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.34</v>
+        <v>2.84</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>11/06/2023 09:14</t>
+          <t>11/06/2023 09:22</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.24</v>
+        <v>2.79</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>10/06/2023 17:41</t>
+          <t>09/06/2023 21:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.69</v>
+        <v>2.9</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>11/06/2023 09:14</t>
+          <t>11/06/2023 09:22</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>7.01</v>
+        <v>2.62</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>10/06/2023 17:41</t>
+          <t>09/06/2023 21:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>10.24</v>
+        <v>2.77</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>11/06/2023 09:14</t>
+          <t>11/06/2023 09:22</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shenyang-urban-fc/8jNvLJUF/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-suzhou-dongwu/jFCqKwpM/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.18</v>
+        <v>2.69</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.35</v>
+        <v>3.63</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.34</v>
+        <v>2.69</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.28</v>
+        <v>2.26</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.69</v>
+        <v>2.18</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.63</v>
+        <v>2.35</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:56</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.69</v>
+        <v>3.34</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.26</v>
+        <v>3.28</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:59</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Shanghai Jiading Huilong</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Jinan Xingzhou</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
       <c r="J77" t="n">
-        <v>2.59</v>
+        <v>1.67</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.67</v>
+        <v>1.43</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:05</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.79</v>
+        <v>3.53</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>4.18</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.88</v>
+        <v>4.56</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.21</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.67</v>
+        <v>3.14</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.43</v>
+        <v>3.73</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.53</v>
+        <v>2.7</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.18</v>
+        <v>2.79</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.56</v>
+        <v>2.48</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>8.529999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>3.14</v>
+        <v>2.15</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.73</v>
+        <v>1.65</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2.79</v>
+        <v>3.68</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.48</v>
+        <v>3.48</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.3</v>
+        <v>5.57</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>2.96</v>
+        <v>3.09</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.48</v>
+        <v>4.81</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>5.57</v>
+        <v>8.51</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.78</v>
+        <v>2.59</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.5</v>
+        <v>3.67</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:05</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.09</v>
+        <v>2.79</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.67</v>
+        <v>3</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>4.81</v>
+        <v>2.88</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>8.51</v>
+        <v>2.21</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4.26</v>
+        <v>2.89</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.27</v>
+        <v>2.86</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:23</t>
+          <t>01/07/2023 13:13</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.04</v>
+        <v>2.85</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.93</v>
+        <v>2.76</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.89</v>
+        <v>4.26</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.86</v>
+        <v>3.27</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:13</t>
+          <t>01/07/2023 13:23</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.85</v>
+        <v>2.04</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.76</v>
+        <v>1.93</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>5.73</v>
+        <v>2.32</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>7.67</v>
+        <v>1.86</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>08/07/2023 12:58</t>
+          <t>08/07/2023 12:56</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.68</v>
+        <v>2.82</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.57</v>
+        <v>3.23</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>08/07/2023 12:58</t>
+          <t>08/07/2023 12:55</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.53</v>
+        <v>3.16</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>08/07/2023 12:58</t>
+          <t>08/07/2023 12:56</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-sichuan-jiuniu/hv3cRF8n/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangxi-pingguo-haliao/z38hSegt/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>2.32</v>
+        <v>5.73</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.86</v>
+        <v>7.67</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>08/07/2023 12:56</t>
+          <t>08/07/2023 12:58</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>2.82</v>
+        <v>3.68</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.23</v>
+        <v>3.57</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>08/07/2023 12:55</t>
+          <t>08/07/2023 12:58</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.16</v>
+        <v>1.53</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>08/07/2023 12:56</t>
+          <t>08/07/2023 12:58</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangxi-pingguo-haliao/z38hSegt/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-sichuan-jiuniu/hv3cRF8n/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>3.55</v>
+        <v>3.76</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.13</v>
+        <v>2.4</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.16</v>
+        <v>3.26</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.37</v>
+        <v>2.99</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>2.01</v>
+        <v>3.55</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>07/07/2023 17:12</t>
+          <t>07/07/2023 01:42</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.09</v>
+        <v>3.13</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>2.91</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>07/07/2023 17:12</t>
+          <t>07/07/2023 01:42</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>07/07/2023 17:12</t>
+          <t>07/07/2023 01:42</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.89</v>
+        <v>2.37</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shijiazhuang-gongfu/YgMQWyoP/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
         </is>
       </c>
     </row>
@@ -9037,62 +9037,62 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>2</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Yanbian Longding</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
-        <v>3.76</v>
+        <v>2.01</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.4</v>
+        <v>2.09</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.94</v>
+        <v>3.21</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.99</v>
+        <v>3.89</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shijiazhuang-gongfu/YgMQWyoP/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:11</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.41</v>
+        <v>4.37</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.4</v>
+        <v>4.48</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.24</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.97</v>
+        <v>8.76</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:11</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>4.37</v>
+        <v>3.41</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>4.48</v>
+        <v>3.4</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>8.130000000000001</v>
+        <v>5.24</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>8.76</v>
+        <v>5.97</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.56</v>
+        <v>1.62</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.03</v>
+        <v>1.55</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.74</v>
+        <v>3.49</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.04</v>
+        <v>4.12</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.89</v>
+        <v>5.05</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.01</v>
+        <v>5.85</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-nanjing-city/67dQKViU/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dandong-tengyue/SGcMLBxO/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>1.62</v>
+        <v>2.56</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.55</v>
+        <v>2.03</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.49</v>
+        <v>2.74</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>4.12</v>
+        <v>3.04</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>5.05</v>
+        <v>2.89</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>5.85</v>
+        <v>4.01</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dandong-tengyue/SGcMLBxO/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-nanjing-city/67dQKViU/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>3.72</v>
+        <v>1.96</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,48 +9888,48 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
+          <t>16/07/2023 13:14</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>15/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
           <t>16/07/2023 13:28</t>
         </is>
       </c>
-      <c r="N103" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O103" t="inlineStr">
+      <c r="R103" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S103" t="inlineStr">
         <is>
           <t>15/07/2023 01:42</t>
         </is>
       </c>
-      <c r="P103" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q103" t="inlineStr">
+      <c r="T103" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U103" t="inlineStr">
         <is>
           <t>16/07/2023 13:28</t>
         </is>
       </c>
-      <c r="R103" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>15/07/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T103" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>16/07/2023 13:28</t>
-        </is>
-      </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.4</v>
+        <v>2.93</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:14</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4.24</v>
+        <v>3.23</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:20</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.94</v>
+        <v>2.21</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>9.25</v>
+        <v>2.46</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>3.1</v>
+        <v>3.72</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.93</v>
+        <v>1.78</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.23</v>
+        <v>3.41</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:20</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.21</v>
+        <v>1.97</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.46</v>
+        <v>4.63</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -12357,14 +12357,14 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>1.67</v>
+        <v>2.53</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.4</v>
+        <v>2.62</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>12/08/2023 13:24</t>
+          <t>12/08/2023 13:22</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.26</v>
+        <v>2.98</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>12/08/2023 13:24</t>
+          <t>12/08/2023 13:21</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>5.11</v>
+        <v>2.78</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>10.04</v>
+        <v>2.79</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>12/08/2023 13:24</t>
+          <t>12/08/2023 13:22</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dandong-tengyue/hdty4tCE/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-jinan-xingzhou/tMxX4Md8/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2.53</v>
+        <v>1.67</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.62</v>
+        <v>1.4</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>12/08/2023 13:22</t>
+          <t>12/08/2023 13:24</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>2.98</v>
+        <v>3.26</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>12/08/2023 13:21</t>
+          <t>12/08/2023 13:24</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.78</v>
+        <v>5.11</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.79</v>
+        <v>10.04</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>12/08/2023 13:22</t>
+          <t>12/08/2023 13:24</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-jinan-xingzhou/tMxX4Md8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dandong-tengyue/hdty4tCE/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>2.77</v>
+        <v>3.87</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>4.69</v>
+        <v>5.11</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>19/08/2023 13:29</t>
+          <t>19/08/2023 13:24</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.55</v>
+        <v>3.47</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>19/08/2023 13:29</t>
+          <t>19/08/2023 13:24</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.41</v>
+        <v>1.98</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>19/08/2023 13:29</t>
+          <t>19/08/2023 13:24</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-qingdao-west-coast/zqESgdl7/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-guangxi-pingguo-haliao/EZCWhG3D/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>3.87</v>
+        <v>2.77</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>5.11</v>
+        <v>4.69</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>19/08/2023 13:24</t>
+          <t>19/08/2023 13:29</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.47</v>
+        <v>3.55</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>19/08/2023 13:24</t>
+          <t>19/08/2023 13:29</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>1.98</v>
+        <v>2.41</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>19/08/2023 13:24</t>
+          <t>19/08/2023 13:29</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-guangxi-pingguo-haliao/EZCWhG3D/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-qingdao-west-coast/zqESgdl7/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J142" t="n">
-        <v>5.23</v>
+        <v>4.05</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>5.93</v>
+        <v>3.38</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.43</v>
+        <v>3.22</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>4.05</v>
+        <v>3.13</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.25</v>
+        <v>3.01</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         </is>
       </c>
       <c r="R144" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,14 +13737,14 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>3.13</v>
+        <v>5.23</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,48 +13752,48 @@
         </is>
       </c>
       <c r="L145" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>20/08/2023 13:25</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>19/08/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
         <v>3.43</v>
       </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>20/08/2023 13:22</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="O145" t="inlineStr">
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>20/08/2023 13:25</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S145" t="inlineStr">
         <is>
           <t>19/08/2023 01:42</t>
         </is>
       </c>
-      <c r="P145" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Q145" t="inlineStr">
-        <is>
-          <t>20/08/2023 13:22</t>
-        </is>
-      </c>
-      <c r="R145" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>19/08/2023 01:42</t>
-        </is>
-      </c>
       <c r="T145" t="n">
-        <v>2.17</v>
+        <v>1.68</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1.86</v>
+        <v>2.86</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>26/08/2023 12:56</t>
+          <t>26/08/2023 12:53</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.22</v>
+        <v>2.84</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.84</v>
+        <v>3.19</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>26/08/2023 12:56</t>
+          <t>26/08/2023 12:53</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.95</v>
+        <v>2.5</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>6.3</v>
+        <v>3.32</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>26/08/2023 12:56</t>
+          <t>26/08/2023 12:53</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-jiangxi-lushan/00Gg8e30/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dandong-tengyue/WQBk9ylf/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>2.86</v>
+        <v>1.86</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>26/08/2023 12:53</t>
+          <t>26/08/2023 12:56</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>2.84</v>
+        <v>3.22</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.19</v>
+        <v>3.84</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>26/08/2023 12:53</t>
+          <t>26/08/2023 12:56</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>2.5</v>
+        <v>3.95</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.32</v>
+        <v>6.3</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>26/08/2023 12:53</t>
+          <t>26/08/2023 12:56</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dandong-tengyue/WQBk9ylf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-jiangxi-lushan/00Gg8e30/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J148" t="n">
-        <v>1.88</v>
+        <v>3.24</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.53</v>
+        <v>3.03</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>26/08/2023 12:52</t>
+          <t>26/08/2023 13:24</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.32</v>
+        <v>2.82</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>4.22</v>
+        <v>2.82</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>26/08/2023 13:00</t>
+          <t>26/08/2023 13:24</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.72</v>
+        <v>2.28</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>6.01</v>
+        <v>2.68</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>26/08/2023 13:00</t>
+          <t>26/08/2023 13:24</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-suzhou-dongwu/viFc7FI6/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-sichuan-jiuniu/MF426ZXC/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>26/08/2023 13:24</t>
+          <t>26/08/2023 12:52</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.41</v>
+        <v>3.32</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>4.12</v>
+        <v>4.22</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>26/08/2023 13:24</t>
+          <t>26/08/2023 13:00</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>5.24</v>
+        <v>3.72</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>7.95</v>
+        <v>6.01</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>26/08/2023 13:24</t>
+          <t>26/08/2023 13:00</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-guangzhou-fc/ngdlUxQJ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-suzhou-dongwu/viFc7FI6/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Sichuan Jiuniu</t>
-        </is>
-      </c>
-      <c r="I150" t="n">
-        <v>2</v>
-      </c>
       <c r="J150" t="n">
-        <v>3.24</v>
+        <v>1.62</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>3.03</v>
+        <v>1.45</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>2.82</v>
+        <v>3.41</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2.82</v>
+        <v>4.12</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.28</v>
+        <v>5.24</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.68</v>
+        <v>7.95</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-sichuan-jiuniu/MF426ZXC/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-guangzhou-fc/ngdlUxQJ/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.06</v>
+        <v>3.16</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>3.96</v>
+        <v>3.62</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-qingdao-west-coast/hfuXLEXa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shanghai-jiading-huilong/viyTMfIg/</t>
         </is>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -14749,14 +14749,14 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J156" t="n">
-        <v>4.07</v>
+        <v>2.08</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>4.33</v>
+        <v>2.09</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:11</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.37</v>
+        <v>3.06</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:06</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>1.88</v>
+        <v>3.96</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:06</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-jinan-xingzhou/zJUyLYn6/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-qingdao-west-coast/hfuXLEXa/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="n">
-        <v>1.82</v>
+        <v>4.07</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,48 +14856,48 @@
         </is>
       </c>
       <c r="L157" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:11</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>01/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:06</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
         <v>1.83</v>
       </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:28</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O157" t="inlineStr">
+      <c r="S157" t="inlineStr">
         <is>
           <t>01/09/2023 01:42</t>
         </is>
       </c>
-      <c r="P157" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Q157" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:28</t>
-        </is>
-      </c>
-      <c r="R157" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="S157" t="inlineStr">
-        <is>
-          <t>01/09/2023 01:42</t>
-        </is>
-      </c>
       <c r="T157" t="n">
-        <v>4.88</v>
+        <v>1.88</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:06</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-dandong-tengyue/E9TuKh2C/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-jinan-xingzhou/zJUyLYn6/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>2.32</v>
+        <v>1.82</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.16</v>
+        <v>3.28</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>3.09</v>
+        <v>4.15</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>3.62</v>
+        <v>4.88</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shanghai-jiading-huilong/viyTMfIg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-dandong-tengyue/E9TuKh2C/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
         <v>2</v>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Dongguan Guanlian</t>
-        </is>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
       <c r="J163" t="n">
-        <v>1.57</v>
+        <v>7.87</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.39</v>
+        <v>7.07</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.58</v>
+        <v>4.58</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>4.71</v>
+        <v>4.19</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>5.39</v>
+        <v>1.34</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>8.130000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shijiazhuang-gongfu/8WlFYiH5/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>7.87</v>
+        <v>1.57</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>7.07</v>
+        <v>1.39</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>4.58</v>
+        <v>3.58</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4.19</v>
+        <v>4.71</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>1.34</v>
+        <v>5.39</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>1.48</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shijiazhuang-gongfu/8WlFYiH5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
         </is>
       </c>
     </row>
@@ -17934,6 +17934,282 @@
       <c r="V190" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-nanjing-city/dlahnW22/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45209.54166666666</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:26</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>09/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T191" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-yanbian-longding/j36bb1CH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45209.5625</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Guangxi Pingguo Haliao</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>3</v>
+      </c>
+      <c r="J192" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T192" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-sichuan-jiuniu/hGh1pAXE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45209.5625</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:06</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:06</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T193" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:06</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-jiangxi-lushan/roBANnQ1/</t>
         </is>
       </c>
     </row>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V193"/>
+  <dimension ref="A1:V196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Heilongjiang Ice City</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
       <c r="J32" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>14/05/2023 13:24</t>
+          <t>14/05/2023 12:08</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.75</v>
+        <v>3.52</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>14/05/2023 13:24</t>
+          <t>14/05/2023 13:26</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>5.56</v>
+        <v>4.48</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.53</v>
+        <v>5.44</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>14/05/2023 13:24</t>
+          <t>14/05/2023 13:21</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-heilongjiang-ice-city/pCWSdhts/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dongguan-guanlian/GtE42EIJ/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>14/05/2023 12:08</t>
+          <t>14/05/2023 13:24</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.52</v>
+        <v>3.75</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>14/05/2023 13:26</t>
+          <t>14/05/2023 13:24</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.48</v>
+        <v>5.56</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>5.44</v>
+        <v>3.53</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>14/05/2023 13:21</t>
+          <t>14/05/2023 13:24</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dongguan-guanlian/GtE42EIJ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-heilongjiang-ice-city/pCWSdhts/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>2.51</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>21/05/2023 00:01</t>
+          <t>20/05/2023 10:14</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>21/05/2023 09:19</t>
+          <t>21/05/2023 09:26</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.29</v>
+        <v>2.97</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>21/05/2023 00:01</t>
+          <t>20/05/2023 10:14</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>21/05/2023 09:19</t>
+          <t>21/05/2023 09:27</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.86</v>
+        <v>2.95</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>21/05/2023 00:01</t>
+          <t>20/05/2023 10:14</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.37</v>
+        <v>3.27</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>21/05/2023 09:22</t>
+          <t>21/05/2023 09:27</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-dongguan-guanlian/0nT3b5Ho/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-sichuan-jiuniu/MHRiilAI/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.51</v>
+        <v>2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>20/05/2023 10:14</t>
+          <t>21/05/2023 00:01</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>21/05/2023 09:26</t>
+          <t>21/05/2023 09:19</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.97</v>
+        <v>3.29</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>20/05/2023 10:14</t>
+          <t>21/05/2023 00:01</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>21/05/2023 09:27</t>
+          <t>21/05/2023 09:19</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.95</v>
+        <v>3.86</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>20/05/2023 10:14</t>
+          <t>21/05/2023 00:01</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.27</v>
+        <v>3.37</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>21/05/2023 09:27</t>
+          <t>21/05/2023 09:22</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-sichuan-jiuniu/MHRiilAI/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-dongguan-guanlian/0nT3b5Ho/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,63 +4261,63 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.56</v>
+        <v>5.48</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.43</v>
+        <v>6.53</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:25</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.1</v>
+        <v>3.48</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.14</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:26</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.56</v>
+        <v>1.65</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>8.81</v>
+        <v>1.62</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:26</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shanghai-jiading-huilong/6qWBdqnb/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-qingdao-west-coast/pzVFe314/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.48</v>
+        <v>2.56</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6.53</v>
+        <v>1.43</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:25</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>4.14</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:26</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.65</v>
+        <v>2.56</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.62</v>
+        <v>8.81</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:26</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-qingdao-west-coast/pzVFe314/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shanghai-jiading-huilong/6qWBdqnb/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.47</v>
+        <v>2.04</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:21</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.98</v>
+        <v>2.96</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>5.07</v>
+        <v>3.5</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:21</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>7.56</v>
+        <v>3.66</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>12.42</v>
+        <v>5.64</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:29</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangzhou-fc/CMW7cPWi/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-suzhou-dongwu/zPNSh1oN/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Suzhou Dongwu</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
       <c r="J47" t="n">
-        <v>2.04</v>
+        <v>1.47</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.68</v>
+        <v>1.27</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:21</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.96</v>
+        <v>3.98</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.5</v>
+        <v>5.07</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:21</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.66</v>
+        <v>7.56</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>5.64</v>
+        <v>12.42</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:29</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-suzhou-dongwu/zPNSh1oN/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangzhou-fc/CMW7cPWi/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>04/06/2023 07:41</t>
+          <t>04/06/2023 09:24</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.58</v>
+        <v>3.8</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>5.3</v>
+        <v>4.94</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>04/06/2023 09:26</t>
+          <t>04/06/2023 09:29</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.82</v>
+        <v>5.33</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>12.87</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>04/06/2023 09:26</t>
+          <t>04/06/2023 09:29</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shanghai-jiading-huilong/Uoq2700G/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jiangxi-lushan/8xr66KFM/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>04/06/2023 09:24</t>
+          <t>04/06/2023 07:41</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.8</v>
+        <v>3.58</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.94</v>
+        <v>5.3</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04/06/2023 09:29</t>
+          <t>04/06/2023 09:26</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.33</v>
+        <v>4.82</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>9.109999999999999</v>
+        <v>12.87</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>04/06/2023 09:29</t>
+          <t>04/06/2023 09:26</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jiangxi-lushan/8xr66KFM/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shanghai-jiading-huilong/Uoq2700G/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.69</v>
+        <v>2.18</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.63</v>
+        <v>2.35</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:56</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.69</v>
+        <v>3.34</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.26</v>
+        <v>3.28</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:59</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.18</v>
+        <v>2.69</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.35</v>
+        <v>3.63</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:56</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.34</v>
+        <v>2.69</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.28</v>
+        <v>2.26</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:59</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.18</v>
+        <v>4.23</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.48</v>
+        <v>3.86</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.04</v>
+        <v>3.23</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.7</v>
+        <v>3.09</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>18/06/2023 13:28</t>
+          <t>18/06/2023 13:30</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.15</v>
+        <v>1.8</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.53</v>
+        <v>2.11</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-shenyang-urban-fc/ncA6ZIq9/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shijiazhuang-gongfu/ULaBYxaF/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>4.23</v>
+        <v>2.18</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.86</v>
+        <v>2.48</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.23</v>
+        <v>3.04</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,32 +7144,32 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.09</v>
+        <v>2.7</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
+          <t>18/06/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>17/06/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
           <t>18/06/2023 13:30</t>
         </is>
       </c>
-      <c r="R73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>17/06/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T73" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>18/06/2023 13:30</t>
-        </is>
-      </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shijiazhuang-gongfu/ULaBYxaF/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-shenyang-urban-fc/ncA6ZIq9/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.67</v>
+        <v>2.59</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.43</v>
+        <v>3.67</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:05</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.53</v>
+        <v>2.79</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.18</v>
+        <v>3</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.56</v>
+        <v>2.88</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>8.529999999999999</v>
+        <v>2.21</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3.14</v>
+        <v>1.67</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.73</v>
+        <v>1.43</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2.7</v>
+        <v>3.53</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2.79</v>
+        <v>4.18</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.48</v>
+        <v>4.56</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.3</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.59</v>
+        <v>3.14</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.67</v>
+        <v>3.73</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:05</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="N81" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>27/06/2023 08:37</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
         <v>2.79</v>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>27/06/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P81" t="n">
-        <v>3</v>
-      </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.89</v>
+        <v>4.26</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.86</v>
+        <v>3.27</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:13</t>
+          <t>01/07/2023 13:23</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.85</v>
+        <v>2.04</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.76</v>
+        <v>1.93</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4.26</v>
+        <v>2.89</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.27</v>
+        <v>2.86</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:23</t>
+          <t>01/07/2023 13:13</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.04</v>
+        <v>2.85</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.93</v>
+        <v>2.76</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.79</v>
+        <v>1.62</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.53</v>
+        <v>1.68</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:29</t>
+          <t>09/07/2023 13:11</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>2.89</v>
+        <v>3.41</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.09</v>
+        <v>3.4</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:29</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.58</v>
+        <v>5.24</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.22</v>
+        <v>5.97</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:21</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dongguan-guanlian/KjfENX7B/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.62</v>
+        <v>2.79</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.68</v>
+        <v>3.53</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:11</t>
+          <t>09/07/2023 13:29</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.41</v>
+        <v>2.89</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:29</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.24</v>
+        <v>2.58</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>5.97</v>
+        <v>2.22</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:21</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dongguan-guanlian/KjfENX7B/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>6.95</v>
+        <v>1.51</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>6.13</v>
+        <v>1.88</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:22</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>4.04</v>
+        <v>3.73</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:22</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>1.41</v>
+        <v>5.77</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>1.65</v>
+        <v>4.34</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:11</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jinan-xingzhou/pYRzuZxn/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangzhou-fc/WUNWuFNu/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.51</v>
+        <v>6.95</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.88</v>
+        <v>6.13</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:22</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.73</v>
+        <v>4.04</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:22</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>5.77</v>
+        <v>1.41</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.34</v>
+        <v>1.65</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:11</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangzhou-fc/WUNWuFNu/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jinan-xingzhou/pYRzuZxn/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>2.32</v>
+        <v>3.38</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.76</v>
+        <v>3.31</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.63</v>
+        <v>3.26</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.25</v>
+        <v>2.12</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4.67</v>
+        <v>2.23</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-suzhou-dongwu/WOKMlA6A/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-guangzhou-fc/x2LIkji4/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>3.38</v>
+        <v>2.32</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.31</v>
+        <v>1.76</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.26</v>
+        <v>3.63</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.23</v>
+        <v>4.67</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-guangzhou-fc/x2LIkji4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-suzhou-dongwu/WOKMlA6A/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>4.36</v>
+        <v>2.07</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>6.83</v>
+        <v>2.01</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.22</v>
+        <v>2.97</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.84</v>
+        <v>3.08</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>1.78</v>
+        <v>3.68</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>1.54</v>
+        <v>4.27</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -11529,14 +11529,14 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>2.07</v>
+        <v>4.36</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.01</v>
+        <v>6.83</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.97</v>
+        <v>3.22</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.08</v>
+        <v>3.84</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>3.68</v>
+        <v>1.78</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>4.27</v>
+        <v>1.54</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>2.53</v>
+        <v>2.28</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.62</v>
+        <v>2.03</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>12/08/2023 13:22</t>
+          <t>12/08/2023 13:26</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>12/08/2023 13:21</t>
+          <t>12/08/2023 13:26</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.79</v>
+        <v>3.54</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>12/08/2023 13:22</t>
+          <t>12/08/2023 13:26</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-jinan-xingzhou/tMxX4Md8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-guangzhou-fc/SIlktwK7/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>1.67</v>
+        <v>2.53</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.4</v>
+        <v>2.62</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>12/08/2023 13:24</t>
+          <t>12/08/2023 13:22</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.26</v>
+        <v>2.98</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>12/08/2023 13:24</t>
+          <t>12/08/2023 13:21</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>5.11</v>
+        <v>2.78</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>10.04</v>
+        <v>2.79</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>12/08/2023 13:24</t>
+          <t>12/08/2023 13:22</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dandong-tengyue/hdty4tCE/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-jinan-xingzhou/tMxX4Md8/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>2.28</v>
+        <v>1.67</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.03</v>
+        <v>1.4</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>12/08/2023 13:26</t>
+          <t>12/08/2023 13:24</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>2.95</v>
+        <v>3.26</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>12/08/2023 13:26</t>
+          <t>12/08/2023 13:24</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>3.09</v>
+        <v>5.11</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.54</v>
+        <v>10.04</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>12/08/2023 13:26</t>
+          <t>12/08/2023 13:24</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-guangzhou-fc/SIlktwK7/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dandong-tengyue/hdty4tCE/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.3</v>
+        <v>1.77</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>4.58</v>
+        <v>3.29</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>5.26</v>
+        <v>3.96</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>8.789999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>12.87</v>
+        <v>5.38</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:21</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shenyang-urban-fc/SIAKeIJf/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1.72</v>
+        <v>4.39</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.32</v>
+        <v>9.83</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 13:29</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.23</v>
+        <v>3.37</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:21</t>
+          <t>13/08/2023 13:29</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>4.73</v>
+        <v>1.73</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>12.12</v>
+        <v>1.36</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 13:29</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-nanjing-city/pfLFdb4l/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>4.39</v>
+        <v>1.72</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>9.83</v>
+        <v>1.32</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>13/08/2023 13:29</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.37</v>
+        <v>3.23</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>13/08/2023 13:29</t>
+          <t>13/08/2023 13:21</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>1.73</v>
+        <v>4.73</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>1.36</v>
+        <v>12.12</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>13/08/2023 13:29</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-nanjing-city/pfLFdb4l/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>5.78</v>
+        <v>4.58</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>8.119999999999999</v>
+        <v>5.26</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>11.24</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>20.83</v>
+        <v>12.87</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-wuxi-wugou/63MBcvkr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1.77</v>
+        <v>1.2</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.62</v>
+        <v>1.14</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.29</v>
+        <v>5.78</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.96</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>4.3</v>
+        <v>11.24</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>5.38</v>
+        <v>20.83</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>13/08/2023 13:21</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shenyang-urban-fc/SIAKeIJf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-wuxi-wugou/63MBcvkr/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>4.05</v>
+        <v>5.23</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>3.38</v>
+        <v>5.93</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.22</v>
+        <v>3.43</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J145" t="n">
-        <v>5.23</v>
+        <v>4.05</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>5.93</v>
+        <v>3.38</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.43</v>
+        <v>3.22</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
-        <v>2.86</v>
+        <v>1.86</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>2.26</v>
+        <v>1.57</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>26/08/2023 12:53</t>
+          <t>26/08/2023 12:56</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>2.84</v>
+        <v>3.22</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.19</v>
+        <v>3.84</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>26/08/2023 12:53</t>
+          <t>26/08/2023 12:56</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>2.5</v>
+        <v>3.95</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>3.32</v>
+        <v>6.3</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>26/08/2023 12:53</t>
+          <t>26/08/2023 12:56</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dandong-tengyue/WQBk9ylf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-jiangxi-lushan/00Gg8e30/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1.86</v>
+        <v>2.86</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>26/08/2023 12:56</t>
+          <t>26/08/2023 12:53</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.22</v>
+        <v>2.84</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.84</v>
+        <v>3.19</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>26/08/2023 12:56</t>
+          <t>26/08/2023 12:53</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.95</v>
+        <v>2.5</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>6.3</v>
+        <v>3.32</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>26/08/2023 12:56</t>
+          <t>26/08/2023 12:53</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-jiangxi-lushan/00Gg8e30/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dandong-tengyue/WQBk9ylf/</t>
         </is>
       </c>
     </row>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -15393,14 +15393,14 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>7.87</v>
+        <v>4.3</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>7.07</v>
+        <v>4.18</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>4.58</v>
+        <v>3.3</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>4.19</v>
+        <v>3.6</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:26</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>1.34</v>
+        <v>1.79</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 11:41</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shijiazhuang-gongfu/8WlFYiH5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-nanjing-city/YDd2yfXn/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>2</v>
       </c>
       <c r="J164" t="n">
-        <v>5.13</v>
+        <v>7.87</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>7.25</v>
+        <v>7.07</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.48</v>
+        <v>4.58</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>4.05</v>
+        <v>4.19</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-sichuan-jiuniu/C4e6zEng/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shijiazhuang-gongfu/8WlFYiH5/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
         <v>2</v>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Dongguan Guanlian</t>
-        </is>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
       <c r="J165" t="n">
-        <v>1.57</v>
+        <v>5.13</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>1.39</v>
+        <v>7.25</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.58</v>
+        <v>3.48</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4.71</v>
+        <v>4.05</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>5.39</v>
+        <v>1.61</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>8.130000000000001</v>
+        <v>1.49</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-sichuan-jiuniu/C4e6zEng/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>4.3</v>
+        <v>1.57</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>4.18</v>
+        <v>1.39</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.6</v>
+        <v>4.71</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>09/09/2023 13:26</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>1.79</v>
+        <v>5.39</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>1.85</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>09/09/2023 11:41</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-nanjing-city/YDd2yfXn/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
         </is>
       </c>
     </row>
@@ -16305,22 +16305,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G173" t="n">
+        <v>2</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
         <v>1</v>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Sichuan Jiuniu</t>
-        </is>
-      </c>
-      <c r="I173" t="n">
-        <v>3</v>
-      </c>
       <c r="J173" t="n">
-        <v>5.16</v>
+        <v>1.68</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -16328,15 +16328,15 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>10.32</v>
+        <v>1.88</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:27</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.5</v>
+        <v>3.43</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
@@ -16344,15 +16344,15 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>4.49</v>
+        <v>3.65</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:27</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>1.61</v>
+        <v>4.67</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -16360,16 +16360,16 @@
         </is>
       </c>
       <c r="T173" t="n">
-        <v>1.36</v>
+        <v>3.96</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:27</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-sichuan-jiuniu/Uc1oyow4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-guangzhou-fc/xO4gZO7G/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="n">
-        <v>1.68</v>
+        <v>5.16</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.88</v>
+        <v>10.32</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>13/09/2023 13:27</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.43</v>
+        <v>3.5</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.65</v>
+        <v>4.49</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>13/09/2023 13:27</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>4.67</v>
+        <v>1.61</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.96</v>
+        <v>1.36</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>13/09/2023 13:27</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-guangzhou-fc/xO4gZO7G/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-sichuan-jiuniu/Uc1oyow4/</t>
         </is>
       </c>
     </row>
@@ -18210,6 +18210,282 @@
       <c r="V193" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-jiangxi-lushan/roBANnQ1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45213.39583333334</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>2</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>12/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:14</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>12/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P194" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:29</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>12/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T194" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:14</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-heilongjiang-ice-city/Qs68rl2R/</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45213.39583333334</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Nanjing City</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Qingdao West Coast</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>12/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:25</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>12/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:17</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>12/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T195" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:25</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-qingdao-west-coast/W6i5qUnL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45213.41666666666</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Jinan Xingzhou</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Suzhou Dongwu</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>12/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:56</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>12/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:58</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>12/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T196" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:51</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-suzhou-dongwu/Sjhzv8Ar/</t>
         </is>
       </c>
     </row>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V196"/>
+  <dimension ref="A1:V197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18489,6 +18489,98 @@
         </is>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45213.5625</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>2</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>3</v>
+      </c>
+      <c r="J197" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T197" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangzhou-fc/AFsuwSPl/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V197"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.63</v>
+        <v>4.15</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.14</v>
+        <v>5.31</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13/05/2023 13:29</t>
+          <t>13/05/2023 13:15</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.07</v>
+        <v>3.34</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>2.89</v>
+        <v>3.48</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13/05/2023 13:29</t>
+          <t>13/05/2023 13:07</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13/05/2023 13:29</t>
+          <t>13/05/2023 13:15</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-yanbian-longding/lzMIvBQC/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-qingdao-west-coast/6BWDuiB6/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>4.15</v>
+        <v>3.63</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5.31</v>
+        <v>3.14</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13/05/2023 13:15</t>
+          <t>13/05/2023 13:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.34</v>
+        <v>3.07</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.48</v>
+        <v>2.89</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>13/05/2023 13:07</t>
+          <t>13/05/2023 13:29</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.72</v>
+        <v>2.54</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>13/05/2023 13:15</t>
+          <t>13/05/2023 13:29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-qingdao-west-coast/6BWDuiB6/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-yanbian-longding/lzMIvBQC/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,63 +4261,63 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.48</v>
+        <v>2.56</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6.53</v>
+        <v>1.43</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:25</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>4.14</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:26</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.65</v>
+        <v>2.56</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.62</v>
+        <v>8.81</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:26</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-qingdao-west-coast/pzVFe314/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shanghai-jiading-huilong/6qWBdqnb/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.56</v>
+        <v>5.48</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.43</v>
+        <v>6.53</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:25</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.1</v>
+        <v>3.48</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.14</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:26</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.56</v>
+        <v>1.65</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>8.81</v>
+        <v>1.62</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:26</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shanghai-jiading-huilong/6qWBdqnb/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-qingdao-west-coast/pzVFe314/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4.22</v>
+        <v>1.42</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.17</v>
+        <v>4.19</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.98</v>
+        <v>8.84</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dandong-tengyue/f94amu9p/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-wuxi-wugou/t2OOgsWG/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.42</v>
+        <v>4.22</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.19</v>
+        <v>3.17</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>8.1</v>
+        <v>2.3</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>8.84</v>
+        <v>1.98</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-wuxi-wugou/t2OOgsWG/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dandong-tengyue/f94amu9p/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.18</v>
+        <v>2.69</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.35</v>
+        <v>3.63</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.34</v>
+        <v>2.69</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.28</v>
+        <v>2.26</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.69</v>
+        <v>2.18</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.63</v>
+        <v>2.35</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:56</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.69</v>
+        <v>3.34</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.26</v>
+        <v>3.28</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:59</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>4.23</v>
+        <v>2.18</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.86</v>
+        <v>2.48</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.23</v>
+        <v>3.04</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,32 +7052,32 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.09</v>
+        <v>2.7</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
+          <t>18/06/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>17/06/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
           <t>18/06/2023 13:30</t>
         </is>
       </c>
-      <c r="R72" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>17/06/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T72" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>18/06/2023 13:30</t>
-        </is>
-      </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shijiazhuang-gongfu/ULaBYxaF/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-shenyang-urban-fc/ncA6ZIq9/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.18</v>
+        <v>4.23</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.48</v>
+        <v>3.86</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.04</v>
+        <v>3.23</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.7</v>
+        <v>3.09</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>18/06/2023 13:28</t>
+          <t>18/06/2023 13:30</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.15</v>
+        <v>1.8</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.53</v>
+        <v>2.11</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-shenyang-urban-fc/ncA6ZIq9/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shijiazhuang-gongfu/ULaBYxaF/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Shanghai Jiading Huilong</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Jinan Xingzhou</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
       <c r="J77" t="n">
-        <v>2.59</v>
+        <v>1.67</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.67</v>
+        <v>1.43</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:05</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.79</v>
+        <v>3.53</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>4.18</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.88</v>
+        <v>4.56</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.21</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.67</v>
+        <v>3.14</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.43</v>
+        <v>3.73</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.53</v>
+        <v>2.7</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.18</v>
+        <v>2.79</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.56</v>
+        <v>2.48</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>8.529999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.78</v>
+        <v>2.59</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.5</v>
+        <v>3.67</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:05</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.09</v>
+        <v>2.79</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.67</v>
+        <v>3</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.81</v>
+        <v>2.88</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>8.51</v>
+        <v>2.21</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>3.14</v>
+        <v>1.78</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.73</v>
+        <v>1.5</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.7</v>
+        <v>3.09</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>2.79</v>
+        <v>3.67</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.48</v>
+        <v>4.81</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.3</v>
+        <v>8.51</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Guangxi Pingguo Haliao</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>1</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
       <c r="J88" t="n">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.78</v>
+        <v>5.99</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>2.86</v>
+        <v>3.26</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2.92</v>
+        <v>3.47</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.81</v>
+        <v>1.74</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.82</v>
+        <v>1.66</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jiangxi-lushan/OOvzAEwC/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>2</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Guangxi Pingguo Haliao</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
       <c r="J89" t="n">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>5.99</v>
+        <v>2.78</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.26</v>
+        <v>2.86</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.47</v>
+        <v>2.92</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.74</v>
+        <v>2.81</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.66</v>
+        <v>2.82</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jiangxi-lushan/OOvzAEwC/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.32</v>
+        <v>5.73</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.86</v>
+        <v>7.67</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>08/07/2023 12:56</t>
+          <t>08/07/2023 12:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>2.82</v>
+        <v>3.68</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.23</v>
+        <v>3.57</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>08/07/2023 12:55</t>
+          <t>08/07/2023 12:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.16</v>
+        <v>1.53</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>08/07/2023 12:56</t>
+          <t>08/07/2023 12:58</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangxi-pingguo-haliao/z38hSegt/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-sichuan-jiuniu/hv3cRF8n/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>5.73</v>
+        <v>2.32</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>7.67</v>
+        <v>1.86</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>08/07/2023 12:58</t>
+          <t>08/07/2023 12:56</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.68</v>
+        <v>2.82</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.57</v>
+        <v>3.23</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>08/07/2023 12:58</t>
+          <t>08/07/2023 12:55</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.53</v>
+        <v>3.16</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>08/07/2023 12:58</t>
+          <t>08/07/2023 12:56</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-sichuan-jiuniu/hv3cRF8n/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangxi-pingguo-haliao/z38hSegt/</t>
         </is>
       </c>
     </row>
@@ -8853,62 +8853,62 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>2</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Yanbian Longding</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
       <c r="J92" t="n">
-        <v>3.76</v>
+        <v>2.01</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.4</v>
+        <v>2.09</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2.94</v>
+        <v>3.21</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.99</v>
+        <v>3.89</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shijiazhuang-gongfu/YgMQWyoP/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>3.55</v>
+        <v>3.76</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.13</v>
+        <v>2.4</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.16</v>
+        <v>3.26</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.37</v>
+        <v>2.99</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>2.01</v>
+        <v>3.55</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>07/07/2023 17:12</t>
+          <t>07/07/2023 01:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.09</v>
+        <v>3.13</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.21</v>
+        <v>2.91</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>07/07/2023 17:12</t>
+          <t>07/07/2023 01:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>07/07/2023 17:12</t>
+          <t>07/07/2023 01:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.89</v>
+        <v>2.37</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shijiazhuang-gongfu/YgMQWyoP/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:11</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.41</v>
+        <v>4.37</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.4</v>
+        <v>4.48</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.24</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.97</v>
+        <v>8.76</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:11</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.37</v>
+        <v>3.41</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.48</v>
+        <v>3.4</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>8.130000000000001</v>
+        <v>5.24</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>8.76</v>
+        <v>5.97</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.62</v>
+        <v>2.56</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.55</v>
+        <v>2.03</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.49</v>
+        <v>2.74</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.12</v>
+        <v>3.04</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.05</v>
+        <v>2.89</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.85</v>
+        <v>4.01</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dandong-tengyue/SGcMLBxO/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-nanjing-city/67dQKViU/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>1.51</v>
+        <v>6.95</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.88</v>
+        <v>6.13</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:22</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.73</v>
+        <v>4.04</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:22</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>5.77</v>
+        <v>1.41</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.34</v>
+        <v>1.65</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:11</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangzhou-fc/WUNWuFNu/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jinan-xingzhou/pYRzuZxn/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2.56</v>
+        <v>1.62</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.03</v>
+        <v>1.55</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>2.74</v>
+        <v>3.49</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.04</v>
+        <v>4.12</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.89</v>
+        <v>5.05</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>4.01</v>
+        <v>5.85</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-nanjing-city/67dQKViU/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dandong-tengyue/SGcMLBxO/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>6.95</v>
+        <v>1.51</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>6.13</v>
+        <v>1.88</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:22</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>4.04</v>
+        <v>3.73</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:22</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>1.41</v>
+        <v>5.77</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>1.65</v>
+        <v>4.34</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:11</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jinan-xingzhou/pYRzuZxn/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangzhou-fc/WUNWuFNu/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.96</v>
+        <v>3.72</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:14</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>4.24</v>
+        <v>3.41</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.94</v>
+        <v>1.97</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>9.25</v>
+        <v>4.63</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.1</v>
+        <v>1.96</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.93</v>
+        <v>1.4</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:14</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.23</v>
+        <v>4.24</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:20</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.21</v>
+        <v>3.94</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.46</v>
+        <v>9.25</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>3.72</v>
+        <v>3.1</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.78</v>
+        <v>2.93</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.41</v>
+        <v>3.23</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:20</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>1.97</v>
+        <v>2.21</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.63</v>
+        <v>2.46</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.77</v>
+        <v>5.47</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.79</v>
+        <v>4.44</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.19</v>
+        <v>3.48</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.33</v>
+        <v>3.13</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.68</v>
+        <v>1.58</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>5.06</v>
+        <v>1.95</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangxi-pingguo-haliao/SxZdYlMT/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>5.47</v>
+        <v>2.26</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>4.44</v>
+        <v>1.71</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.48</v>
+        <v>3.01</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.13</v>
+        <v>3.41</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         </is>
       </c>
       <c r="R109" t="n">
-        <v>1.58</v>
+        <v>3.07</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>1.95</v>
+        <v>5.52</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangxi-pingguo-haliao/SxZdYlMT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shanghai-jiading-huilong/WAulzBiH/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J110" t="n">
-        <v>2.26</v>
+        <v>1.77</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.01</v>
+        <v>3.19</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.41</v>
+        <v>3.33</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.07</v>
+        <v>4.68</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>5.52</v>
+        <v>5.06</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shanghai-jiading-huilong/WAulzBiH/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>3.38</v>
+        <v>2.32</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.31</v>
+        <v>1.76</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.26</v>
+        <v>3.63</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.23</v>
+        <v>4.67</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-guangzhou-fc/x2LIkji4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-suzhou-dongwu/WOKMlA6A/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>2.32</v>
+        <v>3.38</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.76</v>
+        <v>3.31</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.63</v>
+        <v>3.26</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.25</v>
+        <v>2.12</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.67</v>
+        <v>2.23</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-suzhou-dongwu/WOKMlA6A/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-guangzhou-fc/x2LIkji4/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.94</v>
+        <v>3.41</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2</v>
+        <v>4.96</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>29/07/2023 13:29</t>
+          <t>29/07/2023 13:21</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.09</v>
+        <v>3.61</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>29/07/2023 13:29</t>
+          <t>29/07/2023 12:39</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.53</v>
+        <v>2.04</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>4.27</v>
+        <v>1.73</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>29/07/2023 13:29</t>
+          <t>29/07/2023 13:21</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-guangxi-pingguo-haliao/SjEVnlyN/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-nanjing-city/AFJQmULG/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>3.41</v>
+        <v>2.94</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>4.96</v>
+        <v>2</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>29/07/2023 13:21</t>
+          <t>29/07/2023 13:29</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.61</v>
+        <v>3.09</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>29/07/2023 12:39</t>
+          <t>29/07/2023 13:29</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.04</v>
+        <v>2.53</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>1.73</v>
+        <v>4.27</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>29/07/2023 13:21</t>
+          <t>29/07/2023 13:29</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-nanjing-city/AFJQmULG/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-guangxi-pingguo-haliao/SjEVnlyN/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>1.53</v>
+        <v>2.07</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.41</v>
+        <v>2.01</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>30/07/2023 11:45</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.83</v>
+        <v>2.97</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4.33</v>
+        <v>3.08</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>30/07/2023 12:38</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>5.33</v>
+        <v>3.68</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>8.66</v>
+        <v>4.27</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>30/07/2023 12:38</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-jiangxi-lushan/OMa1sSbp/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Shijiazhuang Gongfu</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>2</v>
-      </c>
       <c r="J119" t="n">
-        <v>2.07</v>
+        <v>2.81</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.01</v>
+        <v>2.93</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.68</v>
+        <v>2.5</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.27</v>
+        <v>2.71</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.81</v>
+        <v>1.53</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.93</v>
+        <v>1.41</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 11:45</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.99</v>
+        <v>3.83</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 12:38</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.5</v>
+        <v>5.33</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.71</v>
+        <v>8.66</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 12:38</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-jiangxi-lushan/OMa1sSbp/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.56</v>
+        <v>2.36</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.28</v>
+        <v>2.46</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.6</v>
+        <v>2.79</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>5.53</v>
+        <v>2.93</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.45</v>
+        <v>3.14</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>10.63</v>
+        <v>3.24</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-guangzhou-fc/h0dxquzk/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangxi-pingguo-haliao/Wjetrake/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>2.36</v>
+        <v>1.56</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>2.46</v>
+        <v>1.28</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>2.79</v>
+        <v>3.6</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2.93</v>
+        <v>5.53</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>3.14</v>
+        <v>5.45</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>3.24</v>
+        <v>10.63</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangxi-pingguo-haliao/Wjetrake/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-guangzhou-fc/h0dxquzk/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1.77</v>
+        <v>1.2</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.62</v>
+        <v>1.14</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.29</v>
+        <v>5.78</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.96</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.3</v>
+        <v>11.24</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.38</v>
+        <v>20.83</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>13/08/2023 13:21</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shenyang-urban-fc/SIAKeIJf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-wuxi-wugou/63MBcvkr/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>4.39</v>
+        <v>1.77</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>9.83</v>
+        <v>1.62</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:29</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.37</v>
+        <v>3.29</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.6</v>
+        <v>3.96</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:29</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>1.73</v>
+        <v>4.3</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>1.36</v>
+        <v>5.38</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:29</t>
+          <t>13/08/2023 13:21</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-nanjing-city/pfLFdb4l/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shenyang-urban-fc/SIAKeIJf/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1.3</v>
+        <v>4.39</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.27</v>
+        <v>9.83</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:29</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>4.58</v>
+        <v>3.37</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>5.26</v>
+        <v>4.6</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:29</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>8.789999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>12.87</v>
+        <v>1.36</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:29</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-nanjing-city/pfLFdb4l/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>5.78</v>
+        <v>4.58</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>8.119999999999999</v>
+        <v>5.26</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>11.24</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>20.83</v>
+        <v>12.87</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-wuxi-wugou/63MBcvkr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>3.87</v>
+        <v>2.77</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>5.11</v>
+        <v>4.69</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>19/08/2023 13:24</t>
+          <t>19/08/2023 13:29</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.47</v>
+        <v>3.55</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>19/08/2023 13:24</t>
+          <t>19/08/2023 13:29</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>1.98</v>
+        <v>2.41</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>19/08/2023 13:24</t>
+          <t>19/08/2023 13:29</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-guangxi-pingguo-haliao/EZCWhG3D/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-qingdao-west-coast/zqESgdl7/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>2.77</v>
+        <v>3.87</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>4.69</v>
+        <v>5.11</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>19/08/2023 13:29</t>
+          <t>19/08/2023 13:24</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.55</v>
+        <v>3.47</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>19/08/2023 13:29</t>
+          <t>19/08/2023 13:24</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>2.41</v>
+        <v>1.98</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>19/08/2023 13:29</t>
+          <t>19/08/2023 13:24</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-qingdao-west-coast/zqESgdl7/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-guangxi-pingguo-haliao/EZCWhG3D/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>8.65</v>
+        <v>1.46</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>10.13</v>
+        <v>1.42</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>27/08/2023 13:28</t>
+          <t>27/08/2023 13:21</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>5.31</v>
+        <v>3.92</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4.88</v>
+        <v>4.28</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>27/08/2023 13:28</t>
+          <t>27/08/2023 13:21</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>1.26</v>
+        <v>6.22</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>1.33</v>
+        <v>8.31</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>27/08/2023 13:27</t>
+          <t>27/08/2023 13:21</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-nanjing-city/6wwLOGms/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shanghai-jiading-huilong/Yk865gmJ/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>1.46</v>
+        <v>3.23</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,15 +14396,15 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>1.42</v>
+        <v>5.75</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>27/08/2023 13:21</t>
+          <t>27/08/2023 13:26</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.92</v>
+        <v>3.08</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -14412,15 +14412,15 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>4.28</v>
+        <v>3.78</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>27/08/2023 13:21</t>
+          <t>27/08/2023 13:26</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>6.22</v>
+        <v>2.14</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -14428,16 +14428,16 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>8.31</v>
+        <v>1.62</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>27/08/2023 13:21</t>
+          <t>27/08/2023 13:22</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shanghai-jiading-huilong/Yk865gmJ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shijiazhuang-gongfu/QqehTduQ/</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -14473,14 +14473,14 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>3.23</v>
+        <v>8.65</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>5.75</v>
+        <v>10.13</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>27/08/2023 13:26</t>
+          <t>27/08/2023 13:28</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.08</v>
+        <v>5.31</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.78</v>
+        <v>4.88</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>27/08/2023 13:26</t>
+          <t>27/08/2023 13:28</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>2.14</v>
+        <v>1.26</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>27/08/2023 13:22</t>
+          <t>27/08/2023 13:27</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shijiazhuang-gongfu/QqehTduQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-nanjing-city/6wwLOGms/</t>
         </is>
       </c>
     </row>
@@ -18578,6 +18578,190 @@
       <c r="V197" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangzhou-fc/AFsuwSPl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45214.375</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Wuxi Wugou</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Shenyang Urban FC</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>13/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>15/10/2023 08:51</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>13/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P198" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>15/10/2023 08:57</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>13/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T198" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>15/10/2023 08:51</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shenyang-urban-fc/Iuomy6f1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45214.375</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Guangxi Pingguo Haliao</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>2</v>
+      </c>
+      <c r="J199" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>13/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>15/10/2023 08:50</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>13/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>15/10/2023 08:57</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>13/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T199" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>15/10/2023 08:50</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-guangxi-pingguo-haliao/OIoqxnue/</t>
         </is>
       </c>
     </row>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V199"/>
+  <dimension ref="A1:V201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>9.449999999999999</v>
+        <v>4.75</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>8.48</v>
+        <v>5.99</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:25</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.47</v>
+        <v>3.26</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.12</v>
+        <v>3.47</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:24</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:16</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-sichuan-jiuniu/KjYr8h8O/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>2</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Guangxi Pingguo Haliao</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
       <c r="J88" t="n">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>5.99</v>
+        <v>2.78</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.26</v>
+        <v>2.86</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.47</v>
+        <v>2.92</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>1.74</v>
+        <v>2.81</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>1.66</v>
+        <v>2.82</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jiangxi-lushan/OOvzAEwC/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>1</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>2</v>
-      </c>
       <c r="J89" t="n">
-        <v>2.6</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.78</v>
+        <v>8.48</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:25</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>2.86</v>
+        <v>4.47</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2.92</v>
+        <v>4.12</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:24</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.81</v>
+        <v>1.32</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.82</v>
+        <v>1.44</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:16</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jiangxi-lushan/OOvzAEwC/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-sichuan-jiuniu/KjYr8h8O/</t>
         </is>
       </c>
     </row>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>3.47</v>
+        <v>1.32</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>4.05</v>
+        <v>1.29</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>10/10/2023 13:29</t>
+          <t>10/10/2023 13:06</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>2.75</v>
+        <v>4.54</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2.94</v>
+        <v>5.32</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>10/10/2023 13:29</t>
+          <t>10/10/2023 13:06</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>2.22</v>
+        <v>8.08</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.12</v>
+        <v>10.56</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>10/10/2023 13:29</t>
+          <t>10/10/2023 13:06</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-sichuan-jiuniu/hGh1pAXE/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-jiangxi-lushan/roBANnQ1/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193" t="n">
-        <v>1.32</v>
+        <v>3.47</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>1.29</v>
+        <v>4.05</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>10/10/2023 13:06</t>
+          <t>10/10/2023 13:29</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>4.54</v>
+        <v>2.75</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>5.32</v>
+        <v>2.94</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>10/10/2023 13:06</t>
+          <t>10/10/2023 13:29</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>8.08</v>
+        <v>2.22</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>10.56</v>
+        <v>2.12</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>10/10/2023 13:06</t>
+          <t>10/10/2023 13:29</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-jiangxi-lushan/roBANnQ1/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-sichuan-jiuniu/hGh1pAXE/</t>
         </is>
       </c>
     </row>
@@ -18762,6 +18762,190 @@
       <c r="V199" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-guangxi-pingguo-haliao/OIoqxnue/</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45214.5625</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>3</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>14/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T200" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-sichuan-jiuniu/dWqizQ97/</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45214.5625</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Shanghai Jiading Huilong</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:24</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:24</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T201" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:24</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-shijiazhuang-gongfu/YmTZb9n8/</t>
         </is>
       </c>
     </row>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V201"/>
+  <dimension ref="A1:V205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,22 +1409,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.58</v>
+        <v>3.81</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,15 +1432,15 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.59</v>
+        <v>3.14</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.74</v>
+        <v>2.97</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,15 +1448,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>6.49</v>
+        <v>2.07</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>9.94</v>
+        <v>2.3</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.81</v>
+        <v>1.58</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.14</v>
+        <v>3.59</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2.97</v>
+        <v>4.74</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1540,15 +1540,15 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.07</v>
+        <v>6.49</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.3</v>
+        <v>9.94</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.28</v>
+        <v>5.64</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.81</v>
+        <v>5.74</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.09</v>
+        <v>3.65</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.79</v>
+        <v>3.31</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.31</v>
+        <v>1.63</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.91</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:38</t>
+          <t>07/05/2023 08:37</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Suzhou Dongwu</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.53</v>
+        <v>2.28</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:56</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:39</t>
+          <t>07/05/2023 08:56</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.31</v>
+        <v>3.31</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:38</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>5.64</v>
+        <v>3.53</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5.74</v>
+        <v>2.96</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:52</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.31</v>
+        <v>2.84</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:52</t>
+          <t>07/05/2023 08:39</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.63</v>
+        <v>2.31</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.72</v>
+        <v>2.72</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:37</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13/05/2023 09:03</t>
+          <t>13/05/2023 09:22</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.51</v>
+        <v>3.97</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.48</v>
+        <v>4.11</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>13/05/2023 09:08</t>
+          <t>13/05/2023 09:22</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>9.91</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.61</v>
+        <v>7.85</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>13/05/2023 09:08</t>
+          <t>13/05/2023 09:22</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jinan-xingzhou/boT5sDtf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-wuxi-wugou/SKX9tXe0/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Jinan Xingzhou</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>12/05/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>13/05/2023 09:03</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>12/05/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>13/05/2023 09:08</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
         <v>5</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Wuxi Wugou</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>12/05/2023 17:13</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>13/05/2023 09:22</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>12/05/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>13/05/2023 09:22</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>12/05/2023 17:13</t>
-        </is>
-      </c>
       <c r="T27" t="n">
-        <v>7.85</v>
+        <v>5.61</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13/05/2023 09:22</t>
+          <t>13/05/2023 09:08</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-wuxi-wugou/SKX9tXe0/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jinan-xingzhou/boT5sDtf/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>4.15</v>
+        <v>3.63</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>5.31</v>
+        <v>3.14</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13/05/2023 13:15</t>
+          <t>13/05/2023 13:29</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.34</v>
+        <v>3.07</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.48</v>
+        <v>2.89</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13/05/2023 13:07</t>
+          <t>13/05/2023 13:29</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.72</v>
+        <v>2.54</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13/05/2023 13:15</t>
+          <t>13/05/2023 13:29</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-qingdao-west-coast/6BWDuiB6/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-yanbian-longding/lzMIvBQC/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.63</v>
+        <v>4.15</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3.14</v>
+        <v>5.31</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13/05/2023 13:29</t>
+          <t>13/05/2023 13:15</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.07</v>
+        <v>3.34</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2.89</v>
+        <v>3.48</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>13/05/2023 13:29</t>
+          <t>13/05/2023 13:07</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>13/05/2023 13:29</t>
+          <t>13/05/2023 13:15</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-yanbian-longding/lzMIvBQC/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-qingdao-west-coast/6BWDuiB6/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>14/05/2023 12:08</t>
+          <t>14/05/2023 13:24</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.52</v>
+        <v>3.75</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>14/05/2023 13:26</t>
+          <t>14/05/2023 13:24</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.48</v>
+        <v>5.56</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>5.44</v>
+        <v>3.53</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>14/05/2023 13:21</t>
+          <t>14/05/2023 13:24</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dongguan-guanlian/GtE42EIJ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-heilongjiang-ice-city/pCWSdhts/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Heilongjiang Ice City</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
       <c r="J33" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>14/05/2023 13:24</t>
+          <t>14/05/2023 12:08</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.75</v>
+        <v>3.52</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>14/05/2023 13:24</t>
+          <t>14/05/2023 13:26</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>5.56</v>
+        <v>4.48</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.53</v>
+        <v>5.44</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>14/05/2023 13:24</t>
+          <t>14/05/2023 13:21</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-heilongjiang-ice-city/pCWSdhts/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dongguan-guanlian/GtE42EIJ/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,63 +4261,63 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.56</v>
+        <v>5.48</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.43</v>
+        <v>6.53</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:25</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.1</v>
+        <v>3.48</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.14</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:26</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.56</v>
+        <v>1.65</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>8.81</v>
+        <v>1.62</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:26</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shanghai-jiading-huilong/6qWBdqnb/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-qingdao-west-coast/pzVFe314/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.48</v>
+        <v>2.56</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6.53</v>
+        <v>1.43</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:25</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>4.14</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:26</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.65</v>
+        <v>2.56</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.62</v>
+        <v>8.81</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:26</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-qingdao-west-coast/pzVFe314/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shanghai-jiading-huilong/6qWBdqnb/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>04/06/2023 09:24</t>
+          <t>04/06/2023 07:41</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.8</v>
+        <v>3.58</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.94</v>
+        <v>5.3</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>04/06/2023 09:29</t>
+          <t>04/06/2023 09:26</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.33</v>
+        <v>4.82</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>9.109999999999999</v>
+        <v>12.87</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>04/06/2023 09:29</t>
+          <t>04/06/2023 09:26</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jiangxi-lushan/8xr66KFM/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shanghai-jiading-huilong/Uoq2700G/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>04/06/2023 07:41</t>
+          <t>04/06/2023 09:24</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.58</v>
+        <v>3.8</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>5.3</v>
+        <v>4.94</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04/06/2023 09:26</t>
+          <t>04/06/2023 09:29</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.82</v>
+        <v>5.33</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>12.87</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>04/06/2023 09:26</t>
+          <t>04/06/2023 09:29</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shanghai-jiading-huilong/Uoq2700G/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jiangxi-lushan/8xr66KFM/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.59</v>
+        <v>1.78</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,48 +7772,48 @@
         </is>
       </c>
       <c r="L80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:25</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>27/06/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
         <v>3.67</v>
       </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:05</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="O80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:25</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="S80" t="inlineStr">
         <is>
           <t>27/06/2023 01:42</t>
         </is>
       </c>
-      <c r="P80" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:04</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>27/06/2023 01:42</t>
-        </is>
-      </c>
       <c r="T80" t="n">
-        <v>2.21</v>
+        <v>8.51</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.78</v>
+        <v>2.59</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.5</v>
+        <v>3.67</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:05</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.09</v>
+        <v>2.79</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.67</v>
+        <v>3</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>4.81</v>
+        <v>2.88</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>8.51</v>
+        <v>2.21</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4.26</v>
+        <v>2.89</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.27</v>
+        <v>2.86</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:23</t>
+          <t>01/07/2023 13:13</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.04</v>
+        <v>2.85</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.93</v>
+        <v>2.76</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.89</v>
+        <v>4.26</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.86</v>
+        <v>3.27</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:13</t>
+          <t>01/07/2023 13:23</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.85</v>
+        <v>2.04</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.76</v>
+        <v>1.93</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>4.75</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>5.99</v>
+        <v>8.48</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:25</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.26</v>
+        <v>4.47</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.47</v>
+        <v>4.12</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:24</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:16</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-sichuan-jiuniu/KjYr8h8O/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>9.449999999999999</v>
+        <v>4.75</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>8.48</v>
+        <v>5.99</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:25</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.47</v>
+        <v>3.26</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>4.12</v>
+        <v>3.47</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:24</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:16</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-sichuan-jiuniu/KjYr8h8O/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.4</v>
+        <v>3.13</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.26</v>
+        <v>3.16</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.99</v>
+        <v>2.37</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>3.55</v>
+        <v>3.76</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.13</v>
+        <v>2.4</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.16</v>
+        <v>3.26</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.37</v>
+        <v>2.99</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.62</v>
+        <v>2.79</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.68</v>
+        <v>3.53</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:11</t>
+          <t>09/07/2023 13:29</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.41</v>
+        <v>2.89</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:29</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.24</v>
+        <v>2.58</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.97</v>
+        <v>2.22</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:21</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dongguan-guanlian/KjfENX7B/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.79</v>
+        <v>1.62</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>3.53</v>
+        <v>1.68</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:29</t>
+          <t>09/07/2023 13:11</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.89</v>
+        <v>3.41</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.09</v>
+        <v>3.4</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:29</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.58</v>
+        <v>5.24</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.22</v>
+        <v>5.97</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:21</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dongguan-guanlian/KjfENX7B/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -9505,14 +9505,14 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>2.56</v>
+        <v>6.95</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.03</v>
+        <v>6.13</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:22</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.74</v>
+        <v>4.04</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.04</v>
+        <v>3.49</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:22</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.89</v>
+        <v>1.41</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.01</v>
+        <v>1.65</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:11</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-nanjing-city/67dQKViU/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jinan-xingzhou/pYRzuZxn/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>6.95</v>
+        <v>2.56</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>6.13</v>
+        <v>2.03</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:22</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>4.04</v>
+        <v>2.74</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.49</v>
+        <v>3.04</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:22</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>1.41</v>
+        <v>2.89</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>1.65</v>
+        <v>4.01</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:11</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jinan-xingzhou/pYRzuZxn/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-nanjing-city/67dQKViU/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>3.72</v>
+        <v>3.1</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.78</v>
+        <v>2.93</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.41</v>
+        <v>3.23</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:20</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.97</v>
+        <v>2.21</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.63</v>
+        <v>2.46</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>3.1</v>
+        <v>3.72</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.93</v>
+        <v>1.78</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.23</v>
+        <v>3.41</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:20</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.21</v>
+        <v>1.97</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.46</v>
+        <v>4.63</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J107" t="n">
-        <v>3.1</v>
+        <v>1.77</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3.82</v>
+        <v>1.79</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:22</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2.87</v>
+        <v>3.19</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.98</v>
+        <v>3.33</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>22/07/2023 12:45</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.32</v>
+        <v>4.68</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.18</v>
+        <v>5.06</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:22</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shijiazhuang-gongfu/pEqhZU6N/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.77</v>
+        <v>3.1</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.79</v>
+        <v>3.82</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:22</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.19</v>
+        <v>2.87</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.33</v>
+        <v>2.98</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 12:45</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>4.68</v>
+        <v>2.32</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>5.06</v>
+        <v>2.18</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:22</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shijiazhuang-gongfu/pEqhZU6N/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>3.41</v>
+        <v>2.94</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>4.96</v>
+        <v>2</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>29/07/2023 13:21</t>
+          <t>29/07/2023 13:29</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.61</v>
+        <v>3.09</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>29/07/2023 12:39</t>
+          <t>29/07/2023 13:29</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.04</v>
+        <v>2.53</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>1.73</v>
+        <v>4.27</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>29/07/2023 13:21</t>
+          <t>29/07/2023 13:29</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-nanjing-city/AFJQmULG/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-guangxi-pingguo-haliao/SjEVnlyN/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.94</v>
+        <v>3.41</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2</v>
+        <v>4.96</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>29/07/2023 13:29</t>
+          <t>29/07/2023 13:21</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.09</v>
+        <v>3.61</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>29/07/2023 13:29</t>
+          <t>29/07/2023 12:39</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.53</v>
+        <v>2.04</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.27</v>
+        <v>1.73</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>29/07/2023 13:29</t>
+          <t>29/07/2023 13:21</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-guangxi-pingguo-haliao/SjEVnlyN/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-nanjing-city/AFJQmULG/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Shijiazhuang Gongfu</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
-        <v>2</v>
-      </c>
       <c r="J118" t="n">
-        <v>2.07</v>
+        <v>1.53</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.01</v>
+        <v>1.41</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 11:45</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>2.97</v>
+        <v>3.83</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.08</v>
+        <v>4.33</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 12:38</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>3.68</v>
+        <v>5.33</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>4.27</v>
+        <v>8.66</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 12:38</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-jiangxi-lushan/OMa1sSbp/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>2.81</v>
+        <v>2.07</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.93</v>
+        <v>2.01</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.5</v>
+        <v>3.68</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.71</v>
+        <v>4.27</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
       <c r="J120" t="n">
-        <v>1.53</v>
+        <v>4.36</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.41</v>
+        <v>6.83</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>30/07/2023 11:45</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.83</v>
+        <v>3.22</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.33</v>
+        <v>3.84</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>30/07/2023 12:38</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>5.33</v>
+        <v>1.78</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>8.66</v>
+        <v>1.54</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>30/07/2023 12:38</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-jiangxi-lushan/OMa1sSbp/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Dongguan Guanlian</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
       <c r="J121" t="n">
-        <v>4.36</v>
+        <v>2.81</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>6.83</v>
+        <v>2.93</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.22</v>
+        <v>2.99</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>1.54</v>
+        <v>2.71</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>2.36</v>
+        <v>1.56</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.46</v>
+        <v>1.28</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>2.79</v>
+        <v>3.6</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2.93</v>
+        <v>5.53</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>3.14</v>
+        <v>5.45</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>3.24</v>
+        <v>10.63</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangxi-pingguo-haliao/Wjetrake/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-guangzhou-fc/h0dxquzk/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.56</v>
+        <v>2.36</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.28</v>
+        <v>2.46</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.6</v>
+        <v>2.79</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>5.53</v>
+        <v>2.93</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.45</v>
+        <v>3.14</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>10.63</v>
+        <v>3.24</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-guangzhou-fc/h0dxquzk/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangxi-pingguo-haliao/Wjetrake/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.2</v>
+        <v>1.77</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.14</v>
+        <v>1.62</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>5.78</v>
+        <v>3.29</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>8.119999999999999</v>
+        <v>3.96</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>11.24</v>
+        <v>4.3</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>20.83</v>
+        <v>5.38</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 13:21</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-wuxi-wugou/63MBcvkr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shenyang-urban-fc/SIAKeIJf/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1.77</v>
+        <v>1.3</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.29</v>
+        <v>4.58</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.96</v>
+        <v>5.26</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>4.3</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>5.38</v>
+        <v>12.87</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:21</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shenyang-urban-fc/SIAKeIJf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1.72</v>
+        <v>4.39</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.32</v>
+        <v>9.83</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 13:29</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.23</v>
+        <v>3.37</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>13/08/2023 13:21</t>
+          <t>13/08/2023 13:29</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>4.73</v>
+        <v>1.73</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>12.12</v>
+        <v>1.36</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 13:29</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-nanjing-city/pfLFdb4l/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>4.39</v>
+        <v>1.2</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>9.83</v>
+        <v>1.14</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>13/08/2023 13:29</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.37</v>
+        <v>5.78</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>4.6</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>13/08/2023 13:29</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>1.73</v>
+        <v>11.24</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>1.36</v>
+        <v>20.83</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>13/08/2023 13:29</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-nanjing-city/pfLFdb4l/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-wuxi-wugou/63MBcvkr/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G137" t="n">
+        <v>3</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
         <v>2</v>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
       <c r="J137" t="n">
-        <v>1.3</v>
+        <v>1.72</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>4.58</v>
+        <v>3.23</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>5.26</v>
+        <v>4.64</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:21</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>8.789999999999999</v>
+        <v>4.73</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>12.87</v>
+        <v>12.12</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>2.77</v>
+        <v>3.87</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>4.69</v>
+        <v>5.11</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>19/08/2023 13:29</t>
+          <t>19/08/2023 13:24</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.55</v>
+        <v>3.47</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>19/08/2023 13:29</t>
+          <t>19/08/2023 13:24</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.41</v>
+        <v>1.98</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>19/08/2023 13:29</t>
+          <t>19/08/2023 13:24</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-qingdao-west-coast/zqESgdl7/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-guangxi-pingguo-haliao/EZCWhG3D/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>3.87</v>
+        <v>2.77</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>5.11</v>
+        <v>4.69</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>19/08/2023 13:24</t>
+          <t>19/08/2023 13:29</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.47</v>
+        <v>3.55</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>19/08/2023 13:24</t>
+          <t>19/08/2023 13:29</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>1.98</v>
+        <v>2.41</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>19/08/2023 13:24</t>
+          <t>19/08/2023 13:29</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-guangxi-pingguo-haliao/EZCWhG3D/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-qingdao-west-coast/zqESgdl7/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J143" t="n">
-        <v>1.39</v>
+        <v>4.05</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.38</v>
+        <v>3.38</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>4.15</v>
+        <v>3.25</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>4.77</v>
+        <v>3.22</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>7.02</v>
+        <v>1.83</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>8.369999999999999</v>
+        <v>2.22</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>3.13</v>
+        <v>1.39</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.43</v>
+        <v>1.38</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.01</v>
+        <v>4.15</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.28</v>
+        <v>4.77</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.22</v>
+        <v>7.02</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.17</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>4.05</v>
+        <v>3.13</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.25</v>
+        <v>3.01</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         </is>
       </c>
       <c r="R145" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>1.46</v>
+        <v>8.65</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.42</v>
+        <v>10.13</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>27/08/2023 13:21</t>
+          <t>27/08/2023 13:28</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.92</v>
+        <v>5.31</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4.28</v>
+        <v>4.88</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>27/08/2023 13:21</t>
+          <t>27/08/2023 13:28</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>6.22</v>
+        <v>1.26</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>8.31</v>
+        <v>1.33</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>27/08/2023 13:21</t>
+          <t>27/08/2023 13:27</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shanghai-jiading-huilong/Yk865gmJ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-nanjing-city/6wwLOGms/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>3.23</v>
+        <v>1.46</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,15 +14396,15 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>5.75</v>
+        <v>1.42</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>27/08/2023 13:26</t>
+          <t>27/08/2023 13:21</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.08</v>
+        <v>3.92</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -14412,15 +14412,15 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.78</v>
+        <v>4.28</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>27/08/2023 13:26</t>
+          <t>27/08/2023 13:21</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>2.14</v>
+        <v>6.22</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -14428,16 +14428,16 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>1.62</v>
+        <v>8.31</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>27/08/2023 13:22</t>
+          <t>27/08/2023 13:21</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shijiazhuang-gongfu/QqehTduQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shanghai-jiading-huilong/Yk865gmJ/</t>
         </is>
       </c>
     </row>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -14473,14 +14473,14 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>8.65</v>
+        <v>3.23</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>10.13</v>
+        <v>5.75</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>27/08/2023 13:28</t>
+          <t>27/08/2023 13:26</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>5.31</v>
+        <v>3.08</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>4.88</v>
+        <v>3.78</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>27/08/2023 13:28</t>
+          <t>27/08/2023 13:26</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>1.26</v>
+        <v>2.14</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>27/08/2023 13:27</t>
+          <t>27/08/2023 13:22</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-nanjing-city/6wwLOGms/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shijiazhuang-gongfu/QqehTduQ/</t>
         </is>
       </c>
     </row>
@@ -18946,6 +18946,374 @@
       <c r="V201" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-shijiazhuang-gongfu/YmTZb9n8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45217.375</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Shenyang Urban FC</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>18/10/2023 08:58</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P202" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>18/10/2023 08:56</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T202" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>18/10/2023 08:58</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-yanbian-longding/61RscmHK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45217.39583333334</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Nanjing City</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Jinan Xingzhou</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>18/10/2023 09:26</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P203" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>18/10/2023 09:28</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T203" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>18/10/2023 09:28</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jinan-xingzhou/296Ijofl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45217.39583333334</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Qingdao West Coast</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Suzhou Dongwu</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>18/10/2023 09:21</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>18/10/2023 09:22</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T204" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>18/10/2023 09:22</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-suzhou-dongwu/WrBMk59f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45217.39583333334</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>4</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Wuxi Wugou</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>18/10/2023 09:25</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>18/10/2023 09:29</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
+        <v>15</v>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T205" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>18/10/2023 09:29</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-wuxi-wugou/OI7EiRvr/</t>
         </is>
       </c>
     </row>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V205"/>
+  <dimension ref="A1:V209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,22 +1409,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.81</v>
+        <v>1.58</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,15 +1432,15 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.14</v>
+        <v>3.59</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2.97</v>
+        <v>4.74</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,15 +1448,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.07</v>
+        <v>6.49</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.3</v>
+        <v>9.94</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.58</v>
+        <v>3.81</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.59</v>
+        <v>3.14</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.74</v>
+        <v>2.97</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1540,15 +1540,15 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.49</v>
+        <v>2.07</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>9.94</v>
+        <v>2.3</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Qingdao West Coast</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" t="n">
-        <v>5.64</v>
+        <v>2.28</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5.74</v>
+        <v>2.81</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:52</t>
+          <t>07/05/2023 08:56</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>3.09</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,32 +1808,32 @@
         </is>
       </c>
       <c r="P15" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>07/05/2023 08:56</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>3.31</v>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>07/05/2023 08:52</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S15" t="inlineStr">
         <is>
           <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>2.91</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:37</t>
+          <t>07/05/2023 08:38</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.28</v>
+        <v>3.53</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.81</v>
+        <v>2.96</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:39</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.31</v>
+        <v>2.31</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.91</v>
+        <v>2.72</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:38</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.53</v>
+        <v>5.64</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.96</v>
+        <v>5.74</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.84</v>
+        <v>3.31</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:39</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.31</v>
+        <v>1.63</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.72</v>
+        <v>1.72</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:37</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Jinan Xingzhou</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>12/05/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>13/05/2023 09:03</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>12/05/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>13/05/2023 09:08</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
         <v>5</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Wuxi Wugou</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>12/05/2023 17:13</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>13/05/2023 09:22</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>12/05/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>13/05/2023 09:22</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>12/05/2023 17:13</t>
-        </is>
-      </c>
       <c r="T26" t="n">
-        <v>7.85</v>
+        <v>5.61</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>13/05/2023 09:22</t>
+          <t>13/05/2023 09:08</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-wuxi-wugou/SKX9tXe0/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jinan-xingzhou/boT5sDtf/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13/05/2023 09:03</t>
+          <t>13/05/2023 09:22</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.51</v>
+        <v>3.97</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.48</v>
+        <v>4.11</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13/05/2023 09:08</t>
+          <t>13/05/2023 09:22</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>9.91</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.61</v>
+        <v>7.85</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13/05/2023 09:08</t>
+          <t>13/05/2023 09:22</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jinan-xingzhou/boT5sDtf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-wuxi-wugou/SKX9tXe0/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.42</v>
+        <v>4.22</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.19</v>
+        <v>3.17</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>8.1</v>
+        <v>2.3</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.84</v>
+        <v>1.98</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-wuxi-wugou/t2OOgsWG/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dandong-tengyue/f94amu9p/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4.22</v>
+        <v>1.42</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.17</v>
+        <v>4.19</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.98</v>
+        <v>8.84</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dandong-tengyue/f94amu9p/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-wuxi-wugou/t2OOgsWG/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>02/06/2023 01:42</t>
+          <t>02/06/2023 17:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.47</v>
+        <v>1.99</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>03/06/2023 13:27</t>
+          <t>03/06/2023 13:19</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.17</v>
+        <v>3.03</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>02/06/2023 01:42</t>
+          <t>02/06/2023 17:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.9</v>
+        <v>3.24</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>03/06/2023 13:27</t>
+          <t>03/06/2023 13:17</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.7</v>
+        <v>3.49</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>02/06/2023 01:42</t>
+          <t>02/06/2023 17:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>7.42</v>
+        <v>4.04</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>03/06/2023 13:27</t>
+          <t>03/06/2023 13:19</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-wuxi-wugou/MLuf9MV3/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-shijiazhuang-gongfu/QDxB5vVS/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.23</v>
+        <v>1.75</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>02/06/2023 17:12</t>
+          <t>02/06/2023 01:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.99</v>
+        <v>1.47</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>03/06/2023 13:19</t>
+          <t>03/06/2023 13:27</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.03</v>
+        <v>3.17</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>02/06/2023 17:12</t>
+          <t>02/06/2023 01:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.24</v>
+        <v>3.9</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>03/06/2023 13:17</t>
+          <t>03/06/2023 13:27</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.49</v>
+        <v>4.7</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>02/06/2023 17:12</t>
+          <t>02/06/2023 01:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.04</v>
+        <v>7.42</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>03/06/2023 13:19</t>
+          <t>03/06/2023 13:27</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-shijiazhuang-gongfu/QDxB5vVS/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-wuxi-wugou/MLuf9MV3/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>1</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Sichuan Jiuniu</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
       <c r="J58" t="n">
-        <v>4.35</v>
+        <v>2.74</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.78</v>
+        <v>3.63</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>10/06/2023 08:56</t>
+          <t>10/06/2023 08:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>10/06/2023 08:52</t>
+          <t>10/06/2023 08:55</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>10/06/2023 08:56</t>
+          <t>10/06/2023 08:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-sichuan-jiuniu/SMOx1bwp/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jiangxi-lushan/MqOt0Ihj/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
       <c r="J59" t="n">
-        <v>2.74</v>
+        <v>4.35</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.63</v>
+        <v>2.78</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>10/06/2023 08:59</t>
+          <t>10/06/2023 08:56</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>10/06/2023 08:55</t>
+          <t>10/06/2023 08:52</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.55</v>
+        <v>1.83</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.3</v>
+        <v>2.77</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>10/06/2023 08:59</t>
+          <t>10/06/2023 08:56</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jiangxi-lushan/MqOt0Ihj/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-sichuan-jiuniu/SMOx1bwp/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,14 +6469,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.9</v>
+        <v>1.39</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17/06/2023 09:10</t>
+          <t>17/06/2023 09:28</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.96</v>
+        <v>3.26</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2.96</v>
+        <v>4.64</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>17/06/2023 09:10</t>
+          <t>17/06/2023 09:28</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.94</v>
+        <v>4.18</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.67</v>
+        <v>8.19</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>17/06/2023 09:10</t>
+          <t>17/06/2023 09:28</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-guangxi-pingguo-haliao/4IGmJcaS/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-dandong-tengyue/Mc3FEH7q/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.39</v>
+        <v>2.9</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>17/06/2023 09:28</t>
+          <t>17/06/2023 09:10</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.26</v>
+        <v>2.96</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4.64</v>
+        <v>2.96</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>17/06/2023 09:28</t>
+          <t>17/06/2023 09:10</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.18</v>
+        <v>3.94</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>8.19</v>
+        <v>2.67</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>17/06/2023 09:28</t>
+          <t>17/06/2023 09:10</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-dandong-tengyue/Mc3FEH7q/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-guangxi-pingguo-haliao/4IGmJcaS/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.69</v>
+        <v>2.18</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.63</v>
+        <v>2.35</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:56</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.69</v>
+        <v>3.34</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.26</v>
+        <v>3.28</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:59</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.18</v>
+        <v>2.69</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.35</v>
+        <v>3.63</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:56</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.34</v>
+        <v>2.69</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.28</v>
+        <v>2.26</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:59</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.18</v>
+        <v>4.23</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.48</v>
+        <v>3.86</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.04</v>
+        <v>3.23</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.7</v>
+        <v>3.09</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>18/06/2023 13:28</t>
+          <t>18/06/2023 13:30</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.15</v>
+        <v>1.8</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.53</v>
+        <v>2.11</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-shenyang-urban-fc/ncA6ZIq9/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shijiazhuang-gongfu/ULaBYxaF/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>4.23</v>
+        <v>2.18</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.86</v>
+        <v>2.48</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.23</v>
+        <v>3.04</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,32 +7144,32 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.09</v>
+        <v>2.7</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
+          <t>18/06/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>17/06/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
           <t>18/06/2023 13:30</t>
         </is>
       </c>
-      <c r="R73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>17/06/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T73" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>18/06/2023 13:30</t>
-        </is>
-      </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shijiazhuang-gongfu/ULaBYxaF/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-shenyang-urban-fc/ncA6ZIq9/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>1</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Wuxi Wugou</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.86</v>
+        <v>2.75</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>28/06/2023 12:58</t>
+          <t>28/06/2023 12:51</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.22</v>
+        <v>2.95</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>28/06/2023 12:58</t>
+          <t>28/06/2023 12:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.17</v>
+        <v>2.63</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.46</v>
+        <v>3.66</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>28/06/2023 12:58</t>
+          <t>28/06/2023 12:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-wuxi-wugou/SGsbPYL1/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-jiangxi-lushan/8CbFXdEL/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.75</v>
+        <v>1.86</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/06/2023 12:51</t>
+          <t>28/06/2023 12:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2.8</v>
+        <v>3.08</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2.95</v>
+        <v>3.22</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>28/06/2023 12:51</t>
+          <t>28/06/2023 12:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.63</v>
+        <v>4.17</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.66</v>
+        <v>4.46</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>28/06/2023 12:51</t>
+          <t>28/06/2023 12:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-jiangxi-lushan/8CbFXdEL/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-wuxi-wugou/SGsbPYL1/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.67</v>
+        <v>2.59</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.43</v>
+        <v>3.67</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:05</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.53</v>
+        <v>2.79</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.18</v>
+        <v>3</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.56</v>
+        <v>2.88</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>8.529999999999999</v>
+        <v>2.21</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3.14</v>
+        <v>1.67</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.73</v>
+        <v>1.43</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2.7</v>
+        <v>3.53</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2.79</v>
+        <v>4.18</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.48</v>
+        <v>4.56</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.3</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.15</v>
+        <v>3.14</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.65</v>
+        <v>3.73</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.68</v>
+        <v>2.79</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.48</v>
+        <v>2.48</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>5.57</v>
+        <v>2.3</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>2</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Yanbian Longding</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
       <c r="J80" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.81</v>
+        <v>3.48</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>8.51</v>
+        <v>5.57</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.59</v>
+        <v>1.78</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,48 +7864,48 @@
         </is>
       </c>
       <c r="L81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:25</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>27/06/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
         <v>3.67</v>
       </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:05</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="O81" t="inlineStr">
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:25</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="S81" t="inlineStr">
         <is>
           <t>27/06/2023 01:42</t>
         </is>
       </c>
-      <c r="P81" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:04</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>27/06/2023 01:42</t>
-        </is>
-      </c>
       <c r="T81" t="n">
-        <v>2.21</v>
+        <v>8.51</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>5.73</v>
+        <v>2.32</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>7.67</v>
+        <v>1.86</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>08/07/2023 12:58</t>
+          <t>08/07/2023 12:56</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.68</v>
+        <v>2.82</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.57</v>
+        <v>3.23</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>08/07/2023 12:58</t>
+          <t>08/07/2023 12:55</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.53</v>
+        <v>3.16</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>08/07/2023 12:58</t>
+          <t>08/07/2023 12:56</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-sichuan-jiuniu/hv3cRF8n/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangxi-pingguo-haliao/z38hSegt/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>2.32</v>
+        <v>5.73</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.86</v>
+        <v>7.67</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>08/07/2023 12:56</t>
+          <t>08/07/2023 12:58</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>2.82</v>
+        <v>3.68</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.23</v>
+        <v>3.57</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>08/07/2023 12:55</t>
+          <t>08/07/2023 12:58</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.16</v>
+        <v>1.53</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>08/07/2023 12:56</t>
+          <t>08/07/2023 12:58</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangxi-pingguo-haliao/z38hSegt/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-sichuan-jiuniu/hv3cRF8n/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>07/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>08/07/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>07/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>08/07/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
         <v>2</v>
       </c>
-      <c r="J92" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>07/07/2023 17:12</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="M92" t="inlineStr">
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>07/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U92" t="inlineStr">
         <is>
           <t>08/07/2023 13:25</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>07/07/2023 17:12</t>
-        </is>
-      </c>
-      <c r="P92" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>08/07/2023 13:25</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>07/07/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T92" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>08/07/2023 13:25</t>
-        </is>
-      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shijiazhuang-gongfu/YgMQWyoP/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
         </is>
       </c>
     </row>
@@ -9037,62 +9037,62 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>2</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Yanbian Longding</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
-        <v>3.76</v>
+        <v>2.01</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.4</v>
+        <v>2.09</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.94</v>
+        <v>3.21</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.99</v>
+        <v>3.89</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shijiazhuang-gongfu/YgMQWyoP/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:11</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.37</v>
+        <v>3.41</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.48</v>
+        <v>3.4</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>8.130000000000001</v>
+        <v>5.24</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>8.76</v>
+        <v>5.97</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>2.79</v>
+        <v>1.34</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3.53</v>
+        <v>1.39</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:29</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.89</v>
+        <v>4.37</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.09</v>
+        <v>4.48</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:29</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.58</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.22</v>
+        <v>8.76</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:21</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dongguan-guanlian/KjfENX7B/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.62</v>
+        <v>2.79</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.68</v>
+        <v>3.53</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:11</t>
+          <t>09/07/2023 13:29</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.41</v>
+        <v>2.89</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:29</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.24</v>
+        <v>2.58</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>5.97</v>
+        <v>2.22</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:21</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dongguan-guanlian/KjfENX7B/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>6.95</v>
+        <v>1.51</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>6.13</v>
+        <v>1.88</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:22</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>4.04</v>
+        <v>3.73</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:22</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>1.41</v>
+        <v>5.77</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1.65</v>
+        <v>4.34</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:11</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jinan-xingzhou/pYRzuZxn/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangzhou-fc/WUNWuFNu/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.56</v>
+        <v>6.95</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.03</v>
+        <v>6.13</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:22</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2.74</v>
+        <v>4.04</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.04</v>
+        <v>3.49</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:22</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.89</v>
+        <v>1.41</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.01</v>
+        <v>1.65</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:11</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-nanjing-city/67dQKViU/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jinan-xingzhou/pYRzuZxn/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>1.62</v>
+        <v>2.56</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.55</v>
+        <v>2.03</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.49</v>
+        <v>2.74</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>4.12</v>
+        <v>3.04</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>5.05</v>
+        <v>2.89</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>5.85</v>
+        <v>4.01</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dandong-tengyue/SGcMLBxO/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-nanjing-city/67dQKViU/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.88</v>
+        <v>1.55</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.73</v>
+        <v>3.49</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.38</v>
+        <v>4.12</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>5.77</v>
+        <v>5.05</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.34</v>
+        <v>5.85</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangzhou-fc/WUNWuFNu/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dandong-tengyue/SGcMLBxO/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.77</v>
+        <v>3.1</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.79</v>
+        <v>3.82</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:22</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.19</v>
+        <v>2.87</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.33</v>
+        <v>2.98</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 12:45</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.68</v>
+        <v>2.32</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>5.06</v>
+        <v>2.18</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:22</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shijiazhuang-gongfu/pEqhZU6N/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J108" t="n">
-        <v>5.47</v>
+        <v>1.77</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>4.44</v>
+        <v>1.79</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.48</v>
+        <v>3.19</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.13</v>
+        <v>3.33</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>1.58</v>
+        <v>4.68</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>1.95</v>
+        <v>5.06</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangxi-pingguo-haliao/SxZdYlMT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>2.26</v>
+        <v>5.47</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.71</v>
+        <v>4.44</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.01</v>
+        <v>3.48</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.41</v>
+        <v>3.13</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.07</v>
+        <v>1.58</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>5.52</v>
+        <v>1.95</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shanghai-jiading-huilong/WAulzBiH/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangxi-pingguo-haliao/SxZdYlMT/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>3.1</v>
+        <v>2.26</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>3.82</v>
+        <v>1.71</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:22</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2.98</v>
+        <v>3.41</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>22/07/2023 12:45</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.32</v>
+        <v>3.07</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.18</v>
+        <v>5.52</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:22</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shijiazhuang-gongfu/pEqhZU6N/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shanghai-jiading-huilong/WAulzBiH/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>2.07</v>
+        <v>4.36</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.01</v>
+        <v>6.83</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.97</v>
+        <v>3.22</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.08</v>
+        <v>3.84</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.68</v>
+        <v>1.78</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.27</v>
+        <v>1.54</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>4.36</v>
+        <v>2.07</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>6.83</v>
+        <v>2.01</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.22</v>
+        <v>2.97</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.84</v>
+        <v>3.08</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>1.78</v>
+        <v>3.68</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>1.54</v>
+        <v>4.27</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G134" t="n">
+        <v>3</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
         <v>2</v>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
       <c r="J134" t="n">
-        <v>1.3</v>
+        <v>1.72</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.58</v>
+        <v>3.23</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>5.26</v>
+        <v>4.64</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:21</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>8.789999999999999</v>
+        <v>4.73</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>12.87</v>
+        <v>12.12</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>5.78</v>
+        <v>4.58</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>8.119999999999999</v>
+        <v>5.26</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>11.24</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>20.83</v>
+        <v>12.87</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-wuxi-wugou/63MBcvkr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,14 +13001,14 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1.72</v>
+        <v>1.2</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.23</v>
+        <v>5.78</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>4.64</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>13/08/2023 13:21</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>4.73</v>
+        <v>11.24</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>12.12</v>
+        <v>20.83</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-wuxi-wugou/63MBcvkr/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>4.05</v>
+        <v>1.39</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>3.38</v>
+        <v>1.38</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.25</v>
+        <v>4.15</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.22</v>
+        <v>4.77</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>1.83</v>
+        <v>7.02</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2.22</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>1.39</v>
+        <v>3.13</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.38</v>
+        <v>3.43</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>4.15</v>
+        <v>3.01</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>4.77</v>
+        <v>3.28</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>7.02</v>
+        <v>2.22</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>8.369999999999999</v>
+        <v>2.17</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J145" t="n">
-        <v>3.13</v>
+        <v>4.05</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.01</v>
+        <v>3.25</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -13776,16 +13776,16 @@
         </is>
       </c>
       <c r="R145" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>19/08/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
         <v>2.22</v>
       </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>19/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T145" t="n">
-        <v>2.17</v>
-      </c>
       <c r="U145" t="inlineStr">
         <is>
           <t>20/08/2023 13:22</t>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
         </is>
       </c>
     </row>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J192" t="n">
-        <v>1.32</v>
+        <v>3.47</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>1.29</v>
+        <v>4.05</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>10/10/2023 13:06</t>
+          <t>10/10/2023 13:29</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>4.54</v>
+        <v>2.75</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>5.32</v>
+        <v>2.94</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>10/10/2023 13:06</t>
+          <t>10/10/2023 13:29</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>8.08</v>
+        <v>2.22</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>10.56</v>
+        <v>2.12</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>10/10/2023 13:06</t>
+          <t>10/10/2023 13:29</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-jiangxi-lushan/roBANnQ1/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-sichuan-jiuniu/hGh1pAXE/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>3.47</v>
+        <v>1.32</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>4.05</v>
+        <v>1.29</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>10/10/2023 13:29</t>
+          <t>10/10/2023 13:06</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>2.75</v>
+        <v>4.54</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2.94</v>
+        <v>5.32</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>10/10/2023 13:29</t>
+          <t>10/10/2023 13:06</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>2.22</v>
+        <v>8.08</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.12</v>
+        <v>10.56</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>10/10/2023 13:29</t>
+          <t>10/10/2023 13:06</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-sichuan-jiuniu/hGh1pAXE/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-jiangxi-lushan/roBANnQ1/</t>
         </is>
       </c>
     </row>
@@ -19314,6 +19314,374 @@
       <c r="V205" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-wuxi-wugou/OI7EiRvr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45217.5625</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Guangxi Pingguo Haliao</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="R206" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T206" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dongguan-guanlian/AZ9QlPO0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45217.5625</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>17/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>17/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>17/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T207" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-dandong-tengyue/CvSwbT1E/</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45217.5625</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Shanghai Jiading Huilong</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R208" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T208" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shanghai-jiading-huilong/hbaVmqv7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45217.5625</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>17/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:20</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>17/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:20</t>
+        </is>
+      </c>
+      <c r="R209" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>17/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T209" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:20</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-heilongjiang-ice-city/IyVod7WQ/</t>
         </is>
       </c>
     </row>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V209"/>
+  <dimension ref="A1:V211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,22 +1409,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.58</v>
+        <v>3.81</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,15 +1432,15 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.59</v>
+        <v>3.14</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.74</v>
+        <v>2.97</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,15 +1448,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>6.49</v>
+        <v>2.07</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>9.94</v>
+        <v>2.3</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.81</v>
+        <v>1.58</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.14</v>
+        <v>3.59</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2.97</v>
+        <v>4.74</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1540,15 +1540,15 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.07</v>
+        <v>6.49</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.3</v>
+        <v>9.94</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.28</v>
+        <v>5.64</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.81</v>
+        <v>5.74</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.09</v>
+        <v>3.65</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.79</v>
+        <v>3.31</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.31</v>
+        <v>1.63</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.91</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:38</t>
+          <t>07/05/2023 08:37</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Suzhou Dongwu</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.53</v>
+        <v>2.28</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:56</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:39</t>
+          <t>07/05/2023 08:56</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.31</v>
+        <v>3.31</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:38</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>5.64</v>
+        <v>3.53</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5.74</v>
+        <v>2.96</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:52</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.31</v>
+        <v>2.84</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:52</t>
+          <t>07/05/2023 08:39</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.63</v>
+        <v>2.31</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.72</v>
+        <v>2.72</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:37</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13/05/2023 09:03</t>
+          <t>13/05/2023 09:22</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.51</v>
+        <v>3.97</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.48</v>
+        <v>4.11</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>13/05/2023 09:08</t>
+          <t>13/05/2023 09:22</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>9.91</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.61</v>
+        <v>7.85</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>13/05/2023 09:08</t>
+          <t>13/05/2023 09:22</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jinan-xingzhou/boT5sDtf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-wuxi-wugou/SKX9tXe0/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Jinan Xingzhou</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>12/05/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>13/05/2023 09:03</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>12/05/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>13/05/2023 09:08</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
         <v>5</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Wuxi Wugou</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>12/05/2023 17:13</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>13/05/2023 09:22</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>12/05/2023 17:13</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>13/05/2023 09:22</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>12/05/2023 17:13</t>
-        </is>
-      </c>
       <c r="T27" t="n">
-        <v>7.85</v>
+        <v>5.61</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13/05/2023 09:22</t>
+          <t>13/05/2023 09:08</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-wuxi-wugou/SKX9tXe0/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jinan-xingzhou/boT5sDtf/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4.22</v>
+        <v>1.42</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.17</v>
+        <v>4.19</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.98</v>
+        <v>8.84</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dandong-tengyue/f94amu9p/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-wuxi-wugou/t2OOgsWG/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.42</v>
+        <v>4.22</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.19</v>
+        <v>3.17</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>8.1</v>
+        <v>2.3</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>8.84</v>
+        <v>1.98</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-wuxi-wugou/t2OOgsWG/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dandong-tengyue/f94amu9p/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.23</v>
+        <v>1.75</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>02/06/2023 17:12</t>
+          <t>02/06/2023 01:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.99</v>
+        <v>1.47</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>03/06/2023 13:19</t>
+          <t>03/06/2023 13:27</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.03</v>
+        <v>3.17</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>02/06/2023 17:12</t>
+          <t>02/06/2023 01:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.24</v>
+        <v>3.9</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>03/06/2023 13:17</t>
+          <t>03/06/2023 13:27</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.49</v>
+        <v>4.7</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>02/06/2023 17:12</t>
+          <t>02/06/2023 01:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.04</v>
+        <v>7.42</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>03/06/2023 13:19</t>
+          <t>03/06/2023 13:27</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-shijiazhuang-gongfu/QDxB5vVS/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-wuxi-wugou/MLuf9MV3/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>02/06/2023 01:42</t>
+          <t>02/06/2023 17:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.47</v>
+        <v>1.99</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>03/06/2023 13:27</t>
+          <t>03/06/2023 13:19</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.17</v>
+        <v>3.03</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>02/06/2023 01:42</t>
+          <t>02/06/2023 17:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.9</v>
+        <v>3.24</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>03/06/2023 13:27</t>
+          <t>03/06/2023 13:17</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.7</v>
+        <v>3.49</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>02/06/2023 01:42</t>
+          <t>02/06/2023 17:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>7.42</v>
+        <v>4.04</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>03/06/2023 13:27</t>
+          <t>03/06/2023 13:19</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-wuxi-wugou/MLuf9MV3/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-shijiazhuang-gongfu/QDxB5vVS/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
       <c r="J58" t="n">
-        <v>2.74</v>
+        <v>4.35</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.63</v>
+        <v>2.78</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>10/06/2023 08:59</t>
+          <t>10/06/2023 08:56</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>10/06/2023 08:55</t>
+          <t>10/06/2023 08:52</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.55</v>
+        <v>1.83</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.3</v>
+        <v>2.77</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>10/06/2023 08:59</t>
+          <t>10/06/2023 08:56</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jiangxi-lushan/MqOt0Ihj/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-sichuan-jiuniu/SMOx1bwp/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>1</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Sichuan Jiuniu</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
       <c r="J59" t="n">
-        <v>4.35</v>
+        <v>2.74</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.78</v>
+        <v>3.63</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>10/06/2023 08:56</t>
+          <t>10/06/2023 08:59</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>10/06/2023 08:52</t>
+          <t>10/06/2023 08:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>10/06/2023 08:56</t>
+          <t>10/06/2023 08:59</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-sichuan-jiuniu/SMOx1bwp/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jiangxi-lushan/MqOt0Ihj/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,14 +6469,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.39</v>
+        <v>2.9</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17/06/2023 09:28</t>
+          <t>17/06/2023 09:10</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.26</v>
+        <v>2.96</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.64</v>
+        <v>2.96</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>17/06/2023 09:28</t>
+          <t>17/06/2023 09:10</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.18</v>
+        <v>3.94</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>8.19</v>
+        <v>2.67</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>17/06/2023 09:28</t>
+          <t>17/06/2023 09:10</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-dandong-tengyue/Mc3FEH7q/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-guangxi-pingguo-haliao/4IGmJcaS/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.9</v>
+        <v>1.39</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>17/06/2023 09:10</t>
+          <t>17/06/2023 09:28</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2.96</v>
+        <v>3.26</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.96</v>
+        <v>4.64</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>17/06/2023 09:10</t>
+          <t>17/06/2023 09:28</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.94</v>
+        <v>4.18</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.67</v>
+        <v>8.19</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>17/06/2023 09:10</t>
+          <t>17/06/2023 09:28</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-guangxi-pingguo-haliao/4IGmJcaS/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-dandong-tengyue/Mc3FEH7q/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>4.23</v>
+        <v>2.18</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.86</v>
+        <v>2.48</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.23</v>
+        <v>3.04</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,32 +7052,32 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.09</v>
+        <v>2.7</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
+          <t>18/06/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>17/06/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
           <t>18/06/2023 13:30</t>
         </is>
       </c>
-      <c r="R72" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>17/06/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T72" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>18/06/2023 13:30</t>
-        </is>
-      </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shijiazhuang-gongfu/ULaBYxaF/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-shenyang-urban-fc/ncA6ZIq9/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.18</v>
+        <v>4.23</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.48</v>
+        <v>3.86</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.04</v>
+        <v>3.23</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.7</v>
+        <v>3.09</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>18/06/2023 13:28</t>
+          <t>18/06/2023 13:30</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.15</v>
+        <v>1.8</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.53</v>
+        <v>2.11</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-shenyang-urban-fc/ncA6ZIq9/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shijiazhuang-gongfu/ULaBYxaF/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.75</v>
+        <v>1.86</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>28/06/2023 12:51</t>
+          <t>28/06/2023 12:58</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.8</v>
+        <v>3.08</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.95</v>
+        <v>3.22</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>28/06/2023 12:51</t>
+          <t>28/06/2023 12:58</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.63</v>
+        <v>4.17</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.66</v>
+        <v>4.46</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>28/06/2023 12:51</t>
+          <t>28/06/2023 12:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-jiangxi-lushan/8CbFXdEL/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-wuxi-wugou/SGsbPYL1/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>1</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Wuxi Wugou</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
       <c r="J76" t="n">
-        <v>1.86</v>
+        <v>2.75</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/06/2023 12:58</t>
+          <t>28/06/2023 12:51</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.22</v>
+        <v>2.95</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>28/06/2023 12:58</t>
+          <t>28/06/2023 12:51</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.17</v>
+        <v>2.63</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.46</v>
+        <v>3.66</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>28/06/2023 12:58</t>
+          <t>28/06/2023 12:51</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-wuxi-wugou/SGsbPYL1/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-jiangxi-lushan/8CbFXdEL/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Shanghai Jiading Huilong</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Jinan Xingzhou</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
       <c r="J77" t="n">
-        <v>2.59</v>
+        <v>1.67</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.67</v>
+        <v>1.43</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:05</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.79</v>
+        <v>3.53</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>4.18</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.88</v>
+        <v>4.56</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.21</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.67</v>
+        <v>3.14</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.43</v>
+        <v>3.73</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.53</v>
+        <v>2.7</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.18</v>
+        <v>2.79</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.56</v>
+        <v>2.48</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>8.529999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>3.14</v>
+        <v>2.15</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.73</v>
+        <v>1.65</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2.79</v>
+        <v>3.68</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.48</v>
+        <v>3.48</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.3</v>
+        <v>5.57</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Jinan Xingzhou</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>27/06/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:05</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>27/06/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
         <v>3</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Dandong Tengyue</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:04</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S80" t="inlineStr">
         <is>
           <t>27/06/2023 01:42</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:21</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>27/06/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:21</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>27/06/2023 01:42</t>
-        </is>
-      </c>
       <c r="T80" t="n">
-        <v>5.57</v>
+        <v>2.21</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.89</v>
+        <v>4.26</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.86</v>
+        <v>3.27</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:13</t>
+          <t>01/07/2023 13:23</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.85</v>
+        <v>2.04</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.76</v>
+        <v>1.93</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4.26</v>
+        <v>2.89</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.27</v>
+        <v>2.86</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:23</t>
+          <t>01/07/2023 13:13</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.04</v>
+        <v>2.85</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.93</v>
+        <v>2.76</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>9.449999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>8.48</v>
+        <v>2.78</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:25</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.47</v>
+        <v>2.86</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.12</v>
+        <v>2.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:24</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.32</v>
+        <v>2.81</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.44</v>
+        <v>2.82</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:16</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-sichuan-jiuniu/KjYr8h8O/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jiangxi-lushan/OOvzAEwC/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Guangxi Pingguo Haliao</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>1</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
       <c r="J88" t="n">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.78</v>
+        <v>5.99</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>2.86</v>
+        <v>3.26</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2.92</v>
+        <v>3.47</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.81</v>
+        <v>1.74</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.82</v>
+        <v>1.66</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jiangxi-lushan/OOvzAEwC/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>4.75</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>5.99</v>
+        <v>8.48</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:25</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.26</v>
+        <v>4.47</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.47</v>
+        <v>4.12</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:24</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:16</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-sichuan-jiuniu/KjYr8h8O/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,14 +8677,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.32</v>
+        <v>5.73</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.86</v>
+        <v>7.67</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>08/07/2023 12:56</t>
+          <t>08/07/2023 12:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>2.82</v>
+        <v>3.68</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.23</v>
+        <v>3.57</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>08/07/2023 12:55</t>
+          <t>08/07/2023 12:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.16</v>
+        <v>1.53</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>08/07/2023 12:56</t>
+          <t>08/07/2023 12:58</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangxi-pingguo-haliao/z38hSegt/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-sichuan-jiuniu/hv3cRF8n/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>5.73</v>
+        <v>2.32</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>7.67</v>
+        <v>1.86</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>08/07/2023 12:58</t>
+          <t>08/07/2023 12:56</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.68</v>
+        <v>2.82</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.57</v>
+        <v>3.23</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>08/07/2023 12:58</t>
+          <t>08/07/2023 12:55</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.53</v>
+        <v>3.16</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>08/07/2023 12:58</t>
+          <t>08/07/2023 12:56</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-sichuan-jiuniu/hv3cRF8n/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangxi-pingguo-haliao/z38hSegt/</t>
         </is>
       </c>
     </row>
@@ -8853,62 +8853,62 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>2</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Yanbian Longding</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
       <c r="J92" t="n">
-        <v>3.76</v>
+        <v>2.01</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.4</v>
+        <v>2.09</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>2.94</v>
+        <v>3.21</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.26</v>
+        <v>3.11</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>07/07/2023 01:42</t>
+          <t>07/07/2023 17:12</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.99</v>
+        <v>3.89</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shijiazhuang-gongfu/YgMQWyoP/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>3.55</v>
+        <v>3.76</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.13</v>
+        <v>2.4</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.16</v>
+        <v>3.26</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.37</v>
+        <v>2.99</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>2.01</v>
+        <v>3.55</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>07/07/2023 17:12</t>
+          <t>07/07/2023 01:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.09</v>
+        <v>3.13</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.21</v>
+        <v>2.91</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>07/07/2023 17:12</t>
+          <t>07/07/2023 01:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>07/07/2023 17:12</t>
+          <t>07/07/2023 01:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.89</v>
+        <v>2.37</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shijiazhuang-gongfu/YgMQWyoP/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.51</v>
+        <v>6.95</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.88</v>
+        <v>6.13</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:22</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.73</v>
+        <v>4.04</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:22</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.77</v>
+        <v>1.41</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.34</v>
+        <v>1.65</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>15/07/2023 13:29</t>
+          <t>15/07/2023 13:11</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangzhou-fc/WUNWuFNu/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jinan-xingzhou/pYRzuZxn/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>6.95</v>
+        <v>2.56</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>6.13</v>
+        <v>2.03</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:22</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>4.04</v>
+        <v>2.74</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.49</v>
+        <v>3.04</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:22</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>1.41</v>
+        <v>2.89</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>1.65</v>
+        <v>4.01</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>15/07/2023 13:11</t>
+          <t>15/07/2023 13:28</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jinan-xingzhou/pYRzuZxn/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-nanjing-city/67dQKViU/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>2.56</v>
+        <v>1.62</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.03</v>
+        <v>1.55</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>2.74</v>
+        <v>3.49</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.04</v>
+        <v>4.12</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.89</v>
+        <v>5.05</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>4.01</v>
+        <v>5.85</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>15/07/2023 13:28</t>
+          <t>15/07/2023 13:21</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-nanjing-city/67dQKViU/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dandong-tengyue/SGcMLBxO/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G102" t="n">
+        <v>4</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
         <v>2</v>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Dandong Tengyue</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
       <c r="J102" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.49</v>
+        <v>3.73</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4.12</v>
+        <v>3.38</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>5.05</v>
+        <v>5.77</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>5.85</v>
+        <v>4.34</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>15/07/2023 13:21</t>
+          <t>15/07/2023 13:29</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-dandong-tengyue/SGcMLBxO/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangzhou-fc/WUNWuFNu/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.96</v>
+        <v>3.72</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:14</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4.24</v>
+        <v>3.41</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.94</v>
+        <v>1.97</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>9.25</v>
+        <v>4.63</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>3.72</v>
+        <v>1.96</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,48 +10072,48 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
+          <t>16/07/2023 13:14</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>15/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
           <t>16/07/2023 13:28</t>
         </is>
       </c>
-      <c r="N105" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O105" t="inlineStr">
+      <c r="R105" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S105" t="inlineStr">
         <is>
           <t>15/07/2023 01:42</t>
         </is>
       </c>
-      <c r="P105" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q105" t="inlineStr">
+      <c r="T105" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U105" t="inlineStr">
         <is>
           <t>16/07/2023 13:28</t>
         </is>
       </c>
-      <c r="R105" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>15/07/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T105" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>16/07/2023 13:28</t>
-        </is>
-      </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J107" t="n">
-        <v>3.1</v>
+        <v>1.77</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3.82</v>
+        <v>1.79</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:22</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>2.87</v>
+        <v>3.19</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.98</v>
+        <v>3.33</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>22/07/2023 12:45</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.32</v>
+        <v>4.68</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.18</v>
+        <v>5.06</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:22</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shijiazhuang-gongfu/pEqhZU6N/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.77</v>
+        <v>5.47</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.79</v>
+        <v>4.44</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.19</v>
+        <v>3.48</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.33</v>
+        <v>3.13</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.68</v>
+        <v>1.58</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>5.06</v>
+        <v>1.95</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangxi-pingguo-haliao/SxZdYlMT/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>5.47</v>
+        <v>2.26</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>4.44</v>
+        <v>1.71</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.48</v>
+        <v>3.01</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.13</v>
+        <v>3.41</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         </is>
       </c>
       <c r="R109" t="n">
-        <v>1.58</v>
+        <v>3.07</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>1.95</v>
+        <v>5.52</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangxi-pingguo-haliao/SxZdYlMT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shanghai-jiading-huilong/WAulzBiH/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>2.26</v>
+        <v>3.1</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.71</v>
+        <v>3.82</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:22</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.41</v>
+        <v>2.98</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 12:45</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.07</v>
+        <v>2.32</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>5.52</v>
+        <v>2.18</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:22</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shanghai-jiading-huilong/WAulzBiH/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shijiazhuang-gongfu/pEqhZU6N/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Dongguan Guanlian</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
       <c r="J119" t="n">
-        <v>4.36</v>
+        <v>2.81</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>6.83</v>
+        <v>2.93</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.22</v>
+        <v>2.99</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>1.54</v>
+        <v>2.71</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2.07</v>
+        <v>4.36</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.01</v>
+        <v>6.83</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.97</v>
+        <v>3.22</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.08</v>
+        <v>3.84</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.68</v>
+        <v>1.78</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.27</v>
+        <v>1.54</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>2.81</v>
+        <v>2.07</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.93</v>
+        <v>2.01</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.5</v>
+        <v>3.68</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.71</v>
+        <v>4.27</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.23</v>
+        <v>4.58</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.64</v>
+        <v>5.26</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:21</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>4.73</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>12.12</v>
+        <v>12.87</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>4.58</v>
+        <v>5.78</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>5.26</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>8.789999999999999</v>
+        <v>11.24</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>12.87</v>
+        <v>20.83</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:28</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-wuxi-wugou/63MBcvkr/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,14 +13001,14 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="n">
-        <v>1.2</v>
+        <v>1.72</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>5.78</v>
+        <v>3.23</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>8.119999999999999</v>
+        <v>4.64</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 13:21</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>11.24</v>
+        <v>4.73</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>20.83</v>
+        <v>12.12</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>13/08/2023 13:28</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-wuxi-wugou/63MBcvkr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J143" t="n">
-        <v>1.39</v>
+        <v>4.05</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.38</v>
+        <v>3.38</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>4.15</v>
+        <v>3.25</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>4.77</v>
+        <v>3.22</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>7.02</v>
+        <v>1.83</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>8.369999999999999</v>
+        <v>2.22</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>3.13</v>
+        <v>1.39</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.43</v>
+        <v>1.38</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.01</v>
+        <v>4.15</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.28</v>
+        <v>4.77</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.22</v>
+        <v>7.02</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.17</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>4.05</v>
+        <v>3.13</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.25</v>
+        <v>3.01</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         </is>
       </c>
       <c r="R145" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,7 +13784,7 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
         </is>
       </c>
     </row>
@@ -18237,22 +18237,22 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>3.17</v>
+        <v>2.53</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,15 +18260,15 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.14</v>
+        <v>2.95</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>14/10/2023 09:14</t>
+          <t>14/10/2023 09:25</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.04</v>
+        <v>2.79</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.26</v>
+        <v>2.86</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>14/10/2023 09:29</t>
+          <t>14/10/2023 09:17</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>2.19</v>
+        <v>2.88</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>3.54</v>
+        <v>2.71</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>14/10/2023 09:14</t>
+          <t>14/10/2023 09:25</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-heilongjiang-ice-city/Qs68rl2R/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-qingdao-west-coast/W6i5qUnL/</t>
         </is>
       </c>
     </row>
@@ -18329,22 +18329,22 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G195" t="n">
+        <v>2</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
         <v>1</v>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>Qingdao West Coast</t>
-        </is>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
       <c r="J195" t="n">
-        <v>2.53</v>
+        <v>3.17</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.95</v>
+        <v>2.14</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>14/10/2023 09:25</t>
+          <t>14/10/2023 09:14</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>2.79</v>
+        <v>3.04</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,15 +18368,15 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2.86</v>
+        <v>3.26</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>14/10/2023 09:17</t>
+          <t>14/10/2023 09:29</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.88</v>
+        <v>2.19</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.71</v>
+        <v>3.54</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>14/10/2023 09:25</t>
+          <t>14/10/2023 09:14</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-qingdao-west-coast/W6i5qUnL/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-heilongjiang-ice-city/Qs68rl2R/</t>
         </is>
       </c>
     </row>
@@ -19065,22 +19065,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G203" t="n">
+        <v>4</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Wuxi Wugou</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Jinan Xingzhou</t>
-        </is>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
       <c r="J203" t="n">
-        <v>1.74</v>
+        <v>1.12</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -19088,15 +19088,15 @@
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>18/10/2023 09:26</t>
+          <t>18/10/2023 09:25</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.28</v>
+        <v>7.32</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -19104,15 +19104,15 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.97</v>
+        <v>7.06</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>18/10/2023 09:28</t>
+          <t>18/10/2023 09:29</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>4.52</v>
+        <v>15</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
@@ -19120,16 +19120,16 @@
         </is>
       </c>
       <c r="T203" t="n">
-        <v>6.36</v>
+        <v>13.42</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>18/10/2023 09:28</t>
+          <t>18/10/2023 09:29</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jinan-xingzhou/296Ijofl/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-wuxi-wugou/OI7EiRvr/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>1.12</v>
+        <v>1.74</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>18/10/2023 09:25</t>
+          <t>18/10/2023 09:26</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>7.32</v>
+        <v>3.28</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,15 +19288,15 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>7.06</v>
+        <v>3.97</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>18/10/2023 09:29</t>
+          <t>18/10/2023 09:28</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>15</v>
+        <v>4.52</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>13.42</v>
+        <v>6.36</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>18/10/2023 09:29</t>
+          <t>18/10/2023 09:28</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-wuxi-wugou/OI7EiRvr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jinan-xingzhou/296Ijofl/</t>
         </is>
       </c>
     </row>
@@ -19682,6 +19682,190 @@
       <c r="V209" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-heilongjiang-ice-city/IyVod7WQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45220.39583333334</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Jinan Xingzhou</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>19/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:29</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>19/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:28</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>19/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="T210" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:29</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-jinan-xingzhou/K4iHBnWD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45220.39583333334</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Shenyang Urban FC</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>19/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:16</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>19/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:16</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>19/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="T211" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>21/10/2023 08:16</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shenyang-urban-fc/613Zn3gD/</t>
         </is>
       </c>
     </row>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V211"/>
+  <dimension ref="A1:V213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,22 +1409,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.81</v>
+        <v>1.58</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,15 +1432,15 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.14</v>
+        <v>3.59</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2.97</v>
+        <v>4.74</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,15 +1448,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.07</v>
+        <v>6.49</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.3</v>
+        <v>9.94</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.58</v>
+        <v>3.81</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.59</v>
+        <v>3.14</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.74</v>
+        <v>2.97</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1540,15 +1540,15 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.49</v>
+        <v>2.07</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>9.94</v>
+        <v>2.3</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Qingdao West Coast</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" t="n">
-        <v>5.64</v>
+        <v>2.28</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5.74</v>
+        <v>2.81</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:52</t>
+          <t>07/05/2023 08:56</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>3.09</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,32 +1808,32 @@
         </is>
       </c>
       <c r="P15" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>07/05/2023 08:56</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>3.31</v>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>07/05/2023 08:52</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S15" t="inlineStr">
         <is>
           <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>2.91</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:37</t>
+          <t>07/05/2023 08:38</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.28</v>
+        <v>3.53</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.81</v>
+        <v>2.96</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:39</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.31</v>
+        <v>2.31</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.91</v>
+        <v>2.72</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:38</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.53</v>
+        <v>5.64</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.96</v>
+        <v>5.74</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.84</v>
+        <v>3.31</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:39</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.31</v>
+        <v>1.63</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.72</v>
+        <v>1.72</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:37</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.51</v>
+        <v>2</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>20/05/2023 10:14</t>
+          <t>21/05/2023 00:01</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>21/05/2023 09:26</t>
+          <t>21/05/2023 09:19</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.97</v>
+        <v>3.29</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>20/05/2023 10:14</t>
+          <t>21/05/2023 00:01</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>21/05/2023 09:27</t>
+          <t>21/05/2023 09:19</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.95</v>
+        <v>3.86</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>20/05/2023 10:14</t>
+          <t>21/05/2023 00:01</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.27</v>
+        <v>3.37</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>21/05/2023 09:27</t>
+          <t>21/05/2023 09:22</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-sichuan-jiuniu/MHRiilAI/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-dongguan-guanlian/0nT3b5Ho/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>2.51</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>21/05/2023 00:01</t>
+          <t>20/05/2023 10:14</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>21/05/2023 09:19</t>
+          <t>21/05/2023 09:26</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.29</v>
+        <v>2.97</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>21/05/2023 00:01</t>
+          <t>20/05/2023 10:14</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>21/05/2023 09:19</t>
+          <t>21/05/2023 09:27</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.86</v>
+        <v>2.95</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>21/05/2023 00:01</t>
+          <t>20/05/2023 10:14</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.37</v>
+        <v>3.27</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>21/05/2023 09:22</t>
+          <t>21/05/2023 09:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-dongguan-guanlian/0nT3b5Ho/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-sichuan-jiuniu/MHRiilAI/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,63 +4261,63 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.48</v>
+        <v>2.56</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6.53</v>
+        <v>1.43</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:25</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>4.14</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:26</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.65</v>
+        <v>2.56</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.62</v>
+        <v>8.81</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:26</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-qingdao-west-coast/pzVFe314/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shanghai-jiading-huilong/6qWBdqnb/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.56</v>
+        <v>5.48</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.43</v>
+        <v>6.53</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:25</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.1</v>
+        <v>3.48</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.14</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:26</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.56</v>
+        <v>1.65</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>8.81</v>
+        <v>1.62</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:26</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shanghai-jiading-huilong/6qWBdqnb/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-qingdao-west-coast/pzVFe314/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Suzhou Dongwu</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>2.04</v>
+        <v>1.47</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.68</v>
+        <v>1.27</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:21</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.96</v>
+        <v>3.98</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.5</v>
+        <v>5.07</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:21</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.66</v>
+        <v>7.56</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.64</v>
+        <v>12.42</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:29</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-suzhou-dongwu/zPNSh1oN/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangzhou-fc/CMW7cPWi/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.47</v>
+        <v>2.04</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:21</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.98</v>
+        <v>2.96</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>5.07</v>
+        <v>3.5</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:21</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>7.56</v>
+        <v>3.66</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>12.42</v>
+        <v>5.64</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:29</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangzhou-fc/CMW7cPWi/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-suzhou-dongwu/zPNSh1oN/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.42</v>
+        <v>4.22</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.19</v>
+        <v>3.17</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>8.1</v>
+        <v>2.3</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.84</v>
+        <v>1.98</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-wuxi-wugou/t2OOgsWG/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dandong-tengyue/f94amu9p/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4.22</v>
+        <v>1.42</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.17</v>
+        <v>4.19</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.98</v>
+        <v>8.84</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dandong-tengyue/f94amu9p/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-wuxi-wugou/t2OOgsWG/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>1</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Sichuan Jiuniu</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
       <c r="J58" t="n">
-        <v>4.35</v>
+        <v>2.74</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.78</v>
+        <v>3.63</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>10/06/2023 08:56</t>
+          <t>10/06/2023 08:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>10/06/2023 08:52</t>
+          <t>10/06/2023 08:55</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>10/06/2023 08:56</t>
+          <t>10/06/2023 08:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-sichuan-jiuniu/SMOx1bwp/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jiangxi-lushan/MqOt0Ihj/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
       <c r="J59" t="n">
-        <v>2.74</v>
+        <v>4.35</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.63</v>
+        <v>2.78</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>10/06/2023 08:59</t>
+          <t>10/06/2023 08:56</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>10/06/2023 08:55</t>
+          <t>10/06/2023 08:52</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.55</v>
+        <v>1.83</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.3</v>
+        <v>2.77</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>10/06/2023 08:59</t>
+          <t>10/06/2023 08:56</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jiangxi-lushan/MqOt0Ihj/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-sichuan-jiuniu/SMOx1bwp/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.46</v>
+        <v>2.85</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>10/06/2023 17:41</t>
+          <t>09/06/2023 21:42</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.34</v>
+        <v>2.84</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>11/06/2023 09:14</t>
+          <t>11/06/2023 09:22</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.24</v>
+        <v>2.79</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>10/06/2023 17:41</t>
+          <t>09/06/2023 21:42</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.69</v>
+        <v>2.9</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>11/06/2023 09:14</t>
+          <t>11/06/2023 09:22</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>7.01</v>
+        <v>2.62</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>10/06/2023 17:41</t>
+          <t>09/06/2023 21:42</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>10.24</v>
+        <v>2.77</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>11/06/2023 09:14</t>
+          <t>11/06/2023 09:22</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shenyang-urban-fc/8jNvLJUF/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-suzhou-dongwu/jFCqKwpM/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.85</v>
+        <v>1.46</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>09/06/2023 21:42</t>
+          <t>10/06/2023 17:41</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.84</v>
+        <v>1.34</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>11/06/2023 09:22</t>
+          <t>11/06/2023 09:14</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.79</v>
+        <v>4.24</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>09/06/2023 21:42</t>
+          <t>10/06/2023 17:41</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2.9</v>
+        <v>4.69</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>11/06/2023 09:22</t>
+          <t>11/06/2023 09:14</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.62</v>
+        <v>7.01</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>09/06/2023 21:42</t>
+          <t>10/06/2023 17:41</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.77</v>
+        <v>10.24</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>11/06/2023 09:22</t>
+          <t>11/06/2023 09:14</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-suzhou-dongwu/jFCqKwpM/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shenyang-urban-fc/8jNvLJUF/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.18</v>
+        <v>2.69</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.35</v>
+        <v>3.63</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.34</v>
+        <v>2.69</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.28</v>
+        <v>2.26</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.69</v>
+        <v>2.18</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.63</v>
+        <v>2.35</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:56</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.69</v>
+        <v>3.34</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.26</v>
+        <v>3.28</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:59</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>2</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Shanghai Jiading Huilong</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
       <c r="J77" t="n">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.53</v>
+        <v>2.96</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.18</v>
+        <v>3.68</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.56</v>
+        <v>3.48</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>8.529999999999999</v>
+        <v>5.57</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.96</v>
+        <v>3.09</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.48</v>
+        <v>4.81</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>5.57</v>
+        <v>8.51</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.67</v>
+        <v>4.18</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>4.81</v>
+        <v>4.56</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>8.51</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4.26</v>
+        <v>2.89</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.27</v>
+        <v>2.86</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:23</t>
+          <t>01/07/2023 13:13</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.04</v>
+        <v>2.85</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.93</v>
+        <v>2.76</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.89</v>
+        <v>4.26</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.86</v>
+        <v>3.27</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:13</t>
+          <t>01/07/2023 13:23</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.85</v>
+        <v>2.04</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.76</v>
+        <v>1.93</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>1</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.6</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.78</v>
+        <v>8.48</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:25</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.86</v>
+        <v>4.47</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.92</v>
+        <v>4.12</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:24</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.81</v>
+        <v>1.32</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.82</v>
+        <v>1.44</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:16</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jiangxi-lushan/OOvzAEwC/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-sichuan-jiuniu/KjYr8h8O/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>2</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Guangxi Pingguo Haliao</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
       <c r="J88" t="n">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>5.99</v>
+        <v>2.78</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.26</v>
+        <v>2.86</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.47</v>
+        <v>2.92</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>1.74</v>
+        <v>2.81</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>1.66</v>
+        <v>2.82</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jiangxi-lushan/OOvzAEwC/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>9.449999999999999</v>
+        <v>4.75</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>8.48</v>
+        <v>5.99</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:25</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.47</v>
+        <v>3.26</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>4.12</v>
+        <v>3.47</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:24</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:16</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-sichuan-jiuniu/KjYr8h8O/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.4</v>
+        <v>3.13</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.26</v>
+        <v>3.16</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.99</v>
+        <v>2.37</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>3.55</v>
+        <v>3.76</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.13</v>
+        <v>2.4</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.16</v>
+        <v>3.26</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.37</v>
+        <v>2.99</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:11</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.41</v>
+        <v>4.37</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.4</v>
+        <v>4.48</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.24</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.97</v>
+        <v>8.76</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.34</v>
+        <v>2.79</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.39</v>
+        <v>3.53</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:29</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.37</v>
+        <v>2.89</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.48</v>
+        <v>3.09</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:29</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>8.130000000000001</v>
+        <v>2.58</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>8.76</v>
+        <v>2.22</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:21</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dongguan-guanlian/KjfENX7B/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.79</v>
+        <v>1.62</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>3.53</v>
+        <v>1.68</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:29</t>
+          <t>09/07/2023 13:11</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.89</v>
+        <v>3.41</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.09</v>
+        <v>3.4</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:29</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.58</v>
+        <v>5.24</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.22</v>
+        <v>5.97</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:21</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dongguan-guanlian/KjfENX7B/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>3.1</v>
+        <v>3.72</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.93</v>
+        <v>1.78</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.23</v>
+        <v>3.41</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:20</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.21</v>
+        <v>1.97</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.46</v>
+        <v>4.63</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.72</v>
+        <v>1.96</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,48 +9980,48 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
+          <t>16/07/2023 13:14</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>15/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
           <t>16/07/2023 13:28</t>
         </is>
       </c>
-      <c r="N104" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O104" t="inlineStr">
+      <c r="R104" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S104" t="inlineStr">
         <is>
           <t>15/07/2023 01:42</t>
         </is>
       </c>
-      <c r="P104" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q104" t="inlineStr">
+      <c r="T104" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U104" t="inlineStr">
         <is>
           <t>16/07/2023 13:28</t>
         </is>
       </c>
-      <c r="R104" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>15/07/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T104" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>16/07/2023 13:28</t>
-        </is>
-      </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.4</v>
+        <v>2.93</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:14</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>4.24</v>
+        <v>3.23</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:20</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.94</v>
+        <v>2.21</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>9.25</v>
+        <v>2.46</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.77</v>
+        <v>2.26</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.33</v>
+        <v>3.41</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.68</v>
+        <v>3.07</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>5.06</v>
+        <v>5.52</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shanghai-jiading-huilong/WAulzBiH/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>5.47</v>
+        <v>3.1</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>4.44</v>
+        <v>3.82</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:22</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.48</v>
+        <v>2.87</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.13</v>
+        <v>2.98</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 12:45</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>1.58</v>
+        <v>2.32</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:22</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangxi-pingguo-haliao/SxZdYlMT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shijiazhuang-gongfu/pEqhZU6N/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J109" t="n">
-        <v>2.26</v>
+        <v>1.77</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.01</v>
+        <v>3.19</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.41</v>
+        <v>3.33</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.07</v>
+        <v>4.68</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>5.52</v>
+        <v>5.06</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shanghai-jiading-huilong/WAulzBiH/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>3.1</v>
+        <v>5.47</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>3.82</v>
+        <v>4.44</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:22</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2.98</v>
+        <v>3.13</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>22/07/2023 12:45</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:22</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shijiazhuang-gongfu/pEqhZU6N/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangxi-pingguo-haliao/SxZdYlMT/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
         <v>1</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
       <c r="J118" t="n">
-        <v>1.53</v>
+        <v>4.36</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.41</v>
+        <v>6.83</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>30/07/2023 11:45</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.83</v>
+        <v>3.22</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4.33</v>
+        <v>3.84</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>30/07/2023 12:38</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>5.33</v>
+        <v>1.78</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>8.66</v>
+        <v>1.54</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>30/07/2023 12:38</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-jiangxi-lushan/OMa1sSbp/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>2.81</v>
+        <v>2.07</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.93</v>
+        <v>2.01</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.5</v>
+        <v>3.68</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.71</v>
+        <v>4.27</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Dongguan Guanlian</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
       <c r="J120" t="n">
-        <v>4.36</v>
+        <v>1.53</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>6.83</v>
+        <v>1.41</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 11:45</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.22</v>
+        <v>3.83</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.84</v>
+        <v>4.33</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 12:38</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>1.78</v>
+        <v>5.33</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>1.54</v>
+        <v>8.66</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 12:38</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-jiangxi-lushan/OMa1sSbp/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Shijiazhuang Gongfu</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
-        <v>2</v>
-      </c>
       <c r="J121" t="n">
-        <v>2.07</v>
+        <v>2.81</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.01</v>
+        <v>2.93</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>3.68</v>
+        <v>2.5</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>4.27</v>
+        <v>2.71</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.77</v>
+        <v>1.3</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.29</v>
+        <v>4.58</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.96</v>
+        <v>5.26</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.3</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.38</v>
+        <v>12.87</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>13/08/2023 13:21</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shenyang-urban-fc/SIAKeIJf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G134" t="n">
+        <v>3</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
         <v>2</v>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
       <c r="J134" t="n">
-        <v>1.3</v>
+        <v>1.72</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.58</v>
+        <v>3.23</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>5.26</v>
+        <v>4.64</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:21</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>8.789999999999999</v>
+        <v>4.73</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>12.87</v>
+        <v>12.12</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.32</v>
+        <v>1.62</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.23</v>
+        <v>3.29</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,32 +13032,32 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>4.64</v>
+        <v>3.96</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
+          <t>13/08/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>12/08/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
           <t>13/08/2023 13:21</t>
         </is>
       </c>
-      <c r="R137" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>12/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T137" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>13/08/2023 13:27</t>
-        </is>
-      </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shenyang-urban-fc/SIAKeIJf/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>5.23</v>
+        <v>1.39</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>5.93</v>
+        <v>1.38</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.32</v>
+        <v>4.15</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.43</v>
+        <v>4.77</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>1.64</v>
+        <v>7.02</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>1.68</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>4.05</v>
+        <v>3.13</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.25</v>
+        <v>3.01</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         </is>
       </c>
       <c r="R143" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J144" t="n">
-        <v>1.39</v>
+        <v>4.05</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.38</v>
+        <v>3.38</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>4.15</v>
+        <v>3.25</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>4.77</v>
+        <v>3.22</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>7.02</v>
+        <v>1.83</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>8.369999999999999</v>
+        <v>2.22</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,14 +13737,14 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>3.13</v>
+        <v>5.23</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,48 +13752,48 @@
         </is>
       </c>
       <c r="L145" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>20/08/2023 13:25</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>19/08/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
         <v>3.43</v>
       </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>20/08/2023 13:22</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="O145" t="inlineStr">
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>20/08/2023 13:25</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S145" t="inlineStr">
         <is>
           <t>19/08/2023 01:42</t>
         </is>
       </c>
-      <c r="P145" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Q145" t="inlineStr">
-        <is>
-          <t>20/08/2023 13:22</t>
-        </is>
-      </c>
-      <c r="R145" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>19/08/2023 01:42</t>
-        </is>
-      </c>
       <c r="T145" t="n">
-        <v>2.17</v>
+        <v>1.68</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G148" t="n">
+        <v>3</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Suzhou Dongwu</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Sichuan Jiuniu</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>2</v>
-      </c>
       <c r="J148" t="n">
-        <v>3.24</v>
+        <v>1.88</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>3.03</v>
+        <v>1.53</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>26/08/2023 13:24</t>
+          <t>26/08/2023 12:52</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>2.82</v>
+        <v>3.32</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2.82</v>
+        <v>4.22</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>26/08/2023 13:24</t>
+          <t>26/08/2023 13:00</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.28</v>
+        <v>3.72</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.68</v>
+        <v>6.01</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>26/08/2023 13:24</t>
+          <t>26/08/2023 13:00</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-sichuan-jiuniu/MF426ZXC/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-suzhou-dongwu/viFc7FI6/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>26/08/2023 12:52</t>
+          <t>26/08/2023 13:24</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.32</v>
+        <v>3.41</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>26/08/2023 13:00</t>
+          <t>26/08/2023 13:24</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.72</v>
+        <v>5.24</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>6.01</v>
+        <v>7.95</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>26/08/2023 13:00</t>
+          <t>26/08/2023 13:24</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-suzhou-dongwu/viFc7FI6/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-guangzhou-fc/ngdlUxQJ/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J150" t="n">
-        <v>1.62</v>
+        <v>3.24</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.45</v>
+        <v>3.03</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.41</v>
+        <v>2.82</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4.12</v>
+        <v>2.82</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="R150" t="n">
-        <v>5.24</v>
+        <v>2.28</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>7.95</v>
+        <v>2.68</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-guangzhou-fc/ngdlUxQJ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-sichuan-jiuniu/MF426ZXC/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>2.32</v>
+        <v>1.82</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.16</v>
+        <v>3.28</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.09</v>
+        <v>4.15</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>3.62</v>
+        <v>4.88</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shanghai-jiading-huilong/viyTMfIg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-dandong-tengyue/E9TuKh2C/</t>
         </is>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -14749,14 +14749,14 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J156" t="n">
-        <v>2.08</v>
+        <v>4.07</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.09</v>
+        <v>4.33</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:11</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.06</v>
+        <v>3.37</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:06</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>3.96</v>
+        <v>1.88</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:06</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-qingdao-west-coast/hfuXLEXa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-jinan-xingzhou/zJUyLYn6/</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14841,14 +14841,14 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J157" t="n">
-        <v>4.07</v>
+        <v>2.08</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>4.33</v>
+        <v>2.09</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:11</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.37</v>
+        <v>3.06</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:06</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>1.88</v>
+        <v>3.96</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:06</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-jinan-xingzhou/zJUyLYn6/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-qingdao-west-coast/hfuXLEXa/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>1.82</v>
+        <v>2.32</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.21</v>
+        <v>2.88</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.28</v>
+        <v>3.16</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>4.15</v>
+        <v>3.09</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>4.88</v>
+        <v>3.62</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-dandong-tengyue/E9TuKh2C/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shanghai-jiading-huilong/viyTMfIg/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>7.87</v>
+        <v>1.57</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>7.07</v>
+        <v>1.39</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>4.58</v>
+        <v>3.58</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>4.19</v>
+        <v>4.71</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>1.34</v>
+        <v>5.39</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>1.48</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shijiazhuang-gongfu/8WlFYiH5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I165" t="n">
         <v>2</v>
       </c>
       <c r="J165" t="n">
-        <v>5.13</v>
+        <v>7.87</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>7.25</v>
+        <v>7.07</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.48</v>
+        <v>4.58</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4.05</v>
+        <v>4.19</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-sichuan-jiuniu/C4e6zEng/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shijiazhuang-gongfu/8WlFYiH5/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>2</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Dongguan Guanlian</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
       <c r="J166" t="n">
-        <v>1.57</v>
+        <v>5.13</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.39</v>
+        <v>7.25</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.58</v>
+        <v>3.48</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4.71</v>
+        <v>4.05</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>5.39</v>
+        <v>1.61</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>8.130000000000001</v>
+        <v>1.49</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-sichuan-jiuniu/C4e6zEng/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>3.66</v>
+        <v>2.14</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>3.05</v>
+        <v>1.93</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
@@ -16152,31 +16152,31 @@
         </is>
       </c>
       <c r="N171" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>12/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
         <v>3.1</v>
       </c>
-      <c r="O171" t="inlineStr">
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>13/09/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S171" t="inlineStr">
         <is>
           <t>12/09/2023 01:42</t>
         </is>
       </c>
-      <c r="P171" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q171" t="inlineStr">
-        <is>
-          <t>13/09/2023 13:22</t>
-        </is>
-      </c>
-      <c r="R171" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="S171" t="inlineStr">
-        <is>
-          <t>12/09/2023 01:42</t>
-        </is>
-      </c>
       <c r="T171" t="n">
-        <v>2.33</v>
+        <v>4.61</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-suzhou-dongwu/dQKfX2xT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-guangxi-pingguo-haliao/nZBtxRNc/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J172" t="n">
-        <v>2.14</v>
+        <v>5.16</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1.93</v>
+        <v>10.32</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>13/09/2023 13:21</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>2.87</v>
+        <v>3.5</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.1</v>
+        <v>4.49</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>13/09/2023 13:23</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>3.51</v>
+        <v>1.61</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>4.61</v>
+        <v>1.36</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>13/09/2023 13:21</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-guangxi-pingguo-haliao/nZBtxRNc/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-sichuan-jiuniu/Uc1oyow4/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G177" t="n">
+        <v>4</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Suzhou Dongwu</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
         <v>1</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Sichuan Jiuniu</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
-        <v>3</v>
-      </c>
       <c r="J177" t="n">
-        <v>5.16</v>
+        <v>3.66</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>10.32</v>
+        <v>3.05</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:21</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>4.49</v>
+        <v>3.34</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:22</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>1.36</v>
+        <v>2.33</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:21</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-sichuan-jiuniu/Uc1oyow4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-suzhou-dongwu/dQKfX2xT/</t>
         </is>
       </c>
     </row>
@@ -18237,22 +18237,22 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G194" t="n">
+        <v>2</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
         <v>1</v>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>Qingdao West Coast</t>
-        </is>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
       <c r="J194" t="n">
-        <v>2.53</v>
+        <v>3.17</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,15 +18260,15 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.95</v>
+        <v>2.14</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>14/10/2023 09:25</t>
+          <t>14/10/2023 09:14</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>2.79</v>
+        <v>3.04</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2.86</v>
+        <v>3.26</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>14/10/2023 09:17</t>
+          <t>14/10/2023 09:29</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>2.88</v>
+        <v>2.19</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>2.71</v>
+        <v>3.54</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>14/10/2023 09:25</t>
+          <t>14/10/2023 09:14</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-qingdao-west-coast/W6i5qUnL/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-heilongjiang-ice-city/Qs68rl2R/</t>
         </is>
       </c>
     </row>
@@ -18329,22 +18329,22 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>3.17</v>
+        <v>2.53</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.14</v>
+        <v>2.95</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>14/10/2023 09:14</t>
+          <t>14/10/2023 09:25</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.04</v>
+        <v>2.79</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,15 +18368,15 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.26</v>
+        <v>2.86</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>14/10/2023 09:29</t>
+          <t>14/10/2023 09:17</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.19</v>
+        <v>2.88</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>3.54</v>
+        <v>2.71</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>14/10/2023 09:14</t>
+          <t>14/10/2023 09:25</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-heilongjiang-ice-city/Qs68rl2R/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-qingdao-west-coast/W6i5qUnL/</t>
         </is>
       </c>
     </row>
@@ -19065,22 +19065,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>1.12</v>
+        <v>1.74</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -19088,15 +19088,15 @@
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>18/10/2023 09:25</t>
+          <t>18/10/2023 09:26</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>7.32</v>
+        <v>3.28</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -19104,15 +19104,15 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>7.06</v>
+        <v>3.97</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>18/10/2023 09:29</t>
+          <t>18/10/2023 09:28</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>15</v>
+        <v>4.52</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
@@ -19120,16 +19120,16 @@
         </is>
       </c>
       <c r="T203" t="n">
-        <v>13.42</v>
+        <v>6.36</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>18/10/2023 09:29</t>
+          <t>18/10/2023 09:28</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-wuxi-wugou/OI7EiRvr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jinan-xingzhou/296Ijofl/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G205" t="n">
+        <v>4</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Wuxi Wugou</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Jinan Xingzhou</t>
-        </is>
-      </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
       <c r="J205" t="n">
-        <v>1.74</v>
+        <v>1.12</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>18/10/2023 09:26</t>
+          <t>18/10/2023 09:25</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.28</v>
+        <v>7.32</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,15 +19288,15 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.97</v>
+        <v>7.06</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>18/10/2023 09:28</t>
+          <t>18/10/2023 09:29</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>4.52</v>
+        <v>15</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>6.36</v>
+        <v>13.42</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>18/10/2023 09:28</t>
+          <t>18/10/2023 09:29</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jinan-xingzhou/296Ijofl/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-wuxi-wugou/OI7EiRvr/</t>
         </is>
       </c>
     </row>
@@ -19866,6 +19866,190 @@
       <c r="V211" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shenyang-urban-fc/613Zn3gD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45220.5625</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Guangxi Pingguo Haliao</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Nanjing City</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T212" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:26</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-nanjing-city/xtWsgvGn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45220.5625</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Suzhou Dongwu</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:22</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:21</t>
+        </is>
+      </c>
+      <c r="R213" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T213" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:22</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jiangxi-lushan/dUEpfK0t/</t>
         </is>
       </c>
     </row>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V213"/>
+  <dimension ref="A1:V215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,22 +1409,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.58</v>
+        <v>3.81</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,15 +1432,15 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.59</v>
+        <v>3.14</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.74</v>
+        <v>2.97</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,15 +1448,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>6.49</v>
+        <v>2.07</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>9.94</v>
+        <v>2.3</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.81</v>
+        <v>1.58</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.14</v>
+        <v>3.59</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2.97</v>
+        <v>4.74</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1540,15 +1540,15 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.07</v>
+        <v>6.49</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.3</v>
+        <v>9.94</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.28</v>
+        <v>5.64</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.81</v>
+        <v>5.74</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.09</v>
+        <v>3.65</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2.79</v>
+        <v>3.31</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.31</v>
+        <v>1.63</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.91</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:38</t>
+          <t>07/05/2023 08:37</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Suzhou Dongwu</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.53</v>
+        <v>2.28</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.96</v>
+        <v>2.81</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:56</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>3.09</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:39</t>
+          <t>07/05/2023 08:56</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.31</v>
+        <v>3.31</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:38</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>5.64</v>
+        <v>3.53</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5.74</v>
+        <v>2.96</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:52</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.31</v>
+        <v>2.84</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:52</t>
+          <t>07/05/2023 08:39</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>1.63</v>
+        <v>2.31</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.72</v>
+        <v>2.72</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:37</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>2.51</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>21/05/2023 00:01</t>
+          <t>20/05/2023 10:14</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>21/05/2023 09:19</t>
+          <t>21/05/2023 09:26</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.29</v>
+        <v>2.97</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>21/05/2023 00:01</t>
+          <t>20/05/2023 10:14</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>21/05/2023 09:19</t>
+          <t>21/05/2023 09:27</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.86</v>
+        <v>2.95</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>21/05/2023 00:01</t>
+          <t>20/05/2023 10:14</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.37</v>
+        <v>3.27</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>21/05/2023 09:22</t>
+          <t>21/05/2023 09:27</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-dongguan-guanlian/0nT3b5Ho/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-sichuan-jiuniu/MHRiilAI/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.51</v>
+        <v>2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>20/05/2023 10:14</t>
+          <t>21/05/2023 00:01</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>21/05/2023 09:26</t>
+          <t>21/05/2023 09:19</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.97</v>
+        <v>3.29</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>20/05/2023 10:14</t>
+          <t>21/05/2023 00:01</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>21/05/2023 09:27</t>
+          <t>21/05/2023 09:19</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.95</v>
+        <v>3.86</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>20/05/2023 10:14</t>
+          <t>21/05/2023 00:01</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.27</v>
+        <v>3.37</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>21/05/2023 09:27</t>
+          <t>21/05/2023 09:22</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-sichuan-jiuniu/MHRiilAI/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-dongguan-guanlian/0nT3b5Ho/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,63 +4261,63 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.56</v>
+        <v>5.48</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.43</v>
+        <v>6.53</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:25</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.1</v>
+        <v>3.48</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.14</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:26</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.56</v>
+        <v>1.65</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>25/05/2023 21:43</t>
+          <t>27/05/2023 05:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>8.81</v>
+        <v>1.62</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>27/05/2023 09:26</t>
+          <t>27/05/2023 09:06</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shanghai-jiading-huilong/6qWBdqnb/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-qingdao-west-coast/pzVFe314/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.48</v>
+        <v>2.56</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>6.53</v>
+        <v>1.43</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:25</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>4.14</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:26</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.65</v>
+        <v>2.56</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>27/05/2023 05:12</t>
+          <t>25/05/2023 21:43</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.62</v>
+        <v>8.81</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>27/05/2023 09:06</t>
+          <t>27/05/2023 09:26</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-qingdao-west-coast/pzVFe314/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shanghai-jiading-huilong/6qWBdqnb/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.47</v>
+        <v>2.04</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:21</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.98</v>
+        <v>2.96</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>5.07</v>
+        <v>3.5</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:21</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>7.56</v>
+        <v>3.66</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>27/05/2023 21:50</t>
+          <t>26/05/2023 21:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>12.42</v>
+        <v>5.64</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>28/05/2023 09:27</t>
+          <t>28/05/2023 09:29</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangzhou-fc/CMW7cPWi/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-suzhou-dongwu/zPNSh1oN/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Suzhou Dongwu</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
       <c r="J47" t="n">
-        <v>2.04</v>
+        <v>1.47</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.68</v>
+        <v>1.27</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:21</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.96</v>
+        <v>3.98</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.5</v>
+        <v>5.07</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:21</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.66</v>
+        <v>7.56</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>26/05/2023 21:42</t>
+          <t>27/05/2023 21:50</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>5.64</v>
+        <v>12.42</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>28/05/2023 09:29</t>
+          <t>28/05/2023 09:27</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-suzhou-dongwu/zPNSh1oN/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-guangzhou-fc/CMW7cPWi/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4.22</v>
+        <v>1.42</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.02</v>
+        <v>4.14</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.17</v>
+        <v>4.19</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.98</v>
+        <v>8.84</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>28/05/2023 13:29</t>
+          <t>28/05/2023 13:13</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dandong-tengyue/f94amu9p/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-wuxi-wugou/t2OOgsWG/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.42</v>
+        <v>4.22</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.14</v>
+        <v>3.02</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.19</v>
+        <v>3.17</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>8.1</v>
+        <v>2.3</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>8.84</v>
+        <v>1.98</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>28/05/2023 13:13</t>
+          <t>28/05/2023 13:29</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-wuxi-wugou/t2OOgsWG/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dandong-tengyue/f94amu9p/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
       <c r="J58" t="n">
-        <v>2.74</v>
+        <v>4.35</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.63</v>
+        <v>2.78</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>10/06/2023 08:59</t>
+          <t>10/06/2023 08:56</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>10/06/2023 08:55</t>
+          <t>10/06/2023 08:52</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.55</v>
+        <v>1.83</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.3</v>
+        <v>2.77</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>10/06/2023 08:59</t>
+          <t>10/06/2023 08:56</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jiangxi-lushan/MqOt0Ihj/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-sichuan-jiuniu/SMOx1bwp/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>1</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Sichuan Jiuniu</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
       <c r="J59" t="n">
-        <v>4.35</v>
+        <v>2.74</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.78</v>
+        <v>3.63</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>10/06/2023 08:56</t>
+          <t>10/06/2023 08:59</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>10/06/2023 08:52</t>
+          <t>10/06/2023 08:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>10/06/2023 08:56</t>
+          <t>10/06/2023 08:59</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-sichuan-jiuniu/SMOx1bwp/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-jiangxi-lushan/MqOt0Ihj/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.85</v>
+        <v>1.46</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>09/06/2023 21:42</t>
+          <t>10/06/2023 17:41</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.84</v>
+        <v>1.34</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>11/06/2023 09:22</t>
+          <t>11/06/2023 09:14</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>2.79</v>
+        <v>4.24</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>09/06/2023 21:42</t>
+          <t>10/06/2023 17:41</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.9</v>
+        <v>4.69</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>11/06/2023 09:22</t>
+          <t>11/06/2023 09:14</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.62</v>
+        <v>7.01</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>09/06/2023 21:42</t>
+          <t>10/06/2023 17:41</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.77</v>
+        <v>10.24</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>11/06/2023 09:22</t>
+          <t>11/06/2023 09:14</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-suzhou-dongwu/jFCqKwpM/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shenyang-urban-fc/8jNvLJUF/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.46</v>
+        <v>2.85</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>10/06/2023 17:41</t>
+          <t>09/06/2023 21:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.34</v>
+        <v>2.84</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>11/06/2023 09:14</t>
+          <t>11/06/2023 09:22</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.24</v>
+        <v>2.79</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>10/06/2023 17:41</t>
+          <t>09/06/2023 21:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.69</v>
+        <v>2.9</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>11/06/2023 09:14</t>
+          <t>11/06/2023 09:22</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>7.01</v>
+        <v>2.62</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>10/06/2023 17:41</t>
+          <t>09/06/2023 21:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>10.24</v>
+        <v>2.77</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>11/06/2023 09:14</t>
+          <t>11/06/2023 09:22</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shenyang-urban-fc/8jNvLJUF/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-suzhou-dongwu/jFCqKwpM/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.69</v>
+        <v>2.18</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.63</v>
+        <v>2.35</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:56</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.69</v>
+        <v>3.34</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.26</v>
+        <v>3.28</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>18/06/2023 08:59</t>
+          <t>18/06/2023 08:51</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.18</v>
+        <v>2.69</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.35</v>
+        <v>3.63</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:56</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.34</v>
+        <v>2.69</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.28</v>
+        <v>2.26</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>18/06/2023 08:51</t>
+          <t>18/06/2023 08:59</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-heilongjiang-ice-city/KjIKBFi2/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-guangzhou-fc/t0JGCexd/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.96</v>
+        <v>3.53</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.68</v>
+        <v>4.18</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.48</v>
+        <v>4.56</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>5.57</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>2</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Shanghai Jiading Huilong</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
       <c r="J81" t="n">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.53</v>
+        <v>2.96</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4.18</v>
+        <v>3.68</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>4.56</v>
+        <v>3.48</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>8.529999999999999</v>
+        <v>5.57</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.66</v>
+        <v>3.89</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.89</v>
+        <v>4.26</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.86</v>
+        <v>3.27</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:13</t>
+          <t>01/07/2023 13:23</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.85</v>
+        <v>2.04</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>30/06/2023 16:42</t>
+          <t>01/07/2023 06:41</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.76</v>
+        <v>1.93</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>01/07/2023 13:28</t>
+          <t>01/07/2023 13:22</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4.26</v>
+        <v>2.89</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.27</v>
+        <v>2.86</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:23</t>
+          <t>01/07/2023 13:13</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.04</v>
+        <v>2.85</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>01/07/2023 06:41</t>
+          <t>30/06/2023 16:42</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.93</v>
+        <v>2.76</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/07/2023 13:22</t>
+          <t>01/07/2023 13:28</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-qingdao-west-coast/C6SOCGgg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-shijiazhuang-gongfu/GvZFExPt/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>9.449999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>8.48</v>
+        <v>2.78</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:25</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>4.47</v>
+        <v>2.86</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.12</v>
+        <v>2.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:24</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.32</v>
+        <v>2.81</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.44</v>
+        <v>2.82</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:16</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-sichuan-jiuniu/KjYr8h8O/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jiangxi-lushan/OOvzAEwC/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Guangxi Pingguo Haliao</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>1</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
       <c r="J88" t="n">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.78</v>
+        <v>5.99</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>2.86</v>
+        <v>3.26</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2.92</v>
+        <v>3.47</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.81</v>
+        <v>1.74</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.82</v>
+        <v>1.66</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jiangxi-lushan/OOvzAEwC/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>4.75</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>5.99</v>
+        <v>8.48</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:25</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.26</v>
+        <v>4.47</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.47</v>
+        <v>4.12</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:24</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:16</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-sichuan-jiuniu/KjYr8h8O/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>3.55</v>
+        <v>3.76</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.13</v>
+        <v>2.4</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.16</v>
+        <v>3.26</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.37</v>
+        <v>2.99</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.4</v>
+        <v>3.13</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.26</v>
+        <v>3.16</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.99</v>
+        <v>2.37</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:11</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.37</v>
+        <v>3.41</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.48</v>
+        <v>3.4</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>8.130000000000001</v>
+        <v>5.24</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>08/07/2023 06:12</t>
+          <t>08/07/2023 01:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>8.76</v>
+        <v>5.97</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>09/07/2023 13:22</t>
+          <t>09/07/2023 13:25</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>2.79</v>
+        <v>1.34</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3.53</v>
+        <v>1.39</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:29</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.89</v>
+        <v>4.37</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.09</v>
+        <v>4.48</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:29</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.58</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>08/07/2023 01:42</t>
+          <t>08/07/2023 06:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.22</v>
+        <v>8.76</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/07/2023 13:21</t>
+          <t>09/07/2023 13:22</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dongguan-guanlian/KjfENX7B/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-wuxi-wugou/rw7fascB/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.62</v>
+        <v>2.79</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.68</v>
+        <v>3.53</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:11</t>
+          <t>09/07/2023 13:29</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.41</v>
+        <v>2.89</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:29</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.24</v>
+        <v>2.58</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>5.97</v>
+        <v>2.22</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>09/07/2023 13:25</t>
+          <t>09/07/2023 13:21</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dandong-tengyue/xS49ODh5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dongguan-guanlian/KjfENX7B/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>3.72</v>
+        <v>3.1</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.78</v>
+        <v>2.93</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.41</v>
+        <v>3.23</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:20</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.97</v>
+        <v>2.21</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.63</v>
+        <v>2.46</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.96</v>
+        <v>3.72</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>16/07/2023 13:14</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>4.24</v>
+        <v>3.41</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.94</v>
+        <v>1.97</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>9.25</v>
+        <v>4.63</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>3.1</v>
+        <v>1.96</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.93</v>
+        <v>1.4</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:14</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.23</v>
+        <v>4.24</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:20</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.21</v>
+        <v>3.94</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.46</v>
+        <v>9.25</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J107" t="n">
-        <v>2.26</v>
+        <v>1.77</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.01</v>
+        <v>3.19</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.41</v>
+        <v>3.33</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.07</v>
+        <v>4.68</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>5.52</v>
+        <v>5.06</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:21</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shanghai-jiading-huilong/WAulzBiH/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>3.1</v>
+        <v>5.47</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.82</v>
+        <v>4.44</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:22</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2.98</v>
+        <v>3.13</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>22/07/2023 12:45</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>22/07/2023 13:22</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shijiazhuang-gongfu/pEqhZU6N/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangxi-pingguo-haliao/SxZdYlMT/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.77</v>
+        <v>2.26</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.33</v>
+        <v>3.41</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>4.68</v>
+        <v>3.07</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>5.06</v>
+        <v>5.52</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>22/07/2023 13:21</t>
+          <t>22/07/2023 13:24</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-dongguan-guanlian/UoLOT8Up/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shanghai-jiading-huilong/WAulzBiH/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>5.47</v>
+        <v>3.1</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>4.44</v>
+        <v>3.82</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:22</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.48</v>
+        <v>2.87</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.13</v>
+        <v>2.98</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 12:45</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>1.58</v>
+        <v>2.32</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>22/07/2023 13:24</t>
+          <t>22/07/2023 13:22</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-guangxi-pingguo-haliao/SxZdYlMT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shijiazhuang-gongfu/pEqhZU6N/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Dongguan Guanlian</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
       <c r="J118" t="n">
-        <v>4.36</v>
+        <v>1.53</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>6.83</v>
+        <v>1.41</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 11:45</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.22</v>
+        <v>3.83</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.84</v>
+        <v>4.33</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 12:38</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>1.78</v>
+        <v>5.33</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>1.54</v>
+        <v>8.66</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 12:38</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-jiangxi-lushan/OMa1sSbp/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Shijiazhuang Gongfu</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>2</v>
-      </c>
       <c r="J119" t="n">
-        <v>2.07</v>
+        <v>2.81</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.01</v>
+        <v>2.93</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.68</v>
+        <v>2.5</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.27</v>
+        <v>2.71</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
       <c r="J120" t="n">
-        <v>1.53</v>
+        <v>4.36</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.41</v>
+        <v>6.83</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>30/07/2023 11:45</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.83</v>
+        <v>3.22</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.33</v>
+        <v>3.84</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>30/07/2023 12:38</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>5.33</v>
+        <v>1.78</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>8.66</v>
+        <v>1.54</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>30/07/2023 12:38</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-jiangxi-lushan/OMa1sSbp/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>2.81</v>
+        <v>2.07</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.93</v>
+        <v>2.01</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.5</v>
+        <v>3.68</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.71</v>
+        <v>4.27</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.3</v>
+        <v>1.77</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>4.58</v>
+        <v>3.29</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>5.26</v>
+        <v>3.96</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>8.789999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>12.87</v>
+        <v>5.38</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:21</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shenyang-urban-fc/SIAKeIJf/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.23</v>
+        <v>4.58</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.64</v>
+        <v>5.26</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:21</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>4.73</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>12.12</v>
+        <v>12.87</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.62</v>
+        <v>1.32</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.29</v>
+        <v>3.23</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,32 +13032,32 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.96</v>
+        <v>4.64</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
+          <t>13/08/2023 13:21</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>12/08/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
           <t>13/08/2023 13:27</t>
         </is>
       </c>
-      <c r="R137" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>12/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T137" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>13/08/2023 13:21</t>
-        </is>
-      </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shenyang-urban-fc/SIAKeIJf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>1.39</v>
+        <v>5.23</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.38</v>
+        <v>5.93</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>4.15</v>
+        <v>3.32</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>4.77</v>
+        <v>3.43</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>7.02</v>
+        <v>1.64</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>8.369999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J143" t="n">
-        <v>3.13</v>
+        <v>4.05</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.01</v>
+        <v>3.25</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -13592,16 +13592,16 @@
         </is>
       </c>
       <c r="R143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>19/08/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
         <v>2.22</v>
       </c>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>19/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T143" t="n">
-        <v>2.17</v>
-      </c>
       <c r="U143" t="inlineStr">
         <is>
           <t>20/08/2023 13:22</t>
@@ -13609,7 +13609,7 @@
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>4.05</v>
+        <v>1.39</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3.38</v>
+        <v>1.38</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.25</v>
+        <v>4.15</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.22</v>
+        <v>4.77</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>1.83</v>
+        <v>7.02</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.22</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,14 +13737,14 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>5.23</v>
+        <v>3.13</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>5.93</v>
+        <v>3.43</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.32</v>
+        <v>3.01</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.43</v>
+        <v>3.28</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>1.64</v>
+        <v>2.22</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>1.68</v>
+        <v>2.17</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J148" t="n">
-        <v>1.88</v>
+        <v>3.24</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.53</v>
+        <v>3.03</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>26/08/2023 12:52</t>
+          <t>26/08/2023 13:24</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.32</v>
+        <v>2.82</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>4.22</v>
+        <v>2.82</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>26/08/2023 13:00</t>
+          <t>26/08/2023 13:24</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.72</v>
+        <v>2.28</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>6.01</v>
+        <v>2.68</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>26/08/2023 13:00</t>
+          <t>26/08/2023 13:24</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-suzhou-dongwu/viFc7FI6/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-sichuan-jiuniu/MF426ZXC/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>26/08/2023 13:24</t>
+          <t>26/08/2023 12:52</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.41</v>
+        <v>3.32</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>4.12</v>
+        <v>4.22</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>26/08/2023 13:24</t>
+          <t>26/08/2023 13:00</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>5.24</v>
+        <v>3.72</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>7.95</v>
+        <v>6.01</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>26/08/2023 13:24</t>
+          <t>26/08/2023 13:00</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-guangzhou-fc/ngdlUxQJ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-suzhou-dongwu/viFc7FI6/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Sichuan Jiuniu</t>
-        </is>
-      </c>
-      <c r="I150" t="n">
-        <v>2</v>
-      </c>
       <c r="J150" t="n">
-        <v>3.24</v>
+        <v>1.62</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>3.03</v>
+        <v>1.45</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
@@ -14220,7 +14220,7 @@
         </is>
       </c>
       <c r="N150" t="n">
-        <v>2.82</v>
+        <v>3.41</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2.82</v>
+        <v>4.12</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.28</v>
+        <v>5.24</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.68</v>
+        <v>7.95</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-sichuan-jiuniu/MF426ZXC/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-guangzhou-fc/ngdlUxQJ/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>1.82</v>
+        <v>2.32</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.21</v>
+        <v>2.88</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.28</v>
+        <v>3.16</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>4.15</v>
+        <v>3.09</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>4.88</v>
+        <v>3.62</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-dandong-tengyue/E9TuKh2C/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shanghai-jiading-huilong/viyTMfIg/</t>
         </is>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -14749,14 +14749,14 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J156" t="n">
-        <v>4.07</v>
+        <v>2.08</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>4.33</v>
+        <v>2.09</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:11</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.37</v>
+        <v>3.06</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:06</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>1.88</v>
+        <v>3.96</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:06</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-jinan-xingzhou/zJUyLYn6/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-qingdao-west-coast/hfuXLEXa/</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14841,14 +14841,14 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J157" t="n">
-        <v>2.08</v>
+        <v>4.07</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.09</v>
+        <v>4.33</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:11</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>2.91</v>
+        <v>3.24</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.06</v>
+        <v>3.37</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:06</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>3.96</v>
+        <v>1.88</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:06</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-qingdao-west-coast/hfuXLEXa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-jinan-xingzhou/zJUyLYn6/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>2.32</v>
+        <v>1.82</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,15 +14948,15 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
@@ -14964,15 +14964,15 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.16</v>
+        <v>3.28</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>3.09</v>
+        <v>4.15</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -14980,16 +14980,16 @@
         </is>
       </c>
       <c r="T158" t="n">
-        <v>3.62</v>
+        <v>4.88</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shanghai-jiading-huilong/viyTMfIg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-dandong-tengyue/E9TuKh2C/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
         <v>2</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Dongguan Guanlian</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
       <c r="J164" t="n">
-        <v>1.57</v>
+        <v>7.87</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.39</v>
+        <v>7.07</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.58</v>
+        <v>4.58</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>4.71</v>
+        <v>4.19</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>5.39</v>
+        <v>1.34</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>8.130000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shijiazhuang-gongfu/8WlFYiH5/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I165" t="n">
         <v>2</v>
       </c>
       <c r="J165" t="n">
-        <v>7.87</v>
+        <v>5.13</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>7.07</v>
+        <v>7.25</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>4.58</v>
+        <v>3.48</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4.19</v>
+        <v>4.05</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shijiazhuang-gongfu/8WlFYiH5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-sichuan-jiuniu/C4e6zEng/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Sichuan Jiuniu</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>2</v>
-      </c>
       <c r="J166" t="n">
-        <v>5.13</v>
+        <v>1.57</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>7.25</v>
+        <v>1.39</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.48</v>
+        <v>3.58</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4.05</v>
+        <v>4.71</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>1.61</v>
+        <v>5.39</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>1.49</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-sichuan-jiuniu/C4e6zEng/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>2.14</v>
+        <v>3.66</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>1.93</v>
+        <v>3.05</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         </is>
       </c>
       <c r="N171" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>13/09/2023 13:23</t>
+          <t>13/09/2023 13:22</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>3.51</v>
+        <v>1.99</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>4.61</v>
+        <v>2.33</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-guangxi-pingguo-haliao/nZBtxRNc/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-suzhou-dongwu/dQKfX2xT/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>5.16</v>
+        <v>2.14</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>10.32</v>
+        <v>1.93</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:21</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>4.49</v>
+        <v>3.1</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:23</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>1.61</v>
+        <v>3.51</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>1.36</v>
+        <v>4.61</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:21</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-sichuan-jiuniu/Uc1oyow4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-guangxi-pingguo-haliao/nZBtxRNc/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="n">
-        <v>3.66</v>
+        <v>5.16</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>3.05</v>
+        <v>10.32</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>13/09/2023 13:21</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.34</v>
+        <v>4.49</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>13/09/2023 13:22</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>1.99</v>
+        <v>1.61</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>2.33</v>
+        <v>1.36</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>13/09/2023 13:21</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-suzhou-dongwu/dQKfX2xT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-sichuan-jiuniu/Uc1oyow4/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="n">
-        <v>3.06</v>
+        <v>3.22</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>15/10/2023 08:51</t>
+          <t>15/10/2023 08:50</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.17</v>
+        <v>2.84</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.38</v>
+        <v>2.86</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="R198" t="n">
-        <v>2.23</v>
+        <v>2.28</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>3.62</v>
+        <v>3.22</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>15/10/2023 08:51</t>
+          <t>15/10/2023 08:50</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shenyang-urban-fc/Iuomy6f1/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-guangxi-pingguo-haliao/OIoqxnue/</t>
         </is>
       </c>
     </row>
@@ -18697,22 +18697,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>3.22</v>
+        <v>3.06</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>15/10/2023 08:50</t>
+          <t>15/10/2023 08:51</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>2.84</v>
+        <v>3.17</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>2.86</v>
+        <v>3.38</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         </is>
       </c>
       <c r="R199" t="n">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>3.22</v>
+        <v>3.62</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>15/10/2023 08:50</t>
+          <t>15/10/2023 08:51</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-guangxi-pingguo-haliao/OIoqxnue/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shenyang-urban-fc/Iuomy6f1/</t>
         </is>
       </c>
     </row>
@@ -20050,6 +20050,190 @@
       <c r="V213" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jiangxi-lushan/dUEpfK0t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45221.375</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Wuxi Wugou</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>2</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:56</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:56</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:56</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-heilongjiang-ice-city/AgUkiIpa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45221.375</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:58</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:58</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T215" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:51</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-guangzhou-fc/GWUohbVh/</t>
         </is>
       </c>
     </row>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V215"/>
+  <dimension ref="A1:V217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>3.14</v>
+        <v>1.78</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.73</v>
+        <v>1.5</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2.7</v>
+        <v>3.09</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2.79</v>
+        <v>3.67</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.48</v>
+        <v>4.81</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.3</v>
+        <v>8.51</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Yanbian Longding</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
       <c r="J79" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>4.81</v>
+        <v>3.48</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>8.51</v>
+        <v>5.57</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.15</v>
+        <v>3.14</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.65</v>
+        <v>3.73</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.68</v>
+        <v>2.79</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.48</v>
+        <v>2.48</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>5.57</v>
+        <v>2.3</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G206" t="n">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Shanghai Jiading Huilong</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
         <v>2</v>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Dongguan Guanlian</t>
-        </is>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
       <c r="J206" t="n">
-        <v>1.72</v>
+        <v>2.48</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1.5</v>
+        <v>3.43</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>18/10/2023 13:27</t>
+          <t>18/10/2023 13:29</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.23</v>
+        <v>2.95</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.43</v>
+        <v>3</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>18/10/2023 13:14</t>
+          <t>18/10/2023 13:29</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>4.73</v>
+        <v>2.79</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>5.44</v>
+        <v>2.31</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>18/10/2023 13:14</t>
+          <t>18/10/2023 13:29</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dongguan-guanlian/AZ9QlPO0/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shanghai-jiading-huilong/hbaVmqv7/</t>
         </is>
       </c>
     </row>
@@ -19433,22 +19433,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G207" t="n">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Dandong Tengyue</t>
-        </is>
-      </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
       <c r="J207" t="n">
-        <v>2.11</v>
+        <v>1.82</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -19456,15 +19456,15 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>18/10/2023 13:28</t>
+          <t>18/10/2023 13:20</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.21</v>
+        <v>3.33</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -19472,15 +19472,15 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3.97</v>
+        <v>3.99</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>18/10/2023 13:29</t>
+          <t>18/10/2023 13:20</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.26</v>
+        <v>3.96</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -19488,16 +19488,16 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>5.07</v>
+        <v>5.41</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>18/10/2023 13:29</t>
+          <t>18/10/2023 13:20</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-dandong-tengyue/CvSwbT1E/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-heilongjiang-ice-city/IyVod7WQ/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
         <v>1</v>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>Shanghai Jiading Huilong</t>
-        </is>
-      </c>
-      <c r="I208" t="n">
-        <v>2</v>
-      </c>
       <c r="J208" t="n">
-        <v>2.48</v>
+        <v>2.11</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>17/10/2023 00:42</t>
+          <t>17/10/2023 04:12</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>3.43</v>
+        <v>1.65</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
+          <t>18/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>17/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
           <t>18/10/2023 13:29</t>
         </is>
       </c>
-      <c r="N208" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>17/10/2023 00:42</t>
-        </is>
-      </c>
-      <c r="P208" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q208" t="inlineStr">
+      <c r="R208" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>17/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T208" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="U208" t="inlineStr">
         <is>
           <t>18/10/2023 13:29</t>
         </is>
       </c>
-      <c r="R208" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S208" t="inlineStr">
-        <is>
-          <t>17/10/2023 00:42</t>
-        </is>
-      </c>
-      <c r="T208" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="U208" t="inlineStr">
-        <is>
-          <t>18/10/2023 13:29</t>
-        </is>
-      </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shanghai-jiading-huilong/hbaVmqv7/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-dandong-tengyue/CvSwbT1E/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>17/10/2023 04:12</t>
+          <t>17/10/2023 00:42</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>18/10/2023 13:20</t>
+          <t>18/10/2023 13:27</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.33</v>
+        <v>3.23</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>17/10/2023 04:12</t>
+          <t>17/10/2023 00:42</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>3.99</v>
+        <v>3.43</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>18/10/2023 13:20</t>
+          <t>18/10/2023 13:14</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>3.96</v>
+        <v>4.73</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>17/10/2023 04:12</t>
+          <t>17/10/2023 00:42</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>18/10/2023 13:20</t>
+          <t>18/10/2023 13:14</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-heilongjiang-ice-city/IyVod7WQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dongguan-guanlian/AZ9QlPO0/</t>
         </is>
       </c>
     </row>
@@ -20234,6 +20234,190 @@
       <c r="V215" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-guangzhou-fc/GWUohbVh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45221.5625</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Shanghai Jiading Huilong</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T216" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shanghai-jiading-huilong/6LNbkdFB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45221.5625</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Qingdao West Coast</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T217" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-qingdao-west-coast/OdYgjx05/</t>
         </is>
       </c>
     </row>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V217"/>
+  <dimension ref="A1:V225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.78</v>
+        <v>3.14</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.5</v>
+        <v>3.73</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.09</v>
+        <v>2.7</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.67</v>
+        <v>2.79</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.81</v>
+        <v>2.48</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>8.51</v>
+        <v>2.3</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.59</v>
+        <v>1.78</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,48 +7772,48 @@
         </is>
       </c>
       <c r="L80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:25</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>27/06/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
         <v>3.67</v>
       </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:05</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="O80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:25</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="S80" t="inlineStr">
         <is>
           <t>27/06/2023 01:42</t>
         </is>
       </c>
-      <c r="P80" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:04</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>27/06/2023 01:42</t>
-        </is>
-      </c>
       <c r="T80" t="n">
-        <v>2.21</v>
+        <v>8.51</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>3.14</v>
+        <v>2.59</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:05</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>2.79</v>
+        <v>3</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
         </is>
       </c>
     </row>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>3.47</v>
+        <v>1.32</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>4.05</v>
+        <v>1.29</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>10/10/2023 13:29</t>
+          <t>10/10/2023 13:06</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>2.75</v>
+        <v>4.54</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2.94</v>
+        <v>5.32</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>10/10/2023 13:29</t>
+          <t>10/10/2023 13:06</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>2.22</v>
+        <v>8.08</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>2.12</v>
+        <v>10.56</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>10/10/2023 13:29</t>
+          <t>10/10/2023 13:06</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-sichuan-jiuniu/hGh1pAXE/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-jiangxi-lushan/roBANnQ1/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193" t="n">
-        <v>1.32</v>
+        <v>3.47</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>1.29</v>
+        <v>4.05</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>10/10/2023 13:06</t>
+          <t>10/10/2023 13:29</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>4.54</v>
+        <v>2.75</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>5.32</v>
+        <v>2.94</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>10/10/2023 13:06</t>
+          <t>10/10/2023 13:29</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>8.08</v>
+        <v>2.22</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>10.56</v>
+        <v>2.12</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>10/10/2023 13:06</t>
+          <t>10/10/2023 13:29</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-jiangxi-lushan/roBANnQ1/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-sichuan-jiuniu/hGh1pAXE/</t>
         </is>
       </c>
     </row>
@@ -18605,22 +18605,22 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>3.22</v>
+        <v>3.06</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -18628,15 +18628,15 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>15/10/2023 08:50</t>
+          <t>15/10/2023 08:51</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>2.84</v>
+        <v>3.17</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>2.86</v>
+        <v>3.38</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="R198" t="n">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -18660,16 +18660,16 @@
         </is>
       </c>
       <c r="T198" t="n">
-        <v>3.22</v>
+        <v>3.62</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>15/10/2023 08:50</t>
+          <t>15/10/2023 08:51</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-guangxi-pingguo-haliao/OIoqxnue/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shenyang-urban-fc/Iuomy6f1/</t>
         </is>
       </c>
     </row>
@@ -18697,22 +18697,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J199" t="n">
-        <v>3.06</v>
+        <v>3.22</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -18720,15 +18720,15 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>15/10/2023 08:51</t>
+          <t>15/10/2023 08:50</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>3.17</v>
+        <v>2.84</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3.38</v>
+        <v>2.86</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         </is>
       </c>
       <c r="R199" t="n">
-        <v>2.23</v>
+        <v>2.28</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -18752,16 +18752,16 @@
         </is>
       </c>
       <c r="T199" t="n">
-        <v>3.62</v>
+        <v>3.22</v>
       </c>
       <c r="U199" t="inlineStr">
         <is>
-          <t>15/10/2023 08:51</t>
+          <t>15/10/2023 08:50</t>
         </is>
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shenyang-urban-fc/Iuomy6f1/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-guangxi-pingguo-haliao/OIoqxnue/</t>
         </is>
       </c>
     </row>
@@ -19065,22 +19065,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G203" t="n">
+        <v>4</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Wuxi Wugou</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Jinan Xingzhou</t>
-        </is>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
       <c r="J203" t="n">
-        <v>1.74</v>
+        <v>1.12</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -19088,15 +19088,15 @@
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>18/10/2023 09:26</t>
+          <t>18/10/2023 09:25</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.28</v>
+        <v>7.32</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -19104,15 +19104,15 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.97</v>
+        <v>7.06</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>18/10/2023 09:28</t>
+          <t>18/10/2023 09:29</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>4.52</v>
+        <v>15</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
@@ -19120,16 +19120,16 @@
         </is>
       </c>
       <c r="T203" t="n">
-        <v>6.36</v>
+        <v>13.42</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>18/10/2023 09:28</t>
+          <t>18/10/2023 09:29</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jinan-xingzhou/296Ijofl/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-wuxi-wugou/OI7EiRvr/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>1.12</v>
+        <v>1.74</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>18/10/2023 09:25</t>
+          <t>18/10/2023 09:26</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>7.32</v>
+        <v>3.28</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,15 +19288,15 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>7.06</v>
+        <v>3.97</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>18/10/2023 09:29</t>
+          <t>18/10/2023 09:28</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>15</v>
+        <v>4.52</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>13.42</v>
+        <v>6.36</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>18/10/2023 09:29</t>
+          <t>18/10/2023 09:28</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-wuxi-wugou/OI7EiRvr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jinan-xingzhou/296Ijofl/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>2.48</v>
+        <v>1.72</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,48 +19364,48 @@
         </is>
       </c>
       <c r="L206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
         <v>3.43</v>
       </c>
-      <c r="M206" t="inlineStr">
-        <is>
-          <t>18/10/2023 13:29</t>
-        </is>
-      </c>
-      <c r="N206" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="O206" t="inlineStr">
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>18/10/2023 13:14</t>
+        </is>
+      </c>
+      <c r="R206" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="S206" t="inlineStr">
         <is>
           <t>17/10/2023 00:42</t>
         </is>
       </c>
-      <c r="P206" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q206" t="inlineStr">
-        <is>
-          <t>18/10/2023 13:29</t>
-        </is>
-      </c>
-      <c r="R206" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S206" t="inlineStr">
-        <is>
-          <t>17/10/2023 00:42</t>
-        </is>
-      </c>
       <c r="T206" t="n">
-        <v>2.31</v>
+        <v>5.44</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>18/10/2023 13:29</t>
+          <t>18/10/2023 13:14</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shanghai-jiading-huilong/hbaVmqv7/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dongguan-guanlian/AZ9QlPO0/</t>
         </is>
       </c>
     </row>
@@ -19433,22 +19433,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
         <v>1</v>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Heilongjiang Ice City</t>
-        </is>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
       <c r="J207" t="n">
-        <v>1.82</v>
+        <v>2.11</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -19456,15 +19456,15 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>18/10/2023 13:20</t>
+          <t>18/10/2023 13:28</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.33</v>
+        <v>3.21</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -19472,15 +19472,15 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3.99</v>
+        <v>3.97</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>18/10/2023 13:20</t>
+          <t>18/10/2023 13:29</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.96</v>
+        <v>3.26</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -19488,16 +19488,16 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>5.41</v>
+        <v>5.07</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>18/10/2023 13:20</t>
+          <t>18/10/2023 13:29</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-heilongjiang-ice-city/IyVod7WQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-dandong-tengyue/CvSwbT1E/</t>
         </is>
       </c>
     </row>
@@ -19525,46 +19525,46 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>2.11</v>
+        <v>2.48</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>17/10/2023 04:12</t>
+          <t>17/10/2023 00:42</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1.65</v>
+        <v>3.43</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>18/10/2023 13:28</t>
+          <t>18/10/2023 13:29</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.21</v>
+        <v>2.95</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>17/10/2023 04:12</t>
+          <t>17/10/2023 00:42</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3.97</v>
+        <v>3</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -19572,15 +19572,15 @@
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.26</v>
+        <v>2.79</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>17/10/2023 04:12</t>
+          <t>17/10/2023 00:42</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>5.07</v>
+        <v>2.31</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-dandong-tengyue/CvSwbT1E/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shanghai-jiading-huilong/hbaVmqv7/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>17/10/2023 00:42</t>
+          <t>17/10/2023 04:12</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>18/10/2023 13:27</t>
+          <t>18/10/2023 13:20</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.23</v>
+        <v>3.33</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>17/10/2023 00:42</t>
+          <t>17/10/2023 04:12</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>3.43</v>
+        <v>3.99</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>18/10/2023 13:14</t>
+          <t>18/10/2023 13:20</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>4.73</v>
+        <v>3.96</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>17/10/2023 00:42</t>
+          <t>17/10/2023 04:12</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>5.44</v>
+        <v>5.41</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>18/10/2023 13:14</t>
+          <t>18/10/2023 13:20</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dongguan-guanlian/AZ9QlPO0/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-heilongjiang-ice-city/IyVod7WQ/</t>
         </is>
       </c>
     </row>
@@ -20077,22 +20077,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>3.94</v>
+        <v>2.28</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,48 +20100,48 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>3.19</v>
+        <v>2.17</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>22/10/2023 08:56</t>
+          <t>22/10/2023 08:58</t>
         </is>
       </c>
       <c r="N214" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
         <v>3.59</v>
       </c>
-      <c r="O214" t="inlineStr">
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:58</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S214" t="inlineStr">
         <is>
           <t>20/10/2023 20:13</t>
         </is>
       </c>
-      <c r="P214" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>22/10/2023 08:56</t>
-        </is>
-      </c>
-      <c r="R214" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>20/10/2023 20:13</t>
-        </is>
-      </c>
       <c r="T214" t="n">
-        <v>2.08</v>
+        <v>3.14</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>22/10/2023 08:56</t>
+          <t>22/10/2023 08:51</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-heilongjiang-ice-city/AgUkiIpa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-guangzhou-fc/GWUohbVh/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G215" t="n">
+        <v>2</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
         <v>1</v>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Guangzhou FC</t>
-        </is>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
       <c r="J215" t="n">
-        <v>2.28</v>
+        <v>3.94</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,15 +20192,15 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>2.17</v>
+        <v>3.19</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>22/10/2023 08:58</t>
+          <t>22/10/2023 08:56</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>3.36</v>
+        <v>3.59</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
@@ -20208,15 +20208,15 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>22/10/2023 08:58</t>
+          <t>22/10/2023 08:56</t>
         </is>
       </c>
       <c r="R215" t="n">
-        <v>2.82</v>
+        <v>1.79</v>
       </c>
       <c r="S215" t="inlineStr">
         <is>
@@ -20224,16 +20224,16 @@
         </is>
       </c>
       <c r="T215" t="n">
-        <v>3.14</v>
+        <v>2.08</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
-          <t>22/10/2023 08:51</t>
+          <t>22/10/2023 08:56</t>
         </is>
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-guangzhou-fc/GWUohbVh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-heilongjiang-ice-city/AgUkiIpa/</t>
         </is>
       </c>
     </row>
@@ -20418,6 +20418,742 @@
       <c r="V217" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-qingdao-west-coast/OdYgjx05/</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45227.35416666666</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Suzhou Dongwu</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Guangxi Pingguo Haliao</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>3</v>
+      </c>
+      <c r="J218" t="n">
+        <v>4</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:16</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:16</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T218" t="n">
+        <v>2</v>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:16</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-guangxi-pingguo-haliao/EoR6mzpO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45227.35416666666</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>2</v>
+      </c>
+      <c r="J219" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:28</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-shijiazhuang-gongfu/lb8S4yFb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45227.35416666666</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Qingdao West Coast</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>2</v>
+      </c>
+      <c r="J220" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T220" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-qingdao-west-coast/pCM2lGUH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45227.35416666666</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:28</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:28</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T221" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:28</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dongguan-guanlian/IaiH7wVu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45227.35416666666</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>3</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Shenyang Urban FC</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:04</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:04</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T222" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:04</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shenyang-urban-fc/GpAK6cpn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45227.35416666666</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Jinan Xingzhou</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Wuxi Wugou</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>2</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:02</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:02</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T223" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:02</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-wuxi-wugou/A79O5Hah/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45227.35416666666</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Nanjing City</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:27</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:22</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T224" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:27</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-sichuan-jiuniu/hxQAnfaU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45227.35416666666</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>3</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Shanghai Jiading Huilong</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:24</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:25</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T225" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:25</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-shanghai-jiading-huilong/6Z2X3eU4/</t>
         </is>
       </c>
     </row>

--- a/2023/china_jia-league_2023.xlsx
+++ b/2023/china_jia-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V225"/>
+  <dimension ref="A1:V233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,22 +1409,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.81</v>
+        <v>1.58</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,15 +1432,15 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.14</v>
+        <v>3.59</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2.97</v>
+        <v>4.74</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,15 +1448,15 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.07</v>
+        <v>6.49</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>05/05/2023 18:12</t>
+          <t>05/05/2023 18:08</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.3</v>
+        <v>9.94</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.58</v>
+        <v>3.81</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1524,15 +1524,15 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.59</v>
+        <v>3.14</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.74</v>
+        <v>2.97</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1540,15 +1540,15 @@
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.49</v>
+        <v>2.07</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>05/05/2023 18:08</t>
+          <t>05/05/2023 18:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>9.94</v>
+        <v>2.3</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-shanghai-jiading-huilong/vyyuwbk8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-guangxi-pingguo-haliao/hvuqxI4E/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Qingdao West Coast</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" t="n">
-        <v>5.64</v>
+        <v>2.28</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5.74</v>
+        <v>2.81</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:52</t>
+          <t>07/05/2023 08:56</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>3.09</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,32 +1808,32 @@
         </is>
       </c>
       <c r="P15" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>07/05/2023 08:56</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>3.31</v>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>07/05/2023 08:52</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S15" t="inlineStr">
         <is>
           <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>2.91</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>07/05/2023 08:37</t>
+          <t>07/05/2023 08:38</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.28</v>
+        <v>3.53</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.81</v>
+        <v>2.96</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:56</t>
+          <t>07/05/2023 08:39</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.31</v>
+        <v>2.31</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>06/05/2023 17:56</t>
+          <t>06/05/2023 17:57</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.91</v>
+        <v>2.72</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>07/05/2023 08:38</t>
+          <t>07/05/2023 08:58</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-dongguan-guanlian/OSENUZdl/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.53</v>
+        <v>5.64</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.96</v>
+        <v>5.74</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.84</v>
+        <v>3.31</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:39</t>
+          <t>07/05/2023 08:52</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.31</v>
+        <v>1.63</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>06/05/2023 17:57</t>
+          <t>06/05/2023 17:56</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.72</v>
+        <v>1.72</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>07/05/2023 08:58</t>
+          <t>07/05/2023 08:37</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-suzhou-dongwu/pxGJVFsr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-qingdao-west-coast/6i4STgCf/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.66</v>
+        <v>2.29</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10/05/2023 09:29</t>
+          <t>10/05/2023 09:23</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.48</v>
+        <v>3.19</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>10/05/2023 09:29</t>
+          <t>10/05/2023 08:41</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>5.86</v>
+        <v>3.62</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>6.03</v>
+        <v>3.54</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>10/05/2023 09:28</t>
+          <t>10/05/2023 09:23</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-heilongjiang-ice-city/8GlRlelK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-jiangxi-lushan/2wlVmF3Q/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.29</v>
+        <v>1.66</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>10/05/2023 09:23</t>
+          <t>10/05/2023 09:29</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.19</v>
+        <v>3.48</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>10/05/2023 08:41</t>
+          <t>10/05/2023 09:29</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.62</v>
+        <v>5.86</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.54</v>
+        <v>6.03</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>10/05/2023 09:23</t>
+          <t>10/05/2023 09:28</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-jiangxi-lushan/2wlVmF3Q/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-heilongjiang-ice-city/8GlRlelK/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.09</v>
+        <v>1.72</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>09/05/2023 22:30</t>
+          <t>09/05/2023 22:31</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>10/05/2023 13:29</t>
+          <t>10/05/2023 13:28</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.07</v>
+        <v>3.39</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>09/05/2023 22:30</t>
+          <t>09/05/2023 22:31</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.04</v>
+        <v>3.26</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>10/05/2023 13:29</t>
+          <t>10/05/2023 13:23</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.41</v>
+        <v>5.32</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>09/05/2023 22:30</t>
+          <t>09/05/2023 22:31</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.09</v>
+        <v>4.71</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>10/05/2023 13:29</t>
+          <t>10/05/2023 13:28</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-nanjing-city/xWvcqZBs/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-shanghai-jiading-huilong/KfU1rgRm/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.83</v>
+        <v>3.09</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.56</v>
+        <v>4</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.33</v>
+        <v>3.07</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.71</v>
+        <v>3.04</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.58</v>
+        <v>2.41</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>6.78</v>
+        <v>2.09</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-guangzhou-fc/h86vRidD/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-nanjing-city/xWvcqZBs/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>09/05/2023 22:31</t>
+          <t>09/05/2023 22:30</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10/05/2023 13:28</t>
+          <t>10/05/2023 13:29</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.39</v>
+        <v>3.33</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>09/05/2023 22:31</t>
+          <t>09/05/2023 22:30</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.26</v>
+        <v>3.71</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10/05/2023 13:23</t>
+          <t>10/05/2023 13:29</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.32</v>
+        <v>4.58</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>09/05/2023 22:31</t>
+          <t>09/05/2023 22:30</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.71</v>
+        <v>6.78</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10/05/2023 13:28</t>
+          <t>10/05/2023 13:29</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-shanghai-jiading-huilong/KfU1rgRm/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-guangzhou-fc/h86vRidD/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.63</v>
+        <v>4.15</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.14</v>
+        <v>5.31</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13/05/2023 13:29</t>
+          <t>13/05/2023 13:15</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.07</v>
+        <v>3.34</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>2.89</v>
+        <v>3.48</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13/05/2023 13:29</t>
+          <t>13/05/2023 13:07</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13/05/2023 13:29</t>
+          <t>13/05/2023 13:15</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-yanbian-longding/lzMIvBQC/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-qingdao-west-coast/6BWDuiB6/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>4.15</v>
+        <v>3.63</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5.31</v>
+        <v>3.14</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13/05/2023 13:15</t>
+          <t>13/05/2023 13:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.34</v>
+        <v>3.07</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.48</v>
+        <v>2.89</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>13/05/2023 13:07</t>
+          <t>13/05/2023 13:29</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.72</v>
+        <v>2.54</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>13/05/2023 13:15</t>
+          <t>13/05/2023 13:29</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-qingdao-west-coast/6BWDuiB6/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-yanbian-longding/lzMIvBQC/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>04/06/2023 07:41</t>
+          <t>04/06/2023 09:24</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.58</v>
+        <v>3.8</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>5.3</v>
+        <v>4.94</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>04/06/2023 09:26</t>
+          <t>04/06/2023 09:29</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.82</v>
+        <v>5.33</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>12.87</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>04/06/2023 09:26</t>
+          <t>04/06/2023 09:29</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shanghai-jiading-huilong/Uoq2700G/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jiangxi-lushan/8xr66KFM/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>04/06/2023 09:24</t>
+          <t>04/06/2023 07:41</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.8</v>
+        <v>3.58</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.94</v>
+        <v>5.3</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>04/06/2023 09:29</t>
+          <t>04/06/2023 09:26</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.33</v>
+        <v>4.82</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>9.109999999999999</v>
+        <v>12.87</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>04/06/2023 09:29</t>
+          <t>04/06/2023 09:26</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jiangxi-lushan/8xr66KFM/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shanghai-jiading-huilong/Uoq2700G/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.67</v>
+        <v>2.59</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.43</v>
+        <v>3.67</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:05</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.53</v>
+        <v>2.79</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.18</v>
+        <v>3</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.56</v>
+        <v>2.88</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>8.529999999999999</v>
+        <v>2.21</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/06/2023 13:22</t>
+          <t>28/06/2023 13:04</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3.14</v>
+        <v>1.67</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.73</v>
+        <v>1.43</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2.7</v>
+        <v>3.53</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2.79</v>
+        <v>4.18</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.48</v>
+        <v>4.56</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>27/06/2023 08:37</t>
+          <t>27/06/2023 01:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.3</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/06/2023 13:28</t>
+          <t>28/06/2023 13:22</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-shanghai-jiading-huilong/xn3JWGTR/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.15</v>
+        <v>3.14</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.65</v>
+        <v>3.73</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.68</v>
+        <v>2.79</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.48</v>
+        <v>2.48</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>27/06/2023 01:42</t>
+          <t>27/06/2023 08:37</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>5.57</v>
+        <v>2.3</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/06/2023 13:21</t>
+          <t>28/06/2023 13:28</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-nanjing-city/MJvjRfik/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>2</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Yanbian Longding</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
       <c r="J80" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.09</v>
+        <v>2.96</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.81</v>
+        <v>3.48</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>8.51</v>
+        <v>5.57</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/06/2023 13:25</t>
+          <t>28/06/2023 13:21</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dandong-tengyue/YgrfQE6e/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.59</v>
+        <v>1.78</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,48 +7864,48 @@
         </is>
       </c>
       <c r="L81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:25</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>27/06/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
         <v>3.67</v>
       </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:05</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="O81" t="inlineStr">
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:25</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="S81" t="inlineStr">
         <is>
           <t>27/06/2023 01:42</t>
         </is>
       </c>
-      <c r="P81" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:04</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>27/06/2023 01:42</t>
-        </is>
-      </c>
       <c r="T81" t="n">
-        <v>2.21</v>
+        <v>8.51</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>28/06/2023 13:04</t>
+          <t>28/06/2023 13:25</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-jinan-xingzhou/67t2Ohy8/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-yanbian-longding/phCrXpu8/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>1</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.6</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.78</v>
+        <v>8.48</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:25</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.86</v>
+        <v>4.47</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.92</v>
+        <v>4.12</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:24</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.81</v>
+        <v>1.32</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.82</v>
+        <v>1.44</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>02/07/2023 13:20</t>
+          <t>02/07/2023 13:16</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jiangxi-lushan/OOvzAEwC/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-sichuan-jiuniu/KjYr8h8O/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>2</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Guangxi Pingguo Haliao</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
       <c r="J88" t="n">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>5.99</v>
+        <v>2.78</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.26</v>
+        <v>2.86</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.47</v>
+        <v>2.92</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>1.74</v>
+        <v>2.81</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>1.66</v>
+        <v>2.82</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>02/07/2023 13:28</t>
+          <t>02/07/2023 13:20</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-jiangxi-lushan/OOvzAEwC/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>9.449999999999999</v>
+        <v>4.75</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>8.48</v>
+        <v>5.99</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:25</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.47</v>
+        <v>3.26</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>4.12</v>
+        <v>3.47</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:24</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>02/07/2023 13:16</t>
+          <t>02/07/2023 13:28</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-sichuan-jiuniu/KjYr8h8O/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-guangxi-pingguo-haliao/6mUv9YhI/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.4</v>
+        <v>3.13</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.26</v>
+        <v>3.16</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:29</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.99</v>
+        <v>2.37</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>08/07/2023 13:25</t>
+          <t>08/07/2023 13:26</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>3.55</v>
+        <v>3.76</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.13</v>
+        <v>2.4</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.16</v>
+        <v>3.26</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:29</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.37</v>
+        <v>2.99</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>08/07/2023 13:26</t>
+          <t>08/07/2023 13:25</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-suzhou-dongwu/Qi15Pgwa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-yanbian-longding/WU11QZNh/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>3.1</v>
+        <v>3.72</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.93</v>
+        <v>1.78</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.23</v>
+        <v>3.41</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:20</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.21</v>
+        <v>1.97</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.46</v>
+        <v>4.63</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>16/07/2023 13:29</t>
+          <t>16/07/2023 13:28</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.72</v>
+        <v>1.96</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,48 +9980,48 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
+          <t>16/07/2023 13:14</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>15/07/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
           <t>16/07/2023 13:28</t>
         </is>
       </c>
-      <c r="N104" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O104" t="inlineStr">
+      <c r="R104" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S104" t="inlineStr">
         <is>
           <t>15/07/2023 01:42</t>
         </is>
       </c>
-      <c r="P104" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q104" t="inlineStr">
+      <c r="T104" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U104" t="inlineStr">
         <is>
           <t>16/07/2023 13:28</t>
         </is>
       </c>
-      <c r="R104" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>15/07/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T104" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>16/07/2023 13:28</t>
-        </is>
-      </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-yanbian-longding/IoQrwD7b/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.4</v>
+        <v>2.93</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:14</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>4.24</v>
+        <v>3.23</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:20</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.94</v>
+        <v>2.21</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>9.25</v>
+        <v>2.46</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>16/07/2023 13:28</t>
+          <t>16/07/2023 13:29</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-suzhou-dongwu/veRvvghh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-heilongjiang-ice-city/bcstxXM4/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.94</v>
+        <v>3.41</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2</v>
+        <v>4.96</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>29/07/2023 13:29</t>
+          <t>29/07/2023 13:21</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.09</v>
+        <v>3.61</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>29/07/2023 13:29</t>
+          <t>29/07/2023 12:39</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.53</v>
+        <v>2.04</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>4.27</v>
+        <v>1.73</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>29/07/2023 13:29</t>
+          <t>29/07/2023 13:21</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-guangxi-pingguo-haliao/SjEVnlyN/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-nanjing-city/AFJQmULG/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>3.41</v>
+        <v>2.94</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>4.96</v>
+        <v>2</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>29/07/2023 13:21</t>
+          <t>29/07/2023 13:29</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.61</v>
+        <v>3.09</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>29/07/2023 12:39</t>
+          <t>29/07/2023 13:29</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.04</v>
+        <v>2.53</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>1.73</v>
+        <v>4.27</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>29/07/2023 13:21</t>
+          <t>29/07/2023 13:29</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-nanjing-city/AFJQmULG/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-guangxi-pingguo-haliao/SjEVnlyN/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,14 +11253,14 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.53</v>
+        <v>2.81</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.41</v>
+        <v>2.93</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>30/07/2023 11:45</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.83</v>
+        <v>2.99</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>30/07/2023 12:38</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>5.33</v>
+        <v>2.5</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>8.66</v>
+        <v>2.71</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>30/07/2023 12:38</t>
+          <t>30/07/2023 13:02</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-jiangxi-lushan/OMa1sSbp/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,14 +11345,14 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.81</v>
+        <v>1.53</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.93</v>
+        <v>1.41</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 11:45</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.99</v>
+        <v>3.83</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 12:38</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.5</v>
+        <v>5.33</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.71</v>
+        <v>8.66</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>30/07/2023 13:02</t>
+          <t>30/07/2023 12:38</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-dandong-tengyue/xQ35tnEj/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-jiangxi-lushan/OMa1sSbp/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,14 +11437,14 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>4.36</v>
+        <v>2.07</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>6.83</v>
+        <v>2.01</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.22</v>
+        <v>2.97</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.84</v>
+        <v>3.08</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>1.78</v>
+        <v>3.68</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>1.54</v>
+        <v>4.27</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>30/07/2023 13:21</t>
+          <t>30/07/2023 13:20</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -11529,14 +11529,14 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>2.07</v>
+        <v>4.36</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.01</v>
+        <v>6.83</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.97</v>
+        <v>3.22</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.08</v>
+        <v>3.84</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>3.68</v>
+        <v>1.78</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>4.27</v>
+        <v>1.54</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>30/07/2023 13:20</t>
+          <t>30/07/2023 13:21</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-shijiazhuang-gongfu/6sDZo8jT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dongguan-guanlian/vVsl5Vji/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.56</v>
+        <v>2.36</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.28</v>
+        <v>2.46</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.6</v>
+        <v>2.79</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>5.53</v>
+        <v>2.93</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.45</v>
+        <v>3.14</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>10.63</v>
+        <v>3.24</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/08/2023 13:29</t>
+          <t>06/08/2023 13:27</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-guangzhou-fc/h0dxquzk/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangxi-pingguo-haliao/Wjetrake/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
         <v>2</v>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Guangxi Pingguo Haliao</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
       <c r="J128" t="n">
-        <v>2.36</v>
+        <v>1.71</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>2.46</v>
+        <v>1.47</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 09:29</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>2.79</v>
+        <v>3.53</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2.93</v>
+        <v>4.18</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:26</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>3.14</v>
+        <v>4.29</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>3.24</v>
+        <v>7.19</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>06/08/2023 13:27</t>
+          <t>06/08/2023 13:26</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-guangxi-pingguo-haliao/Wjetrake/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-jiangxi-lushan/lSkosJ41/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>06/08/2023 09:29</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.53</v>
+        <v>3.6</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>4.18</v>
+        <v>5.53</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>06/08/2023 13:26</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>4.29</v>
+        <v>5.45</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>7.19</v>
+        <v>10.63</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>06/08/2023 13:26</t>
+          <t>06/08/2023 13:29</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-jiangxi-lushan/lSkosJ41/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-guangzhou-fc/h0dxquzk/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.77</v>
+        <v>1.3</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.29</v>
+        <v>4.58</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.96</v>
+        <v>5.26</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>13/08/2023 13:27</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.3</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.38</v>
+        <v>12.87</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>13/08/2023 13:21</t>
+          <t>13/08/2023 12:15</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shenyang-urban-fc/SIAKeIJf/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G134" t="n">
+        <v>3</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Yanbian Longding</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
         <v>2</v>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Jiangxi Lushan</t>
-        </is>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
       <c r="J134" t="n">
-        <v>1.3</v>
+        <v>1.72</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.58</v>
+        <v>3.23</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>5.26</v>
+        <v>4.64</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:21</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>8.789999999999999</v>
+        <v>4.73</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>12.87</v>
+        <v>12.12</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>13/08/2023 12:15</t>
+          <t>13/08/2023 13:27</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-jiangxi-lushan/EBUq2KtR/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.32</v>
+        <v>1.62</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.23</v>
+        <v>3.29</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,32 +13032,32 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>4.64</v>
+        <v>3.96</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
+          <t>13/08/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>12/08/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
           <t>13/08/2023 13:21</t>
         </is>
       </c>
-      <c r="R137" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>12/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="T137" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>13/08/2023 13:27</t>
-        </is>
-      </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-yanbian-longding/zLVu30RK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shenyang-urban-fc/SIAKeIJf/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J142" t="n">
-        <v>5.23</v>
+        <v>4.05</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>5.93</v>
+        <v>3.38</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.43</v>
+        <v>3.22</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>1.68</v>
+        <v>2.22</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>20/08/2023 13:25</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>4.05</v>
+        <v>5.23</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>3.38</v>
+        <v>5.93</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.22</v>
+        <v>3.43</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2.22</v>
+        <v>1.68</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:25</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-shijiazhuang-gongfu/vTWAGJeK/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-sichuan-jiuniu/hzDoAHYm/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Shenyang Urban FC</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>1.39</v>
+        <v>3.13</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.38</v>
+        <v>3.43</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>4.15</v>
+        <v>3.01</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>4.77</v>
+        <v>3.28</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>7.02</v>
+        <v>2.22</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>8.369999999999999</v>
+        <v>2.17</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>20/08/2023 13:23</t>
+          <t>20/08/2023 13:22</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Shenyang Urban FC</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>3.13</v>
+        <v>1.39</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>3.43</v>
+        <v>1.38</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.01</v>
+        <v>4.15</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.28</v>
+        <v>4.77</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>2.22</v>
+        <v>7.02</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>2.17</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>20/08/2023 13:22</t>
+          <t>20/08/2023 13:23</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-dongguan-guanlian/YkWEFwBQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-shenyang-urban-fc/ABNtBcJs/</t>
         </is>
       </c>
     </row>
@@ -14373,22 +14373,22 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>1.46</v>
+        <v>3.23</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -14396,15 +14396,15 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>1.42</v>
+        <v>5.75</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>27/08/2023 13:21</t>
+          <t>27/08/2023 13:26</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.92</v>
+        <v>3.08</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
@@ -14412,15 +14412,15 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>4.28</v>
+        <v>3.78</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>27/08/2023 13:21</t>
+          <t>27/08/2023 13:26</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>6.22</v>
+        <v>2.14</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -14428,16 +14428,16 @@
         </is>
       </c>
       <c r="T152" t="n">
-        <v>8.31</v>
+        <v>1.62</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>27/08/2023 13:21</t>
+          <t>27/08/2023 13:22</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shanghai-jiading-huilong/Yk865gmJ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shijiazhuang-gongfu/QqehTduQ/</t>
         </is>
       </c>
     </row>
@@ -14465,22 +14465,22 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>3.23</v>
+        <v>1.46</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -14488,15 +14488,15 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>5.75</v>
+        <v>1.42</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>27/08/2023 13:26</t>
+          <t>27/08/2023 13:21</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.08</v>
+        <v>3.92</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
@@ -14504,15 +14504,15 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.78</v>
+        <v>4.28</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>27/08/2023 13:26</t>
+          <t>27/08/2023 13:21</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>2.14</v>
+        <v>6.22</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -14520,16 +14520,16 @@
         </is>
       </c>
       <c r="T153" t="n">
-        <v>1.62</v>
+        <v>8.31</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>27/08/2023 13:22</t>
+          <t>27/08/2023 13:21</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-shijiazhuang-gongfu/QqehTduQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-shanghai-jiading-huilong/Yk865gmJ/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>2.32</v>
+        <v>1.82</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.16</v>
+        <v>3.28</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.09</v>
+        <v>4.15</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>3.62</v>
+        <v>4.88</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>02/09/2023 13:24</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shanghai-jiading-huilong/viyTMfIg/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-dandong-tengyue/E9TuKh2C/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2.91</v>
+        <v>2.88</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.06</v>
+        <v>3.16</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>3.96</v>
+        <v>3.62</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:24</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-qingdao-west-coast/hfuXLEXa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-shanghai-jiading-huilong/viyTMfIg/</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14841,14 +14841,14 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J157" t="n">
-        <v>4.07</v>
+        <v>2.08</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>4.33</v>
+        <v>2.09</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:11</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.37</v>
+        <v>3.06</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:06</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>1.88</v>
+        <v>3.96</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>02/09/2023 13:06</t>
+          <t>02/09/2023 13:28</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-jinan-xingzhou/zJUyLYn6/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-qingdao-west-coast/hfuXLEXa/</t>
         </is>
       </c>
     </row>
@@ -14925,22 +14925,22 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="n">
-        <v>1.82</v>
+        <v>4.07</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -14948,48 +14948,48 @@
         </is>
       </c>
       <c r="L158" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:11</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>01/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:06</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
         <v>1.83</v>
       </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:28</t>
-        </is>
-      </c>
-      <c r="N158" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O158" t="inlineStr">
+      <c r="S158" t="inlineStr">
         <is>
           <t>01/09/2023 01:42</t>
         </is>
       </c>
-      <c r="P158" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Q158" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:28</t>
-        </is>
-      </c>
-      <c r="R158" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>01/09/2023 01:42</t>
-        </is>
-      </c>
       <c r="T158" t="n">
-        <v>4.88</v>
+        <v>1.88</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>02/09/2023 13:28</t>
+          <t>02/09/2023 13:06</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-dandong-tengyue/E9TuKh2C/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-jinan-xingzhou/zJUyLYn6/</t>
         </is>
       </c>
     </row>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -15393,14 +15393,14 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>4.3</v>
+        <v>7.87</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>4.18</v>
+        <v>7.07</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.3</v>
+        <v>4.58</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.6</v>
+        <v>4.19</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>09/09/2023 13:26</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>1.79</v>
+        <v>1.34</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>09/09/2023 11:41</t>
+          <t>09/09/2023 13:28</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-nanjing-city/YDd2yfXn/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shijiazhuang-gongfu/8WlFYiH5/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>2</v>
       </c>
       <c r="J164" t="n">
-        <v>7.87</v>
+        <v>5.13</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>7.07</v>
+        <v>7.25</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>4.58</v>
+        <v>3.48</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>4.19</v>
+        <v>4.05</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>09/09/2023 13:28</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-shijiazhuang-gongfu/8WlFYiH5/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-sichuan-jiuniu/C4e6zEng/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="G165" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Sichuan Jiuniu</t>
-        </is>
-      </c>
-      <c r="I165" t="n">
-        <v>2</v>
-      </c>
       <c r="J165" t="n">
-        <v>5.13</v>
+        <v>1.57</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,15 +15592,15 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>7.25</v>
+        <v>1.39</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>3.48</v>
+        <v>3.58</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4.05</v>
+        <v>4.71</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>1.61</v>
+        <v>5.39</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>1.49</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>09/09/2023 13:16</t>
+          <t>09/09/2023 13:25</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-sichuan-jiuniu/C4e6zEng/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>1.57</v>
+        <v>4.3</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.39</v>
+        <v>4.18</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:16</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4.71</v>
+        <v>3.6</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 13:26</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>5.39</v>
+        <v>1.79</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>8.130000000000001</v>
+        <v>1.85</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>09/09/2023 13:25</t>
+          <t>09/09/2023 11:41</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-dongguan-guanlian/UujBZX1a/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-nanjing-city/YDd2yfXn/</t>
         </is>
       </c>
     </row>
@@ -16121,22 +16121,22 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>3.66</v>
+        <v>2.14</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>3.05</v>
+        <v>1.93</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
@@ -16152,31 +16152,31 @@
         </is>
       </c>
       <c r="N171" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>12/09/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
         <v>3.1</v>
       </c>
-      <c r="O171" t="inlineStr">
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>13/09/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S171" t="inlineStr">
         <is>
           <t>12/09/2023 01:42</t>
         </is>
       </c>
-      <c r="P171" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q171" t="inlineStr">
-        <is>
-          <t>13/09/2023 13:22</t>
-        </is>
-      </c>
-      <c r="R171" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="S171" t="inlineStr">
-        <is>
-          <t>12/09/2023 01:42</t>
-        </is>
-      </c>
       <c r="T171" t="n">
-        <v>2.33</v>
+        <v>4.61</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-suzhou-dongwu/dQKfX2xT/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-guangxi-pingguo-haliao/nZBtxRNc/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J172" t="n">
-        <v>2.14</v>
+        <v>5.16</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1.93</v>
+        <v>10.32</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>13/09/2023 13:21</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>2.87</v>
+        <v>3.5</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3.1</v>
+        <v>4.49</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>13/09/2023 13:23</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>3.51</v>
+        <v>1.61</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>4.61</v>
+        <v>1.36</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>13/09/2023 13:21</t>
+          <t>13/09/2023 13:29</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-guangxi-pingguo-haliao/nZBtxRNc/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-sichuan-jiuniu/Uc1oyow4/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Shanghai Jiading Huilong</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G177" t="n">
+        <v>4</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Suzhou Dongwu</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
         <v>1</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Sichuan Jiuniu</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
-        <v>3</v>
-      </c>
       <c r="J177" t="n">
-        <v>5.16</v>
+        <v>3.66</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>10.32</v>
+        <v>3.05</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:21</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>4.49</v>
+        <v>3.34</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:22</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>1.36</v>
+        <v>2.33</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>13/09/2023 13:29</t>
+          <t>13/09/2023 13:21</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-sichuan-jiuniu/Uc1oyow4/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-suzhou-dongwu/dQKfX2xT/</t>
         </is>
       </c>
     </row>
@@ -18053,22 +18053,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J192" t="n">
-        <v>1.32</v>
+        <v>3.47</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -18076,15 +18076,15 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>1.29</v>
+        <v>4.05</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>10/10/2023 13:06</t>
+          <t>10/10/2023 13:29</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>4.54</v>
+        <v>2.75</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
@@ -18092,15 +18092,15 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>5.32</v>
+        <v>2.94</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>10/10/2023 13:06</t>
+          <t>10/10/2023 13:29</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>8.08</v>
+        <v>2.22</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -18108,16 +18108,16 @@
         </is>
       </c>
       <c r="T192" t="n">
-        <v>10.56</v>
+        <v>2.12</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>10/10/2023 13:06</t>
+          <t>10/10/2023 13:29</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-jiangxi-lushan/roBANnQ1/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-sichuan-jiuniu/hGh1pAXE/</t>
         </is>
       </c>
     </row>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>3.47</v>
+        <v>1.32</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>4.05</v>
+        <v>1.29</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>10/10/2023 13:29</t>
+          <t>10/10/2023 13:06</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>2.75</v>
+        <v>4.54</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2.94</v>
+        <v>5.32</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>10/10/2023 13:29</t>
+          <t>10/10/2023 13:06</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>2.22</v>
+        <v>8.08</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>2.12</v>
+        <v>10.56</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>10/10/2023 13:29</t>
+          <t>10/10/2023 13:06</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-sichuan-jiuniu/hGh1pAXE/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-jiangxi-lushan/roBANnQ1/</t>
         </is>
       </c>
     </row>
@@ -18237,22 +18237,22 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>3.17</v>
+        <v>2.53</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,15 +18260,15 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.14</v>
+        <v>2.95</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>14/10/2023 09:14</t>
+          <t>14/10/2023 09:25</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.04</v>
+        <v>2.79</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.26</v>
+        <v>2.86</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>14/10/2023 09:29</t>
+          <t>14/10/2023 09:17</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>2.19</v>
+        <v>2.88</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>3.54</v>
+        <v>2.71</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>14/10/2023 09:14</t>
+          <t>14/10/2023 09:25</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-heilongjiang-ice-city/Qs68rl2R/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-qingdao-west-coast/W6i5qUnL/</t>
         </is>
       </c>
     </row>
@@ -18329,22 +18329,22 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Dandong Tengyue</t>
         </is>
       </c>
       <c r="G195" t="n">
+        <v>2</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
         <v>1</v>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>Qingdao West Coast</t>
-        </is>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
       <c r="J195" t="n">
-        <v>2.53</v>
+        <v>3.17</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.95</v>
+        <v>2.14</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>14/10/2023 09:25</t>
+          <t>14/10/2023 09:14</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>2.79</v>
+        <v>3.04</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,15 +18368,15 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2.86</v>
+        <v>3.26</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>14/10/2023 09:17</t>
+          <t>14/10/2023 09:29</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>2.88</v>
+        <v>2.19</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>2.71</v>
+        <v>3.54</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>14/10/2023 09:25</t>
+          <t>14/10/2023 09:14</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-qingdao-west-coast/W6i5qUnL/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-heilongjiang-ice-city/Qs68rl2R/</t>
         </is>
       </c>
     </row>
@@ -19065,22 +19065,22 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>1.12</v>
+        <v>1.74</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -19088,15 +19088,15 @@
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>18/10/2023 09:25</t>
+          <t>18/10/2023 09:26</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>7.32</v>
+        <v>3.28</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
@@ -19104,15 +19104,15 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>7.06</v>
+        <v>3.97</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>18/10/2023 09:29</t>
+          <t>18/10/2023 09:28</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>15</v>
+        <v>4.52</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
@@ -19120,16 +19120,16 @@
         </is>
       </c>
       <c r="T203" t="n">
-        <v>13.42</v>
+        <v>6.36</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>18/10/2023 09:29</t>
+          <t>18/10/2023 09:28</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-wuxi-wugou/OI7EiRvr/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jinan-xingzhou/296Ijofl/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="G205" t="n">
+        <v>4</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Wuxi Wugou</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Jinan Xingzhou</t>
-        </is>
-      </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
       <c r="J205" t="n">
-        <v>1.74</v>
+        <v>1.12</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>18/10/2023 09:26</t>
+          <t>18/10/2023 09:25</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.28</v>
+        <v>7.32</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,15 +19288,15 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.97</v>
+        <v>7.06</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>18/10/2023 09:28</t>
+          <t>18/10/2023 09:29</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>4.52</v>
+        <v>15</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>6.36</v>
+        <v>13.42</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>18/10/2023 09:28</t>
+          <t>18/10/2023 09:29</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-jinan-xingzhou/296Ijofl/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-wuxi-wugou/OI7EiRvr/</t>
         </is>
       </c>
     </row>
@@ -19341,71 +19341,71 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shijiazhuang Gongfu</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>17/10/2023 00:42</t>
+          <t>17/10/2023 04:12</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>18/10/2023 13:27</t>
+          <t>18/10/2023 13:20</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.23</v>
+        <v>3.33</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>17/10/2023 00:42</t>
+          <t>17/10/2023 04:12</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.43</v>
+        <v>3.99</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>18/10/2023 13:14</t>
+          <t>18/10/2023 13:20</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>4.73</v>
+        <v>3.96</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>17/10/2023 00:42</t>
+          <t>17/10/2023 04:12</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>5.44</v>
+        <v>5.41</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>18/10/2023 13:14</t>
+          <t>18/10/2023 13:20</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dongguan-guanlian/AZ9QlPO0/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-heilongjiang-ice-city/IyVod7WQ/</t>
         </is>
       </c>
     </row>
@@ -19433,46 +19433,46 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Jiangxi Lushan</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>2.11</v>
+        <v>2.48</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>17/10/2023 04:12</t>
+          <t>17/10/2023 00:42</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.65</v>
+        <v>3.43</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>18/10/2023 13:28</t>
+          <t>18/10/2023 13:29</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.21</v>
+        <v>2.95</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>17/10/2023 04:12</t>
+          <t>17/10/2023 00:42</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3.97</v>
+        <v>3</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -19480,15 +19480,15 @@
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.26</v>
+        <v>2.79</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>17/10/2023 04:12</t>
+          <t>17/10/2023 00:42</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>5.07</v>
+        <v>2.31</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-dandong-tengyue/CvSwbT1E/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shanghai-jiading-huilong/hbaVmqv7/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Jiangxi Lushan</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
         <v>1</v>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>Shanghai Jiading Huilong</t>
-        </is>
-      </c>
-      <c r="I208" t="n">
-        <v>2</v>
-      </c>
       <c r="J208" t="n">
-        <v>2.48</v>
+        <v>2.11</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>17/10/2023 00:42</t>
+          <t>17/10/2023 04:12</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>3.43</v>
+        <v>1.65</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
+          <t>18/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>17/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
           <t>18/10/2023 13:29</t>
         </is>
       </c>
-      <c r="N208" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>17/10/2023 00:42</t>
-        </is>
-      </c>
-      <c r="P208" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q208" t="inlineStr">
+      <c r="R208" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>17/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T208" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="U208" t="inlineStr">
         <is>
           <t>18/10/2023 13:29</t>
         </is>
       </c>
-      <c r="R208" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S208" t="inlineStr">
-        <is>
-          <t>17/10/2023 00:42</t>
-        </is>
-      </c>
-      <c r="T208" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="U208" t="inlineStr">
-        <is>
-          <t>18/10/2023 13:29</t>
-        </is>
-      </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jiangxi-lushan-shanghai-jiading-huilong/hbaVmqv7/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-dandong-tengyue/CvSwbT1E/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>17/10/2023 04:12</t>
+          <t>17/10/2023 00:42</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>18/10/2023 13:20</t>
+          <t>18/10/2023 13:27</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.33</v>
+        <v>3.23</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>17/10/2023 04:12</t>
+          <t>17/10/2023 00:42</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>3.99</v>
+        <v>3.43</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>18/10/2023 13:20</t>
+          <t>18/10/2023 13:14</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>3.96</v>
+        <v>4.73</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>17/10/2023 04:12</t>
+          <t>17/10/2023 00:42</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>18/10/2023 13:20</t>
+          <t>18/10/2023 13:14</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-heilongjiang-ice-city/IyVod7WQ/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-dongguan-guanlian/AZ9QlPO0/</t>
         </is>
       </c>
     </row>
@@ -20077,22 +20077,22 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Yanbian Longding</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="G214" t="n">
+        <v>2</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
         <v>1</v>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Guangzhou FC</t>
-        </is>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
       <c r="J214" t="n">
-        <v>2.28</v>
+        <v>3.94</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -20100,15 +20100,15 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>2.17</v>
+        <v>3.19</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>22/10/2023 08:58</t>
+          <t>22/10/2023 08:56</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>3.36</v>
+        <v>3.59</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
@@ -20116,15 +20116,15 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>22/10/2023 08:58</t>
+          <t>22/10/2023 08:56</t>
         </is>
       </c>
       <c r="R214" t="n">
-        <v>2.82</v>
+        <v>1.79</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
@@ -20132,16 +20132,16 @@
         </is>
       </c>
       <c r="T214" t="n">
-        <v>3.14</v>
+        <v>2.08</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>22/10/2023 08:51</t>
+          <t>22/10/2023 08:56</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-guangzhou-fc/GWUohbVh/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-heilongjiang-ice-city/AgUkiIpa/</t>
         </is>
       </c>
     </row>
@@ -20169,22 +20169,22 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>3.94</v>
+        <v>2.28</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -20192,48 +20192,48 @@
         </is>
       </c>
       <c r="L215" t="n">
-        <v>3.19</v>
+        <v>2.17</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>22/10/2023 08:56</t>
+          <t>22/10/2023 08:58</t>
         </is>
       </c>
       <c r="N215" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
         <v>3.59</v>
       </c>
-      <c r="O215" t="inlineStr">
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>22/10/2023 08:58</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S215" t="inlineStr">
         <is>
           <t>20/10/2023 20:13</t>
         </is>
       </c>
-      <c r="P215" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q215" t="inlineStr">
-        <is>
-          <t>22/10/2023 08:56</t>
-        </is>
-      </c>
-      <c r="R215" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>20/10/2023 20:13</t>
-        </is>
-      </c>
       <c r="T215" t="n">
-        <v>2.08</v>
+        <v>3.14</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
-          <t>22/10/2023 08:56</t>
+          <t>22/10/2023 08:51</t>
         </is>
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-heilongjiang-ice-city/AgUkiIpa/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-guangzhou-fc/GWUohbVh/</t>
         </is>
       </c>
     </row>
@@ -20445,22 +20445,22 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Guangxi Pingguo Haliao</t>
+          <t>Shanghai Jiading Huilong</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -20468,15 +20468,15 @@
         </is>
       </c>
       <c r="L218" t="n">
-        <v>4.2</v>
+        <v>1.29</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>28/10/2023 08:16</t>
+          <t>28/10/2023 08:24</t>
         </is>
       </c>
       <c r="N218" t="n">
-        <v>3.08</v>
+        <v>3.15</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
@@ -20484,15 +20484,15 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>3.12</v>
+        <v>5.23</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>28/10/2023 08:16</t>
+          <t>28/10/2023 08:25</t>
         </is>
       </c>
       <c r="R218" t="n">
-        <v>1.9</v>
+        <v>3.85</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
@@ -20500,16 +20500,16 @@
         </is>
       </c>
       <c r="T218" t="n">
-        <v>2</v>
+        <v>11.38</v>
       </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>28/10/2023 08:16</t>
+          <t>28/10/2023 08:25</t>
         </is>
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-guangxi-pingguo-haliao/EoR6mzpO/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-shanghai-jiading-huilong/6Z2X3eU4/</t>
         </is>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Dandong Tengyue</t>
+          <t>Suzhou Dongwu</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -20545,63 +20545,63 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Shijiazhuang Gongfu</t>
+          <t>Guangxi Pingguo Haliao</t>
         </is>
       </c>
       <c r="I219" t="n">
+        <v>3</v>
+      </c>
+      <c r="J219" t="n">
+        <v>4</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:16</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:16</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
         <v>2</v>
       </c>
-      <c r="J219" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>26/10/2023 20:42</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="M219" t="inlineStr">
-        <is>
-          <t>28/10/2023 08:29</t>
-        </is>
-      </c>
-      <c r="N219" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>26/10/2023 20:42</t>
-        </is>
-      </c>
-      <c r="P219" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>28/10/2023 08:29</t>
-        </is>
-      </c>
-      <c r="R219" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="S219" t="inlineStr">
-        <is>
-          <t>26/10/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T219" t="n">
-        <v>1.36</v>
-      </c>
       <c r="U219" t="inlineStr">
         <is>
-          <t>28/10/2023 08:28</t>
+          <t>28/10/2023 08:16</t>
         </is>
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-shijiazhuang-gongfu/lb8S4yFb/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/suzhou-dongwu-guangxi-pingguo-haliao/EoR6mzpO/</t>
         </is>
       </c>
     </row>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Guangzhou FC</t>
+          <t>Nanjing City</t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -20637,14 +20637,14 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J220" t="n">
-        <v>4.59</v>
+        <v>2.76</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -20652,15 +20652,15 @@
         </is>
       </c>
       <c r="L220" t="n">
-        <v>5.21</v>
+        <v>1.93</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>28/10/2023 08:29</t>
+          <t>28/10/2023 08:27</t>
         </is>
       </c>
       <c r="N220" t="n">
-        <v>3.8</v>
+        <v>2.74</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
@@ -20668,15 +20668,15 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>4.47</v>
+        <v>3.18</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>28/10/2023 08:29</t>
+          <t>28/10/2023 08:22</t>
         </is>
       </c>
       <c r="R220" t="n">
-        <v>1.64</v>
+        <v>2.68</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="T220" t="n">
-        <v>1.56</v>
+        <v>4.48</v>
       </c>
       <c r="U220" t="inlineStr">
         <is>
-          <t>28/10/2023 08:29</t>
+          <t>28/10/2023 08:27</t>
         </is>
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-qingdao-west-coast/pCM2lGUH/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-sichuan-jiuniu/hxQAnfaU/</t>
         </is>
       </c>
     </row>
@@ -20721,7 +20721,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Heilongjiang Ice City</t>
+          <t>Jinan Xingzhou</t>
         </is>
       </c>
       <c r="G221" t="n">
@@ -20729,14 +20729,14 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Dongguan Guanlian</t>
+          <t>Wuxi Wugou</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="n">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -20744,15 +20744,15 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>28/10/2023 08:28</t>
+          <t>28/10/2023 08:02</t>
         </is>
       </c>
       <c r="N221" t="n">
-        <v>3.19</v>
+        <v>4.06</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
@@ -20760,15 +20760,15 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>5.37</v>
+        <v>4.3</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>28/10/2023 08:28</t>
+          <t>28/10/2023 08:02</t>
         </is>
       </c>
       <c r="R221" t="n">
-        <v>3.54</v>
+        <v>6.18</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
@@ -20776,16 +20776,16 @@
         </is>
       </c>
       <c r="T221" t="n">
-        <v>9.66</v>
+        <v>6.39</v>
       </c>
       <c r="U221" t="inlineStr">
         <is>
-          <t>28/10/2023 08:28</t>
+          <t>28/10/2023 08:02</t>
         </is>
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dongguan-guanlian/IaiH7wVu/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-wuxi-wugou/A79O5Hah/</t>
         </is>
       </c>
     </row>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Jinan Xingzhou</t>
+          <t>Heilongjiang Ice City</t>
         </is>
       </c>
       <c r="G223" t="n">
@@ -20913,14 +20913,14 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Wuxi Wugou</t>
+          <t>Dongguan Guanlian</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>1.44</v>
+        <v>1.98</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -20928,15 +20928,15 @@
         </is>
       </c>
       <c r="L223" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>28/10/2023 08:02</t>
+          <t>28/10/2023 08:28</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>4.06</v>
+        <v>3.19</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
@@ -20944,15 +20944,15 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>4.3</v>
+        <v>5.37</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>28/10/2023 08:02</t>
+          <t>28/10/2023 08:28</t>
         </is>
       </c>
       <c r="R223" t="n">
-        <v>6.18</v>
+        <v>3.54</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
@@ -20960,16 +20960,16 @@
         </is>
       </c>
       <c r="T223" t="n">
-        <v>6.39</v>
+        <v>9.66</v>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>28/10/2023 08:02</t>
+          <t>28/10/2023 08:28</t>
         </is>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/jinan-xingzhou-wuxi-wugou/A79O5Hah/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/heilongjiang-ice-city-dongguan-guanlian/IaiH7wVu/</t>
         </is>
       </c>
     </row>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>Guangzhou FC</t>
         </is>
       </c>
       <c r="G224" t="n">
@@ -21005,14 +21005,14 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Sichuan Jiuniu</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="n">
-        <v>2.76</v>
+        <v>4.59</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -21020,15 +21020,15 @@
         </is>
       </c>
       <c r="L224" t="n">
-        <v>1.93</v>
+        <v>5.21</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>28/10/2023 08:27</t>
+          <t>28/10/2023 08:29</t>
         </is>
       </c>
       <c r="N224" t="n">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
@@ -21036,15 +21036,15 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>3.18</v>
+        <v>4.47</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>28/10/2023 08:22</t>
+          <t>28/10/2023 08:29</t>
         </is>
       </c>
       <c r="R224" t="n">
-        <v>2.68</v>
+        <v>1.64</v>
       </c>
       <c r="S224" t="inlineStr">
         <is>
@@ -21052,16 +21052,16 @@
         </is>
       </c>
       <c r="T224" t="n">
-        <v>4.48</v>
+        <v>1.56</v>
       </c>
       <c r="U224" t="inlineStr">
         <is>
-          <t>28/10/2023 08:27</t>
+          <t>28/10/2023 08:29</t>
         </is>
       </c>
       <c r="V224" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/nanjing-city-sichuan-jiuniu/hxQAnfaU/</t>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangzhou-fc-qingdao-west-coast/pCM2lGUH/</t>
         </is>
       </c>
     </row>
@@ -21089,71 +21089,807 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:28</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/dandong-tengyue-shijiazhuang-gongfu/lb8S4yFb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45235.3125</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Dongguan Guanlian</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>2</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Jinan Xingzhou</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:27</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:27</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T226" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:27</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/dongguan-guanlian-jinan-xingzhou/rLT1JzUi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45235.3125</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Guangxi Pingguo Haliao</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>2</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Jiangxi Lushan</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:45</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:47</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T227" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:47</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/guangxi-pingguo-haliao-jiangxi-lushan/zFfl0DTT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45235.3125</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Qingdao West Coast</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
           <t>Yanbian Longding</t>
         </is>
       </c>
-      <c r="G225" t="n">
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:27</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:27</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T228" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:27</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/qingdao-west-coast-yanbian-longding/hj5q1gEN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45235.3125</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Shanghai Jiading Huilong</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Guangzhou FC</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:27</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:27</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T229" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:27</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/shanghai-jiading-huilong-guangzhou-fc/4UUcKGEo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45235.3125</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Shenyang Urban FC</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
         <v>3</v>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Shanghai Jiading Huilong</t>
-        </is>
-      </c>
-      <c r="I225" t="n">
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Nanjing City</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>26/10/2023 20:42</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M225" t="inlineStr">
-        <is>
-          <t>28/10/2023 08:24</t>
-        </is>
-      </c>
-      <c r="N225" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O225" t="inlineStr">
-        <is>
-          <t>26/10/2023 20:42</t>
-        </is>
-      </c>
-      <c r="P225" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="Q225" t="inlineStr">
-        <is>
-          <t>28/10/2023 08:25</t>
-        </is>
-      </c>
-      <c r="R225" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="S225" t="inlineStr">
-        <is>
-          <t>26/10/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T225" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="U225" t="inlineStr">
-        <is>
-          <t>28/10/2023 08:25</t>
-        </is>
-      </c>
-      <c r="V225" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/china/jia-league/yanbian-longding-shanghai-jiading-huilong/6Z2X3eU4/</t>
+      <c r="J230" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:23</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:23</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T230" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:18</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/shenyang-urban-fc-nanjing-city/xOtGeXyo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45235.3125</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Gongfu</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>3</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Suzhou Dongwu</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:27</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:27</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T231" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:27</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/shijiazhuang-gongfu-suzhou-dongwu/pQ1y3FqB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45235.3125</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>2</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:40</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:15</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T232" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:15</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/sichuan-jiuniu-heilongjiang-ice-city/vm1u2ZbH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>jia-league</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45235.3125</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Wuxi Wugou</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>3</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Dandong Tengyue</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:45</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>05/11/2023 07:17</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T233" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>05/11/2023 06:45</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/jia-league/wuxi-wugou-dandong-tengyue/QqJ6Ifqb/</t>
         </is>
       </c>
     </row>
